--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB49901-5061-044D-A942-2A0C7881077F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{CFB49901-5061-044D-A942-2A0C7881077F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="-21160" windowWidth="25600" windowHeight="21160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="21160" windowWidth="25600" xWindow="6280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21160" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="repeatUntil_take1" sheetId="5" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="repeatUntil_take1" r:id="rId2" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="511">
   <si>
     <t>description</t>
   </si>
@@ -1608,7 +1608,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1680,8 +1681,109 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1700,8 +1802,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1857,208 +2112,538 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="54">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="9" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="9" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="6" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="7" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="10" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="40" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="40" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="5"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="7"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="8"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="10"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="11"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="13"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="14"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="15"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="16"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="17"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="18"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="19"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="20"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="21"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="22"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="23"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="24"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="25"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="26"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="27"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="28"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="29"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="30"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="31"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2092,7 +2677,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2117,10 +2702,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2155,7 +2740,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2190,7 +2775,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2284,21 +2869,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2315,7 +2900,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2367,30 +2952,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC122"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="8.5" customWidth="1" collapsed="1"/>
-    <col min="14" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" width="8.5" collapsed="true"/>
+    <col min="14" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2476,7 +3061,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>372</v>
       </c>
@@ -2562,7 +3147,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>461</v>
       </c>
@@ -2642,7 +3227,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2719,7 +3304,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>171</v>
       </c>
@@ -2784,7 +3369,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2843,7 +3428,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -2899,7 +3484,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -2952,7 +3537,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>211</v>
       </c>
@@ -2996,7 +3581,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -3034,7 +3619,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>335</v>
       </c>
@@ -3069,7 +3654,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>182</v>
       </c>
@@ -3104,7 +3689,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>477</v>
       </c>
@@ -3139,7 +3724,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>193</v>
       </c>
@@ -3171,7 +3756,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3200,7 +3785,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>240</v>
       </c>
@@ -3226,7 +3811,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -3246,7 +3831,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>401</v>
       </c>
@@ -3263,7 +3848,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>413</v>
       </c>
@@ -3280,7 +3865,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>414</v>
       </c>
@@ -3297,7 +3882,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>358</v>
       </c>
@@ -3314,7 +3899,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>397</v>
       </c>
@@ -3331,7 +3916,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3348,7 +3933,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3365,7 +3950,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3382,7 +3967,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -3396,7 +3981,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>415</v>
       </c>
@@ -3410,7 +3995,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>228</v>
       </c>
@@ -3424,7 +4009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="D29" t="s">
         <v>470</v>
       </c>
@@ -3435,7 +4020,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="D30" t="s">
         <v>417</v>
       </c>
@@ -3446,7 +4031,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="D31" t="s">
         <v>156</v>
       </c>
@@ -3457,7 +4042,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="D32" t="s">
         <v>39</v>
       </c>
@@ -3468,7 +4053,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="D33" t="s">
         <v>40</v>
       </c>
@@ -3479,7 +4064,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="D34" t="s">
         <v>157</v>
       </c>
@@ -3490,7 +4075,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="D35" t="s">
         <v>158</v>
       </c>
@@ -3501,7 +4086,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="D36" t="s">
         <v>159</v>
       </c>
@@ -3512,7 +4097,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="D37" t="s">
         <v>41</v>
       </c>
@@ -3523,7 +4108,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="38" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="D38" t="s">
         <v>152</v>
       </c>
@@ -3534,7 +4119,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="F39" t="s">
         <v>155</v>
       </c>
@@ -3542,7 +4127,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="F40" t="s">
         <v>212</v>
       </c>
@@ -3550,7 +4135,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="F41" t="s">
         <v>291</v>
       </c>
@@ -3558,7 +4143,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="F42" t="s">
         <v>302</v>
       </c>
@@ -3566,7 +4151,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="F43" t="s">
         <v>303</v>
       </c>
@@ -3574,7 +4159,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="F44" t="s">
         <v>345</v>
       </c>
@@ -3582,7 +4167,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="F45" t="s">
         <v>344</v>
       </c>
@@ -3590,7 +4175,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="46" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="F46" t="s">
         <v>208</v>
       </c>
@@ -3598,7 +4183,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="F47" t="s">
         <v>304</v>
       </c>
@@ -3606,7 +4191,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="F48" t="s">
         <v>341</v>
       </c>
@@ -3614,7 +4199,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="F49" t="s">
         <v>369</v>
       </c>
@@ -3622,7 +4207,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="F50" t="s">
         <v>305</v>
       </c>
@@ -3630,7 +4215,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="F51" t="s">
         <v>357</v>
       </c>
@@ -3638,7 +4223,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="52" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="F52" t="s">
         <v>333</v>
       </c>
@@ -3646,7 +4231,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="53" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="F53" t="s">
         <v>270</v>
       </c>
@@ -3654,7 +4239,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="F54" t="s">
         <v>294</v>
       </c>
@@ -3662,7 +4247,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="F55" t="s">
         <v>295</v>
       </c>
@@ -3670,7 +4255,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="56" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="F56" t="s">
         <v>296</v>
       </c>
@@ -3678,7 +4263,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="F57" t="s">
         <v>306</v>
       </c>
@@ -3686,7 +4271,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="F58" t="s">
         <v>315</v>
       </c>
@@ -3694,7 +4279,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="F59" t="s">
         <v>339</v>
       </c>
@@ -3702,7 +4287,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="F60" t="s">
         <v>312</v>
       </c>
@@ -3710,7 +4295,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="F61" t="s">
         <v>313</v>
       </c>
@@ -3718,7 +4303,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="F62" t="s">
         <v>370</v>
       </c>
@@ -3726,7 +4311,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="F63" t="s">
         <v>371</v>
       </c>
@@ -3734,7 +4319,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="64" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="F64" t="s">
         <v>347</v>
       </c>
@@ -3742,7 +4327,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="65" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="F65" t="s">
         <v>316</v>
       </c>
@@ -3750,7 +4335,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="66" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="F66" t="s">
         <v>271</v>
       </c>
@@ -3758,7 +4343,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="67" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="F67" t="s">
         <v>354</v>
       </c>
@@ -3766,7 +4351,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="68" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="F68" t="s">
         <v>317</v>
       </c>
@@ -3774,7 +4359,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="F69" t="s">
         <v>411</v>
       </c>
@@ -3782,7 +4367,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="F70" t="s">
         <v>307</v>
       </c>
@@ -3790,7 +4375,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="F71" t="s">
         <v>412</v>
       </c>
@@ -3798,7 +4383,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="F72" t="s">
         <v>264</v>
       </c>
@@ -3806,7 +4391,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="F73" t="s">
         <v>346</v>
       </c>
@@ -3814,7 +4399,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="F74" t="s">
         <v>282</v>
       </c>
@@ -3822,7 +4407,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="75" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="F75" t="s">
         <v>288</v>
       </c>
@@ -3830,7 +4415,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="76" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="F76" t="s">
         <v>293</v>
       </c>
@@ -3838,7 +4423,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="F77" t="s">
         <v>418</v>
       </c>
@@ -3846,7 +4431,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="F78" t="s">
         <v>334</v>
       </c>
@@ -3854,7 +4439,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="F79" t="s">
         <v>272</v>
       </c>
@@ -3862,7 +4447,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="F80" t="s">
         <v>283</v>
       </c>
@@ -3870,7 +4455,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="F81" t="s">
         <v>289</v>
       </c>
@@ -3878,7 +4463,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="F82" t="s">
         <v>278</v>
       </c>
@@ -3886,7 +4471,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="83" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="F83" t="s">
         <v>273</v>
       </c>
@@ -3894,7 +4479,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="F84" t="s">
         <v>290</v>
       </c>
@@ -3902,7 +4487,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="85" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="F85" t="s">
         <v>274</v>
       </c>
@@ -3910,7 +4495,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="F86" t="s">
         <v>275</v>
       </c>
@@ -3918,7 +4503,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="F87" t="s">
         <v>308</v>
       </c>
@@ -3926,7 +4511,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="F88" t="s">
         <v>314</v>
       </c>
@@ -3934,7 +4519,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="F89" t="s">
         <v>297</v>
       </c>
@@ -3942,7 +4527,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="F90" t="s">
         <v>342</v>
       </c>
@@ -3950,7 +4535,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="91" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="F91" t="s">
         <v>279</v>
       </c>
@@ -3958,7 +4543,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="92" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="F92" t="s">
         <v>280</v>
       </c>
@@ -3966,189 +4551,189 @@
         <v>201</v>
       </c>
     </row>
-    <row r="93" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="W93" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="94" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="W94" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="95" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="W95" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="96" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="W96" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="97" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="W97" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="W98" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="W99" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="100" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="W100" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="W101" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="W102" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="W103" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="W104" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="W105" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="W106" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="W107" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="W108" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="W109" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="W110" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="W111" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="W112" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="W113" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="114" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="W114" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="W115" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="W116" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="W117" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="W118" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="W119" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="W120" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="W121" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="23:23" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="W122" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O891"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P891"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.33203125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.83203125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="41" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.33203125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="11" style="8" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="38" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="15" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="13.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="34.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="12" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="35.83203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="41.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="8" width="16.33203125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="8" width="11.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="24" width="38.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="9" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="14" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="15" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="14" width="15.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="9" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4179,7 +4764,7 @@
       <c r="N1" s="29"/>
       <c r="O1" s="30"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>486</v>
       </c>
@@ -4200,7 +4785,7 @@
       <c r="N2" s="35"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="10"/>
@@ -4217,7 +4802,7 @@
       <c r="N3" s="13"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>221</v>
       </c>
@@ -4262,7 +4847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>488</v>
       </c>
@@ -4289,7 +4874,7 @@
       <c r="N5" s="13"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="4"/>
       <c r="C6" s="11" t="s">
@@ -4314,7 +4899,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="4"/>
       <c r="C7" s="11" t="s">
@@ -4339,7 +4924,7 @@
       <c r="N7" s="13"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
       <c r="B8" s="4"/>
       <c r="C8" s="11" t="s">
@@ -4364,7 +4949,7 @@
       <c r="N8" s="13"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>502</v>
       </c>
@@ -4393,7 +4978,7 @@
       <c r="N9" s="13"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="25"/>
       <c r="B10" s="37"/>
       <c r="C10" s="11" t="s">
@@ -4418,7 +5003,7 @@
       <c r="N10" s="13"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="25"/>
       <c r="B11" s="37" t="s">
         <v>506</v>
@@ -4445,7 +5030,7 @@
       <c r="N11" s="13"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="25"/>
       <c r="B12" s="37" t="s">
         <v>504</v>
@@ -4472,7 +5057,7 @@
       <c r="N12" s="13"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="25"/>
       <c r="B13" s="37"/>
       <c r="C13" s="11" t="s">
@@ -4497,7 +5082,7 @@
       <c r="N13" s="13"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
       <c r="B14" s="37"/>
       <c r="C14" s="11" t="s">
@@ -4520,7 +5105,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="37" t="s">
         <v>505</v>
@@ -4547,7 +5132,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>507</v>
       </c>
@@ -4574,7 +5159,7 @@
       <c r="N16" s="13"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="25"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
@@ -4591,7 +5176,7 @@
       <c r="N17" s="13"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
       <c r="B18" s="4"/>
       <c r="C18" s="11"/>
@@ -4608,7 +5193,7 @@
       <c r="N18" s="13"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
       <c r="B19" s="4"/>
       <c r="C19" s="11"/>
@@ -4625,7 +5210,7 @@
       <c r="N19" s="13"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="25"/>
       <c r="B20" s="4"/>
       <c r="C20" s="11"/>
@@ -4642,7 +5227,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="25"/>
       <c r="B21" s="4"/>
       <c r="C21" s="11"/>
@@ -4659,7 +5244,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
@@ -4676,7 +5261,7 @@
       <c r="N22" s="13"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
@@ -4693,7 +5278,7 @@
       <c r="N23" s="13"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="25"/>
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
@@ -4710,7 +5295,7 @@
       <c r="N24" s="13"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="25"/>
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
@@ -4727,7 +5312,7 @@
       <c r="N25" s="13"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="25"/>
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
@@ -4744,7 +5329,7 @@
       <c r="N26" s="13"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
       <c r="B27" s="4"/>
       <c r="C27" s="11"/>
@@ -4761,7 +5346,7 @@
       <c r="N27" s="13"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="25"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
@@ -4778,7 +5363,7 @@
       <c r="N28" s="13"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="25"/>
       <c r="B29" s="4"/>
       <c r="C29" s="11"/>
@@ -4795,7 +5380,7 @@
       <c r="N29" s="13"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="25"/>
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
@@ -4812,7 +5397,7 @@
       <c r="N30" s="13"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="25"/>
       <c r="B31" s="4"/>
       <c r="C31" s="11"/>
@@ -4829,7 +5414,7 @@
       <c r="N31" s="13"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
       <c r="B32" s="4"/>
       <c r="C32" s="11"/>
@@ -4846,7 +5431,7 @@
       <c r="N32" s="13"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="4"/>
       <c r="C33" s="11"/>
@@ -4863,7 +5448,7 @@
       <c r="N33" s="13"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="25"/>
       <c r="B34" s="4"/>
       <c r="C34" s="11"/>
@@ -4880,7 +5465,7 @@
       <c r="N34" s="13"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="25"/>
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
@@ -4897,7 +5482,7 @@
       <c r="N35" s="13"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="4"/>
       <c r="C36" s="11"/>
@@ -4914,7 +5499,7 @@
       <c r="N36" s="13"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="25"/>
       <c r="B37" s="4"/>
       <c r="C37" s="11"/>
@@ -4931,7 +5516,7 @@
       <c r="N37" s="13"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="25"/>
       <c r="B38" s="4"/>
       <c r="C38" s="11"/>
@@ -4948,7 +5533,7 @@
       <c r="N38" s="13"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="25"/>
       <c r="B39" s="4"/>
       <c r="C39" s="11"/>
@@ -4965,7 +5550,7 @@
       <c r="N39" s="13"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="25"/>
       <c r="B40" s="4"/>
       <c r="C40" s="11"/>
@@ -4982,7 +5567,7 @@
       <c r="N40" s="13"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="25"/>
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
@@ -4999,7 +5584,7 @@
       <c r="N41" s="13"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="25"/>
       <c r="B42" s="4"/>
       <c r="C42" s="11"/>
@@ -5016,7 +5601,7 @@
       <c r="N42" s="13"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="25"/>
       <c r="B43" s="4"/>
       <c r="C43" s="11"/>
@@ -5033,7 +5618,7 @@
       <c r="N43" s="13"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="11"/>
@@ -5050,7 +5635,7 @@
       <c r="N44" s="13"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
@@ -5067,7 +5652,7 @@
       <c r="N45" s="13"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="11"/>
@@ -5084,7 +5669,7 @@
       <c r="N46" s="13"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
@@ -5101,7 +5686,7 @@
       <c r="N47" s="13"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="11"/>
@@ -5118,7 +5703,7 @@
       <c r="N48" s="13"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
@@ -5135,7 +5720,7 @@
       <c r="N49" s="13"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="11"/>
@@ -5152,7 +5737,7 @@
       <c r="N50" s="13"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="11"/>
@@ -5169,7 +5754,7 @@
       <c r="N51" s="13"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="11"/>
@@ -5186,7 +5771,7 @@
       <c r="N52" s="13"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="11"/>
@@ -5203,7 +5788,7 @@
       <c r="N53" s="13"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="11"/>
@@ -5220,7 +5805,7 @@
       <c r="N54" s="13"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="11"/>
@@ -5237,7 +5822,7 @@
       <c r="N55" s="13"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="11"/>
@@ -5254,7 +5839,7 @@
       <c r="N56" s="13"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="11"/>
@@ -5271,7 +5856,7 @@
       <c r="N57" s="13"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
@@ -5288,7 +5873,7 @@
       <c r="N58" s="13"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="11"/>
@@ -5305,7 +5890,7 @@
       <c r="N59" s="13"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="11"/>
@@ -5322,7 +5907,7 @@
       <c r="N60" s="13"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="11"/>
@@ -5339,7 +5924,7 @@
       <c r="N61" s="13"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
@@ -5356,7 +5941,7 @@
       <c r="N62" s="13"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
@@ -5373,7 +5958,7 @@
       <c r="N63" s="13"/>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
@@ -5390,7 +5975,7 @@
       <c r="N64" s="13"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="11"/>
@@ -5407,7 +5992,7 @@
       <c r="N65" s="13"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="11"/>
@@ -5424,7 +6009,7 @@
       <c r="N66" s="13"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="11"/>
@@ -5441,7 +6026,7 @@
       <c r="N67" s="13"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="11"/>
@@ -5458,7 +6043,7 @@
       <c r="N68" s="13"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="11"/>
@@ -5475,7 +6060,7 @@
       <c r="N69" s="13"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="11"/>
@@ -5492,7 +6077,7 @@
       <c r="N70" s="13"/>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="11"/>
@@ -5509,7 +6094,7 @@
       <c r="N71" s="13"/>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="11"/>
@@ -5526,7 +6111,7 @@
       <c r="N72" s="13"/>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="11"/>
@@ -5543,7 +6128,7 @@
       <c r="N73" s="13"/>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="11"/>
@@ -5560,7 +6145,7 @@
       <c r="N74" s="13"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="11"/>
@@ -5577,7 +6162,7 @@
       <c r="N75" s="13"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="11"/>
@@ -5594,7 +6179,7 @@
       <c r="N76" s="13"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="11"/>
@@ -5611,7 +6196,7 @@
       <c r="N77" s="13"/>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="11"/>
@@ -5628,7 +6213,7 @@
       <c r="N78" s="13"/>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="11"/>
@@ -5645,7 +6230,7 @@
       <c r="N79" s="13"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="11"/>
@@ -5662,7 +6247,7 @@
       <c r="N80" s="13"/>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="11"/>
@@ -5679,7 +6264,7 @@
       <c r="N81" s="13"/>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="11"/>
@@ -5696,7 +6281,7 @@
       <c r="N82" s="13"/>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="11"/>
@@ -5713,7 +6298,7 @@
       <c r="N83" s="13"/>
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="11"/>
@@ -5730,7 +6315,7 @@
       <c r="N84" s="13"/>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="11"/>
@@ -5747,7 +6332,7 @@
       <c r="N85" s="13"/>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="11"/>
@@ -5764,7 +6349,7 @@
       <c r="N86" s="13"/>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="11"/>
@@ -5781,7 +6366,7 @@
       <c r="N87" s="13"/>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="11"/>
@@ -5798,7 +6383,7 @@
       <c r="N88" s="13"/>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="11"/>
@@ -5815,7 +6400,7 @@
       <c r="N89" s="13"/>
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="11"/>
@@ -5832,7 +6417,7 @@
       <c r="N90" s="13"/>
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="11"/>
@@ -5849,7 +6434,7 @@
       <c r="N91" s="13"/>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="11"/>
@@ -5866,7 +6451,7 @@
       <c r="N92" s="13"/>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="11"/>
@@ -5883,7 +6468,7 @@
       <c r="N93" s="13"/>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="11"/>
@@ -5900,7 +6485,7 @@
       <c r="N94" s="13"/>
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="11"/>
@@ -5917,7 +6502,7 @@
       <c r="N95" s="13"/>
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="11"/>
@@ -5934,7 +6519,7 @@
       <c r="N96" s="13"/>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="11"/>
@@ -5951,7 +6536,7 @@
       <c r="N97" s="13"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="11"/>
@@ -5968,7 +6553,7 @@
       <c r="N98" s="13"/>
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="11"/>
@@ -5985,7 +6570,7 @@
       <c r="N99" s="13"/>
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="11"/>
@@ -6002,7 +6587,7 @@
       <c r="N100" s="13"/>
       <c r="O100" s="2"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="11"/>
@@ -6019,7 +6604,7 @@
       <c r="N101" s="13"/>
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="11"/>
@@ -6036,7 +6621,7 @@
       <c r="N102" s="13"/>
       <c r="O102" s="2"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="11"/>
@@ -6053,7 +6638,7 @@
       <c r="N103" s="13"/>
       <c r="O103" s="2"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="11"/>
@@ -6070,7 +6655,7 @@
       <c r="N104" s="13"/>
       <c r="O104" s="2"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="11"/>
@@ -6087,7 +6672,7 @@
       <c r="N105" s="13"/>
       <c r="O105" s="2"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="11"/>
@@ -6104,7 +6689,7 @@
       <c r="N106" s="13"/>
       <c r="O106" s="2"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="11"/>
@@ -6121,7 +6706,7 @@
       <c r="N107" s="13"/>
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="11"/>
@@ -6138,7 +6723,7 @@
       <c r="N108" s="13"/>
       <c r="O108" s="2"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="11"/>
@@ -6155,7 +6740,7 @@
       <c r="N109" s="13"/>
       <c r="O109" s="2"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="11"/>
@@ -6172,7 +6757,7 @@
       <c r="N110" s="13"/>
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="11"/>
@@ -6189,7 +6774,7 @@
       <c r="N111" s="13"/>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="11"/>
@@ -6206,7 +6791,7 @@
       <c r="N112" s="13"/>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="11"/>
@@ -6223,7 +6808,7 @@
       <c r="N113" s="13"/>
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="11"/>
@@ -6240,7 +6825,7 @@
       <c r="N114" s="13"/>
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="11"/>
@@ -6257,7 +6842,7 @@
       <c r="N115" s="13"/>
       <c r="O115" s="2"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="11"/>
@@ -6274,7 +6859,7 @@
       <c r="N116" s="13"/>
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="11"/>
@@ -6291,7 +6876,7 @@
       <c r="N117" s="13"/>
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="11"/>
@@ -6308,7 +6893,7 @@
       <c r="N118" s="13"/>
       <c r="O118" s="2"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="11"/>
@@ -6325,7 +6910,7 @@
       <c r="N119" s="13"/>
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="11"/>
@@ -6342,7 +6927,7 @@
       <c r="N120" s="13"/>
       <c r="O120" s="2"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="11"/>
@@ -6359,7 +6944,7 @@
       <c r="N121" s="13"/>
       <c r="O121" s="2"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="11"/>
@@ -6376,7 +6961,7 @@
       <c r="N122" s="13"/>
       <c r="O122" s="2"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="11"/>
@@ -6393,7 +6978,7 @@
       <c r="N123" s="13"/>
       <c r="O123" s="2"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="11"/>
@@ -6410,7 +6995,7 @@
       <c r="N124" s="13"/>
       <c r="O124" s="2"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="11"/>
@@ -6427,7 +7012,7 @@
       <c r="N125" s="13"/>
       <c r="O125" s="2"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="11"/>
@@ -6444,7 +7029,7 @@
       <c r="N126" s="13"/>
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="11"/>
@@ -6461,7 +7046,7 @@
       <c r="N127" s="13"/>
       <c r="O127" s="2"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="11"/>
@@ -6478,7 +7063,7 @@
       <c r="N128" s="13"/>
       <c r="O128" s="2"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="11"/>
@@ -6495,7 +7080,7 @@
       <c r="N129" s="13"/>
       <c r="O129" s="2"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="11"/>
@@ -6512,7 +7097,7 @@
       <c r="N130" s="13"/>
       <c r="O130" s="2"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="11"/>
@@ -6529,7 +7114,7 @@
       <c r="N131" s="13"/>
       <c r="O131" s="2"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="11"/>
@@ -6546,7 +7131,7 @@
       <c r="N132" s="13"/>
       <c r="O132" s="2"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="11"/>
@@ -6563,7 +7148,7 @@
       <c r="N133" s="13"/>
       <c r="O133" s="2"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="11"/>
@@ -6580,7 +7165,7 @@
       <c r="N134" s="13"/>
       <c r="O134" s="2"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="11"/>
@@ -6597,7 +7182,7 @@
       <c r="N135" s="13"/>
       <c r="O135" s="2"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="11"/>
@@ -6614,7 +7199,7 @@
       <c r="N136" s="13"/>
       <c r="O136" s="2"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="11"/>
@@ -6631,7 +7216,7 @@
       <c r="N137" s="13"/>
       <c r="O137" s="2"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="11"/>
@@ -6648,7 +7233,7 @@
       <c r="N138" s="13"/>
       <c r="O138" s="2"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="11"/>
@@ -6665,7 +7250,7 @@
       <c r="N139" s="13"/>
       <c r="O139" s="2"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="11"/>
@@ -6682,7 +7267,7 @@
       <c r="N140" s="13"/>
       <c r="O140" s="2"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="11"/>
@@ -6699,7 +7284,7 @@
       <c r="N141" s="13"/>
       <c r="O141" s="2"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="11"/>
@@ -6716,7 +7301,7 @@
       <c r="N142" s="13"/>
       <c r="O142" s="2"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="11"/>
@@ -6733,7 +7318,7 @@
       <c r="N143" s="13"/>
       <c r="O143" s="2"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="11"/>
@@ -6750,7 +7335,7 @@
       <c r="N144" s="13"/>
       <c r="O144" s="2"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="11"/>
@@ -6767,7 +7352,7 @@
       <c r="N145" s="13"/>
       <c r="O145" s="2"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="11"/>
@@ -6784,7 +7369,7 @@
       <c r="N146" s="13"/>
       <c r="O146" s="2"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="11"/>
@@ -6801,7 +7386,7 @@
       <c r="N147" s="13"/>
       <c r="O147" s="2"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="11"/>
@@ -6818,7 +7403,7 @@
       <c r="N148" s="13"/>
       <c r="O148" s="2"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="11"/>
@@ -6835,7 +7420,7 @@
       <c r="N149" s="13"/>
       <c r="O149" s="2"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="11"/>
@@ -6852,7 +7437,7 @@
       <c r="N150" s="13"/>
       <c r="O150" s="2"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="11"/>
@@ -6869,7 +7454,7 @@
       <c r="N151" s="13"/>
       <c r="O151" s="2"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="11"/>
@@ -6886,7 +7471,7 @@
       <c r="N152" s="13"/>
       <c r="O152" s="2"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="11"/>
@@ -6903,7 +7488,7 @@
       <c r="N153" s="13"/>
       <c r="O153" s="2"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="11"/>
@@ -6920,7 +7505,7 @@
       <c r="N154" s="13"/>
       <c r="O154" s="2"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="11"/>
@@ -6937,7 +7522,7 @@
       <c r="N155" s="13"/>
       <c r="O155" s="2"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="11"/>
@@ -6954,7 +7539,7 @@
       <c r="N156" s="13"/>
       <c r="O156" s="2"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="11"/>
@@ -6971,7 +7556,7 @@
       <c r="N157" s="13"/>
       <c r="O157" s="2"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="11"/>
@@ -6988,7 +7573,7 @@
       <c r="N158" s="13"/>
       <c r="O158" s="2"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="11"/>
@@ -7005,7 +7590,7 @@
       <c r="N159" s="13"/>
       <c r="O159" s="2"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="11"/>
@@ -7022,7 +7607,7 @@
       <c r="N160" s="13"/>
       <c r="O160" s="2"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="11"/>
@@ -7039,7 +7624,7 @@
       <c r="N161" s="13"/>
       <c r="O161" s="2"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="11"/>
@@ -7056,7 +7641,7 @@
       <c r="N162" s="13"/>
       <c r="O162" s="2"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="11"/>
@@ -7073,7 +7658,7 @@
       <c r="N163" s="13"/>
       <c r="O163" s="2"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="11"/>
@@ -7090,7 +7675,7 @@
       <c r="N164" s="13"/>
       <c r="O164" s="2"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="11"/>
@@ -7107,7 +7692,7 @@
       <c r="N165" s="13"/>
       <c r="O165" s="2"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="11"/>
@@ -7124,7 +7709,7 @@
       <c r="N166" s="13"/>
       <c r="O166" s="2"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="11"/>
@@ -7141,7 +7726,7 @@
       <c r="N167" s="13"/>
       <c r="O167" s="2"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="11"/>
@@ -7158,7 +7743,7 @@
       <c r="N168" s="13"/>
       <c r="O168" s="2"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="11"/>
@@ -7175,7 +7760,7 @@
       <c r="N169" s="13"/>
       <c r="O169" s="2"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="11"/>
@@ -7192,7 +7777,7 @@
       <c r="N170" s="13"/>
       <c r="O170" s="2"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="11"/>
@@ -7209,7 +7794,7 @@
       <c r="N171" s="13"/>
       <c r="O171" s="2"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="11"/>
@@ -7226,7 +7811,7 @@
       <c r="N172" s="13"/>
       <c r="O172" s="2"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="11"/>
@@ -7243,7 +7828,7 @@
       <c r="N173" s="13"/>
       <c r="O173" s="2"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="11"/>
@@ -7260,7 +7845,7 @@
       <c r="N174" s="13"/>
       <c r="O174" s="2"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="11"/>
@@ -7277,7 +7862,7 @@
       <c r="N175" s="13"/>
       <c r="O175" s="2"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="11"/>
@@ -7294,7 +7879,7 @@
       <c r="N176" s="13"/>
       <c r="O176" s="2"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="11"/>
@@ -7311,7 +7896,7 @@
       <c r="N177" s="13"/>
       <c r="O177" s="2"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="11"/>
@@ -7328,7 +7913,7 @@
       <c r="N178" s="13"/>
       <c r="O178" s="2"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="11"/>
@@ -7345,7 +7930,7 @@
       <c r="N179" s="13"/>
       <c r="O179" s="2"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="11"/>
@@ -7362,7 +7947,7 @@
       <c r="N180" s="13"/>
       <c r="O180" s="2"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="11"/>
@@ -7379,7 +7964,7 @@
       <c r="N181" s="13"/>
       <c r="O181" s="2"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="11"/>
@@ -7396,7 +7981,7 @@
       <c r="N182" s="13"/>
       <c r="O182" s="2"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="11"/>
@@ -7413,7 +7998,7 @@
       <c r="N183" s="13"/>
       <c r="O183" s="2"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="11"/>
@@ -7430,7 +8015,7 @@
       <c r="N184" s="13"/>
       <c r="O184" s="2"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="11"/>
@@ -7447,7 +8032,7 @@
       <c r="N185" s="13"/>
       <c r="O185" s="2"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="11"/>
@@ -7464,7 +8049,7 @@
       <c r="N186" s="13"/>
       <c r="O186" s="2"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="11"/>
@@ -7481,7 +8066,7 @@
       <c r="N187" s="13"/>
       <c r="O187" s="2"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="11"/>
@@ -7498,7 +8083,7 @@
       <c r="N188" s="13"/>
       <c r="O188" s="2"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="11"/>
@@ -7515,7 +8100,7 @@
       <c r="N189" s="13"/>
       <c r="O189" s="2"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="11"/>
@@ -7532,7 +8117,7 @@
       <c r="N190" s="13"/>
       <c r="O190" s="2"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="11"/>
@@ -7549,7 +8134,7 @@
       <c r="N191" s="13"/>
       <c r="O191" s="2"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="11"/>
@@ -7566,7 +8151,7 @@
       <c r="N192" s="13"/>
       <c r="O192" s="2"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="11"/>
@@ -7583,7 +8168,7 @@
       <c r="N193" s="13"/>
       <c r="O193" s="2"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="11"/>
@@ -7600,7 +8185,7 @@
       <c r="N194" s="13"/>
       <c r="O194" s="2"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="11"/>
@@ -7617,7 +8202,7 @@
       <c r="N195" s="13"/>
       <c r="O195" s="2"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="11"/>
@@ -7634,7 +8219,7 @@
       <c r="N196" s="13"/>
       <c r="O196" s="2"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="11"/>
@@ -7651,7 +8236,7 @@
       <c r="N197" s="13"/>
       <c r="O197" s="2"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="11"/>
@@ -7668,7 +8253,7 @@
       <c r="N198" s="13"/>
       <c r="O198" s="2"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="11"/>
@@ -7685,7 +8270,7 @@
       <c r="N199" s="13"/>
       <c r="O199" s="2"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="11"/>
@@ -7702,7 +8287,7 @@
       <c r="N200" s="13"/>
       <c r="O200" s="2"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="11"/>
@@ -7719,7 +8304,7 @@
       <c r="N201" s="13"/>
       <c r="O201" s="2"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="11"/>
@@ -7736,7 +8321,7 @@
       <c r="N202" s="13"/>
       <c r="O202" s="2"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="11"/>
@@ -7753,7 +8338,7 @@
       <c r="N203" s="13"/>
       <c r="O203" s="2"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="11"/>
@@ -7770,7 +8355,7 @@
       <c r="N204" s="13"/>
       <c r="O204" s="2"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="11"/>
@@ -7787,7 +8372,7 @@
       <c r="N205" s="13"/>
       <c r="O205" s="2"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="11"/>
@@ -7804,7 +8389,7 @@
       <c r="N206" s="13"/>
       <c r="O206" s="2"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="11"/>
@@ -7821,7 +8406,7 @@
       <c r="N207" s="13"/>
       <c r="O207" s="2"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="11"/>
@@ -7838,7 +8423,7 @@
       <c r="N208" s="13"/>
       <c r="O208" s="2"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="11"/>
@@ -7855,7 +8440,7 @@
       <c r="N209" s="13"/>
       <c r="O209" s="2"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="11"/>
@@ -7872,7 +8457,7 @@
       <c r="N210" s="13"/>
       <c r="O210" s="2"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="11"/>
@@ -7889,7 +8474,7 @@
       <c r="N211" s="13"/>
       <c r="O211" s="2"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="11"/>
@@ -7906,7 +8491,7 @@
       <c r="N212" s="13"/>
       <c r="O212" s="2"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="11"/>
@@ -7923,7 +8508,7 @@
       <c r="N213" s="13"/>
       <c r="O213" s="2"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="11"/>
@@ -7940,7 +8525,7 @@
       <c r="N214" s="13"/>
       <c r="O214" s="2"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="11"/>
@@ -7957,7 +8542,7 @@
       <c r="N215" s="13"/>
       <c r="O215" s="2"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="11"/>
@@ -7974,7 +8559,7 @@
       <c r="N216" s="13"/>
       <c r="O216" s="2"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="11"/>
@@ -7991,7 +8576,7 @@
       <c r="N217" s="13"/>
       <c r="O217" s="2"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="11"/>
@@ -8008,7 +8593,7 @@
       <c r="N218" s="13"/>
       <c r="O218" s="2"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="11"/>
@@ -8025,7 +8610,7 @@
       <c r="N219" s="13"/>
       <c r="O219" s="2"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="11"/>
@@ -8042,7 +8627,7 @@
       <c r="N220" s="13"/>
       <c r="O220" s="2"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="11"/>
@@ -8059,7 +8644,7 @@
       <c r="N221" s="13"/>
       <c r="O221" s="2"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="11"/>
@@ -8076,7 +8661,7 @@
       <c r="N222" s="13"/>
       <c r="O222" s="2"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="11"/>
@@ -8093,7 +8678,7 @@
       <c r="N223" s="13"/>
       <c r="O223" s="2"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="11"/>
@@ -8110,7 +8695,7 @@
       <c r="N224" s="13"/>
       <c r="O224" s="2"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="11"/>
@@ -8127,7 +8712,7 @@
       <c r="N225" s="13"/>
       <c r="O225" s="2"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="11"/>
@@ -8144,7 +8729,7 @@
       <c r="N226" s="13"/>
       <c r="O226" s="2"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="11"/>
@@ -8161,7 +8746,7 @@
       <c r="N227" s="13"/>
       <c r="O227" s="2"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="11"/>
@@ -8178,7 +8763,7 @@
       <c r="N228" s="13"/>
       <c r="O228" s="2"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="11"/>
@@ -8195,7 +8780,7 @@
       <c r="N229" s="13"/>
       <c r="O229" s="2"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="11"/>
@@ -8212,7 +8797,7 @@
       <c r="N230" s="13"/>
       <c r="O230" s="2"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="11"/>
@@ -8229,7 +8814,7 @@
       <c r="N231" s="13"/>
       <c r="O231" s="2"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="11"/>
@@ -8246,7 +8831,7 @@
       <c r="N232" s="13"/>
       <c r="O232" s="2"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="11"/>
@@ -8263,7 +8848,7 @@
       <c r="N233" s="13"/>
       <c r="O233" s="2"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="11"/>
@@ -8280,7 +8865,7 @@
       <c r="N234" s="13"/>
       <c r="O234" s="2"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="11"/>
@@ -8297,7 +8882,7 @@
       <c r="N235" s="13"/>
       <c r="O235" s="2"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="11"/>
@@ -8314,7 +8899,7 @@
       <c r="N236" s="13"/>
       <c r="O236" s="2"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="11"/>
@@ -8331,7 +8916,7 @@
       <c r="N237" s="13"/>
       <c r="O237" s="2"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="11"/>
@@ -8348,7 +8933,7 @@
       <c r="N238" s="13"/>
       <c r="O238" s="2"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="11"/>
@@ -8365,7 +8950,7 @@
       <c r="N239" s="13"/>
       <c r="O239" s="2"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="11"/>
@@ -8382,7 +8967,7 @@
       <c r="N240" s="13"/>
       <c r="O240" s="2"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="11"/>
@@ -8399,7 +8984,7 @@
       <c r="N241" s="13"/>
       <c r="O241" s="2"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="11"/>
@@ -8416,7 +9001,7 @@
       <c r="N242" s="13"/>
       <c r="O242" s="2"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="11"/>
@@ -8433,7 +9018,7 @@
       <c r="N243" s="13"/>
       <c r="O243" s="2"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="11"/>
@@ -8450,7 +9035,7 @@
       <c r="N244" s="13"/>
       <c r="O244" s="2"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="11"/>
@@ -8467,7 +9052,7 @@
       <c r="N245" s="13"/>
       <c r="O245" s="2"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="11"/>
@@ -8484,7 +9069,7 @@
       <c r="N246" s="13"/>
       <c r="O246" s="2"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="11"/>
@@ -8501,7 +9086,7 @@
       <c r="N247" s="13"/>
       <c r="O247" s="2"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="11"/>
@@ -8518,7 +9103,7 @@
       <c r="N248" s="13"/>
       <c r="O248" s="2"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="11"/>
@@ -8535,7 +9120,7 @@
       <c r="N249" s="13"/>
       <c r="O249" s="2"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="11"/>
@@ -8552,7 +9137,7 @@
       <c r="N250" s="13"/>
       <c r="O250" s="2"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="11"/>
@@ -8569,7 +9154,7 @@
       <c r="N251" s="13"/>
       <c r="O251" s="2"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="11"/>
@@ -8586,7 +9171,7 @@
       <c r="N252" s="13"/>
       <c r="O252" s="2"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="11"/>
@@ -8603,7 +9188,7 @@
       <c r="N253" s="13"/>
       <c r="O253" s="2"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="11"/>
@@ -8620,7 +9205,7 @@
       <c r="N254" s="13"/>
       <c r="O254" s="2"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="11"/>
@@ -8637,7 +9222,7 @@
       <c r="N255" s="13"/>
       <c r="O255" s="2"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="11"/>
@@ -8654,7 +9239,7 @@
       <c r="N256" s="13"/>
       <c r="O256" s="2"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="11"/>
@@ -8671,7 +9256,7 @@
       <c r="N257" s="13"/>
       <c r="O257" s="2"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="11"/>
@@ -8688,7 +9273,7 @@
       <c r="N258" s="13"/>
       <c r="O258" s="2"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="11"/>
@@ -8705,7 +9290,7 @@
       <c r="N259" s="13"/>
       <c r="O259" s="2"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="11"/>
@@ -8722,7 +9307,7 @@
       <c r="N260" s="13"/>
       <c r="O260" s="2"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="11"/>
@@ -8739,7 +9324,7 @@
       <c r="N261" s="13"/>
       <c r="O261" s="2"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="11"/>
@@ -8756,7 +9341,7 @@
       <c r="N262" s="13"/>
       <c r="O262" s="2"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="11"/>
@@ -8773,7 +9358,7 @@
       <c r="N263" s="13"/>
       <c r="O263" s="2"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="11"/>
@@ -8790,7 +9375,7 @@
       <c r="N264" s="13"/>
       <c r="O264" s="2"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="11"/>
@@ -8807,7 +9392,7 @@
       <c r="N265" s="13"/>
       <c r="O265" s="2"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="11"/>
@@ -8824,7 +9409,7 @@
       <c r="N266" s="13"/>
       <c r="O266" s="2"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="11"/>
@@ -8841,7 +9426,7 @@
       <c r="N267" s="13"/>
       <c r="O267" s="2"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="11"/>
@@ -8858,7 +9443,7 @@
       <c r="N268" s="13"/>
       <c r="O268" s="2"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="11"/>
@@ -8875,7 +9460,7 @@
       <c r="N269" s="13"/>
       <c r="O269" s="2"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="11"/>
@@ -8892,7 +9477,7 @@
       <c r="N270" s="13"/>
       <c r="O270" s="2"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="11"/>
@@ -8909,7 +9494,7 @@
       <c r="N271" s="13"/>
       <c r="O271" s="2"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="11"/>
@@ -8926,7 +9511,7 @@
       <c r="N272" s="13"/>
       <c r="O272" s="2"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="11"/>
@@ -8943,7 +9528,7 @@
       <c r="N273" s="13"/>
       <c r="O273" s="2"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="11"/>
@@ -8960,7 +9545,7 @@
       <c r="N274" s="13"/>
       <c r="O274" s="2"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="11"/>
@@ -8977,7 +9562,7 @@
       <c r="N275" s="13"/>
       <c r="O275" s="2"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="11"/>
@@ -8994,7 +9579,7 @@
       <c r="N276" s="13"/>
       <c r="O276" s="2"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="11"/>
@@ -9011,7 +9596,7 @@
       <c r="N277" s="13"/>
       <c r="O277" s="2"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="11"/>
@@ -9028,7 +9613,7 @@
       <c r="N278" s="13"/>
       <c r="O278" s="2"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="11"/>
@@ -9045,7 +9630,7 @@
       <c r="N279" s="13"/>
       <c r="O279" s="2"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="11"/>
@@ -9062,7 +9647,7 @@
       <c r="N280" s="13"/>
       <c r="O280" s="2"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="11"/>
@@ -9079,7 +9664,7 @@
       <c r="N281" s="13"/>
       <c r="O281" s="2"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="11"/>
@@ -9096,7 +9681,7 @@
       <c r="N282" s="13"/>
       <c r="O282" s="2"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="11"/>
@@ -9113,7 +9698,7 @@
       <c r="N283" s="13"/>
       <c r="O283" s="2"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="11"/>
@@ -9130,7 +9715,7 @@
       <c r="N284" s="13"/>
       <c r="O284" s="2"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="11"/>
@@ -9147,7 +9732,7 @@
       <c r="N285" s="13"/>
       <c r="O285" s="2"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="11"/>
@@ -9164,7 +9749,7 @@
       <c r="N286" s="13"/>
       <c r="O286" s="2"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="11"/>
@@ -9181,7 +9766,7 @@
       <c r="N287" s="13"/>
       <c r="O287" s="2"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="11"/>
@@ -9198,7 +9783,7 @@
       <c r="N288" s="13"/>
       <c r="O288" s="2"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="11"/>
@@ -9215,7 +9800,7 @@
       <c r="N289" s="13"/>
       <c r="O289" s="2"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="11"/>
@@ -9232,7 +9817,7 @@
       <c r="N290" s="13"/>
       <c r="O290" s="2"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="11"/>
@@ -9249,7 +9834,7 @@
       <c r="N291" s="13"/>
       <c r="O291" s="2"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="11"/>
@@ -9266,7 +9851,7 @@
       <c r="N292" s="13"/>
       <c r="O292" s="2"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="11"/>
@@ -9283,7 +9868,7 @@
       <c r="N293" s="13"/>
       <c r="O293" s="2"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="11"/>
@@ -9300,7 +9885,7 @@
       <c r="N294" s="13"/>
       <c r="O294" s="2"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="11"/>
@@ -9317,7 +9902,7 @@
       <c r="N295" s="13"/>
       <c r="O295" s="2"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="11"/>
@@ -9334,7 +9919,7 @@
       <c r="N296" s="13"/>
       <c r="O296" s="2"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="11"/>
@@ -9351,7 +9936,7 @@
       <c r="N297" s="13"/>
       <c r="O297" s="2"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="11"/>
@@ -9368,7 +9953,7 @@
       <c r="N298" s="13"/>
       <c r="O298" s="2"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="11"/>
@@ -9385,7 +9970,7 @@
       <c r="N299" s="13"/>
       <c r="O299" s="2"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="11"/>
@@ -9402,7 +9987,7 @@
       <c r="N300" s="13"/>
       <c r="O300" s="2"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="11"/>
@@ -9419,7 +10004,7 @@
       <c r="N301" s="13"/>
       <c r="O301" s="2"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="11"/>
@@ -9436,7 +10021,7 @@
       <c r="N302" s="13"/>
       <c r="O302" s="2"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="11"/>
@@ -9453,7 +10038,7 @@
       <c r="N303" s="13"/>
       <c r="O303" s="2"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="11"/>
@@ -9470,7 +10055,7 @@
       <c r="N304" s="13"/>
       <c r="O304" s="2"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="11"/>
@@ -9487,7 +10072,7 @@
       <c r="N305" s="13"/>
       <c r="O305" s="2"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="11"/>
@@ -9504,7 +10089,7 @@
       <c r="N306" s="13"/>
       <c r="O306" s="2"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="11"/>
@@ -9521,7 +10106,7 @@
       <c r="N307" s="13"/>
       <c r="O307" s="2"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="11"/>
@@ -9538,7 +10123,7 @@
       <c r="N308" s="13"/>
       <c r="O308" s="2"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="11"/>
@@ -9555,7 +10140,7 @@
       <c r="N309" s="13"/>
       <c r="O309" s="2"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="11"/>
@@ -9572,7 +10157,7 @@
       <c r="N310" s="13"/>
       <c r="O310" s="2"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="11"/>
@@ -9589,7 +10174,7 @@
       <c r="N311" s="13"/>
       <c r="O311" s="2"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="11"/>
@@ -9606,7 +10191,7 @@
       <c r="N312" s="13"/>
       <c r="O312" s="2"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="11"/>
@@ -9623,7 +10208,7 @@
       <c r="N313" s="13"/>
       <c r="O313" s="2"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="11"/>
@@ -9640,7 +10225,7 @@
       <c r="N314" s="13"/>
       <c r="O314" s="2"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="11"/>
@@ -9657,7 +10242,7 @@
       <c r="N315" s="13"/>
       <c r="O315" s="2"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="11"/>
@@ -9674,7 +10259,7 @@
       <c r="N316" s="13"/>
       <c r="O316" s="2"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="11"/>
@@ -9691,7 +10276,7 @@
       <c r="N317" s="13"/>
       <c r="O317" s="2"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="11"/>
@@ -9708,7 +10293,7 @@
       <c r="N318" s="13"/>
       <c r="O318" s="2"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="11"/>
@@ -9725,7 +10310,7 @@
       <c r="N319" s="13"/>
       <c r="O319" s="2"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="11"/>
@@ -9742,7 +10327,7 @@
       <c r="N320" s="13"/>
       <c r="O320" s="2"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="11"/>
@@ -9759,7 +10344,7 @@
       <c r="N321" s="13"/>
       <c r="O321" s="2"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="11"/>
@@ -9776,7 +10361,7 @@
       <c r="N322" s="13"/>
       <c r="O322" s="2"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="11"/>
@@ -9793,7 +10378,7 @@
       <c r="N323" s="13"/>
       <c r="O323" s="2"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="11"/>
@@ -9810,7 +10395,7 @@
       <c r="N324" s="13"/>
       <c r="O324" s="2"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="11"/>
@@ -9827,7 +10412,7 @@
       <c r="N325" s="13"/>
       <c r="O325" s="2"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="11"/>
@@ -9844,7 +10429,7 @@
       <c r="N326" s="13"/>
       <c r="O326" s="2"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="11"/>
@@ -9861,7 +10446,7 @@
       <c r="N327" s="13"/>
       <c r="O327" s="2"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="11"/>
@@ -9878,7 +10463,7 @@
       <c r="N328" s="13"/>
       <c r="O328" s="2"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="11"/>
@@ -9895,7 +10480,7 @@
       <c r="N329" s="13"/>
       <c r="O329" s="2"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="11"/>
@@ -9912,7 +10497,7 @@
       <c r="N330" s="13"/>
       <c r="O330" s="2"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="11"/>
@@ -9929,7 +10514,7 @@
       <c r="N331" s="13"/>
       <c r="O331" s="2"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="11"/>
@@ -9946,7 +10531,7 @@
       <c r="N332" s="13"/>
       <c r="O332" s="2"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="11"/>
@@ -9963,7 +10548,7 @@
       <c r="N333" s="13"/>
       <c r="O333" s="2"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="11"/>
@@ -9980,7 +10565,7 @@
       <c r="N334" s="13"/>
       <c r="O334" s="2"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="11"/>
@@ -9997,7 +10582,7 @@
       <c r="N335" s="13"/>
       <c r="O335" s="2"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="11"/>
@@ -10014,7 +10599,7 @@
       <c r="N336" s="13"/>
       <c r="O336" s="2"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="11"/>
@@ -10031,7 +10616,7 @@
       <c r="N337" s="13"/>
       <c r="O337" s="2"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="11"/>
@@ -10048,7 +10633,7 @@
       <c r="N338" s="13"/>
       <c r="O338" s="2"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="11"/>
@@ -10065,7 +10650,7 @@
       <c r="N339" s="13"/>
       <c r="O339" s="2"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="11"/>
@@ -10082,7 +10667,7 @@
       <c r="N340" s="13"/>
       <c r="O340" s="2"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="11"/>
@@ -10099,7 +10684,7 @@
       <c r="N341" s="13"/>
       <c r="O341" s="2"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="11"/>
@@ -10116,7 +10701,7 @@
       <c r="N342" s="13"/>
       <c r="O342" s="2"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="11"/>
@@ -10133,7 +10718,7 @@
       <c r="N343" s="13"/>
       <c r="O343" s="2"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="11"/>
@@ -10150,7 +10735,7 @@
       <c r="N344" s="13"/>
       <c r="O344" s="2"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="11"/>
@@ -10167,7 +10752,7 @@
       <c r="N345" s="13"/>
       <c r="O345" s="2"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="11"/>
@@ -10184,7 +10769,7 @@
       <c r="N346" s="13"/>
       <c r="O346" s="2"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="11"/>
@@ -10201,7 +10786,7 @@
       <c r="N347" s="13"/>
       <c r="O347" s="2"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="11"/>
@@ -10218,7 +10803,7 @@
       <c r="N348" s="13"/>
       <c r="O348" s="2"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="11"/>
@@ -10235,7 +10820,7 @@
       <c r="N349" s="13"/>
       <c r="O349" s="2"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="11"/>
@@ -10252,7 +10837,7 @@
       <c r="N350" s="13"/>
       <c r="O350" s="2"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="11"/>
@@ -10269,7 +10854,7 @@
       <c r="N351" s="13"/>
       <c r="O351" s="2"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="11"/>
@@ -10286,7 +10871,7 @@
       <c r="N352" s="13"/>
       <c r="O352" s="2"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="11"/>
@@ -10303,7 +10888,7 @@
       <c r="N353" s="13"/>
       <c r="O353" s="2"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="11"/>
@@ -10320,7 +10905,7 @@
       <c r="N354" s="13"/>
       <c r="O354" s="2"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="11"/>
@@ -10337,7 +10922,7 @@
       <c r="N355" s="13"/>
       <c r="O355" s="2"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="11"/>
@@ -10354,7 +10939,7 @@
       <c r="N356" s="13"/>
       <c r="O356" s="2"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="11"/>
@@ -10371,7 +10956,7 @@
       <c r="N357" s="13"/>
       <c r="O357" s="2"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="11"/>
@@ -10388,7 +10973,7 @@
       <c r="N358" s="13"/>
       <c r="O358" s="2"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="11"/>
@@ -10405,7 +10990,7 @@
       <c r="N359" s="13"/>
       <c r="O359" s="2"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="11"/>
@@ -10422,7 +11007,7 @@
       <c r="N360" s="13"/>
       <c r="O360" s="2"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="11"/>
@@ -10439,7 +11024,7 @@
       <c r="N361" s="13"/>
       <c r="O361" s="2"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="11"/>
@@ -10456,7 +11041,7 @@
       <c r="N362" s="13"/>
       <c r="O362" s="2"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="11"/>
@@ -10473,7 +11058,7 @@
       <c r="N363" s="13"/>
       <c r="O363" s="2"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="11"/>
@@ -10490,7 +11075,7 @@
       <c r="N364" s="13"/>
       <c r="O364" s="2"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="11"/>
@@ -10507,7 +11092,7 @@
       <c r="N365" s="13"/>
       <c r="O365" s="2"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="11"/>
@@ -10524,7 +11109,7 @@
       <c r="N366" s="13"/>
       <c r="O366" s="2"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="11"/>
@@ -10541,7 +11126,7 @@
       <c r="N367" s="13"/>
       <c r="O367" s="2"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="11"/>
@@ -10558,7 +11143,7 @@
       <c r="N368" s="13"/>
       <c r="O368" s="2"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="11"/>
@@ -10575,7 +11160,7 @@
       <c r="N369" s="13"/>
       <c r="O369" s="2"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="11"/>
@@ -10592,7 +11177,7 @@
       <c r="N370" s="13"/>
       <c r="O370" s="2"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="11"/>
@@ -10609,7 +11194,7 @@
       <c r="N371" s="13"/>
       <c r="O371" s="2"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="11"/>
@@ -10626,7 +11211,7 @@
       <c r="N372" s="13"/>
       <c r="O372" s="2"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="11"/>
@@ -10643,7 +11228,7 @@
       <c r="N373" s="13"/>
       <c r="O373" s="2"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="11"/>
@@ -10660,7 +11245,7 @@
       <c r="N374" s="13"/>
       <c r="O374" s="2"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="11"/>
@@ -10677,7 +11262,7 @@
       <c r="N375" s="13"/>
       <c r="O375" s="2"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="11"/>
@@ -10694,7 +11279,7 @@
       <c r="N376" s="13"/>
       <c r="O376" s="2"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="11"/>
@@ -10711,7 +11296,7 @@
       <c r="N377" s="13"/>
       <c r="O377" s="2"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="11"/>
@@ -10728,7 +11313,7 @@
       <c r="N378" s="13"/>
       <c r="O378" s="2"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="11"/>
@@ -10745,7 +11330,7 @@
       <c r="N379" s="13"/>
       <c r="O379" s="2"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="11"/>
@@ -10762,7 +11347,7 @@
       <c r="N380" s="13"/>
       <c r="O380" s="2"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="11"/>
@@ -10779,7 +11364,7 @@
       <c r="N381" s="13"/>
       <c r="O381" s="2"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="11"/>
@@ -10796,7 +11381,7 @@
       <c r="N382" s="13"/>
       <c r="O382" s="2"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="11"/>
@@ -10813,7 +11398,7 @@
       <c r="N383" s="13"/>
       <c r="O383" s="2"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="11"/>
@@ -10830,7 +11415,7 @@
       <c r="N384" s="13"/>
       <c r="O384" s="2"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="11"/>
@@ -10847,7 +11432,7 @@
       <c r="N385" s="13"/>
       <c r="O385" s="2"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="11"/>
@@ -10864,7 +11449,7 @@
       <c r="N386" s="13"/>
       <c r="O386" s="2"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="11"/>
@@ -10881,7 +11466,7 @@
       <c r="N387" s="13"/>
       <c r="O387" s="2"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="11"/>
@@ -10898,7 +11483,7 @@
       <c r="N388" s="13"/>
       <c r="O388" s="2"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="11"/>
@@ -10915,7 +11500,7 @@
       <c r="N389" s="13"/>
       <c r="O389" s="2"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="11"/>
@@ -10932,7 +11517,7 @@
       <c r="N390" s="13"/>
       <c r="O390" s="2"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="11"/>
@@ -10949,7 +11534,7 @@
       <c r="N391" s="13"/>
       <c r="O391" s="2"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="11"/>
@@ -10966,7 +11551,7 @@
       <c r="N392" s="13"/>
       <c r="O392" s="2"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="11"/>
@@ -10983,7 +11568,7 @@
       <c r="N393" s="13"/>
       <c r="O393" s="2"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="11"/>
@@ -11000,7 +11585,7 @@
       <c r="N394" s="13"/>
       <c r="O394" s="2"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="11"/>
@@ -11017,7 +11602,7 @@
       <c r="N395" s="13"/>
       <c r="O395" s="2"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="11"/>
@@ -11034,7 +11619,7 @@
       <c r="N396" s="13"/>
       <c r="O396" s="2"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="11"/>
@@ -11051,7 +11636,7 @@
       <c r="N397" s="13"/>
       <c r="O397" s="2"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="11"/>
@@ -11068,7 +11653,7 @@
       <c r="N398" s="13"/>
       <c r="O398" s="2"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="11"/>
@@ -11085,7 +11670,7 @@
       <c r="N399" s="13"/>
       <c r="O399" s="2"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="11"/>
@@ -11102,7 +11687,7 @@
       <c r="N400" s="13"/>
       <c r="O400" s="2"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="11"/>
@@ -11119,7 +11704,7 @@
       <c r="N401" s="13"/>
       <c r="O401" s="2"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="11"/>
@@ -11136,7 +11721,7 @@
       <c r="N402" s="13"/>
       <c r="O402" s="2"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="11"/>
@@ -11153,7 +11738,7 @@
       <c r="N403" s="13"/>
       <c r="O403" s="2"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="11"/>
@@ -11170,7 +11755,7 @@
       <c r="N404" s="13"/>
       <c r="O404" s="2"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="11"/>
@@ -11187,7 +11772,7 @@
       <c r="N405" s="13"/>
       <c r="O405" s="2"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="11"/>
@@ -11204,7 +11789,7 @@
       <c r="N406" s="13"/>
       <c r="O406" s="2"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="11"/>
@@ -11221,7 +11806,7 @@
       <c r="N407" s="13"/>
       <c r="O407" s="2"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="11"/>
@@ -11238,7 +11823,7 @@
       <c r="N408" s="13"/>
       <c r="O408" s="2"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="11"/>
@@ -11255,7 +11840,7 @@
       <c r="N409" s="13"/>
       <c r="O409" s="2"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="11"/>
@@ -11272,7 +11857,7 @@
       <c r="N410" s="13"/>
       <c r="O410" s="2"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="11"/>
@@ -11289,7 +11874,7 @@
       <c r="N411" s="13"/>
       <c r="O411" s="2"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="11"/>
@@ -11306,7 +11891,7 @@
       <c r="N412" s="13"/>
       <c r="O412" s="2"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="11"/>
@@ -11323,7 +11908,7 @@
       <c r="N413" s="13"/>
       <c r="O413" s="2"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="11"/>
@@ -11340,7 +11925,7 @@
       <c r="N414" s="13"/>
       <c r="O414" s="2"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="11"/>
@@ -11357,7 +11942,7 @@
       <c r="N415" s="13"/>
       <c r="O415" s="2"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="11"/>
@@ -11374,7 +11959,7 @@
       <c r="N416" s="13"/>
       <c r="O416" s="2"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="11"/>
@@ -11391,7 +11976,7 @@
       <c r="N417" s="13"/>
       <c r="O417" s="2"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="11"/>
@@ -11408,7 +11993,7 @@
       <c r="N418" s="13"/>
       <c r="O418" s="2"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="11"/>
@@ -11425,7 +12010,7 @@
       <c r="N419" s="13"/>
       <c r="O419" s="2"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="11"/>
@@ -11442,7 +12027,7 @@
       <c r="N420" s="13"/>
       <c r="O420" s="2"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="11"/>
@@ -11459,7 +12044,7 @@
       <c r="N421" s="13"/>
       <c r="O421" s="2"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="11"/>
@@ -11476,7 +12061,7 @@
       <c r="N422" s="13"/>
       <c r="O422" s="2"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="11"/>
@@ -11493,7 +12078,7 @@
       <c r="N423" s="13"/>
       <c r="O423" s="2"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="11"/>
@@ -11510,7 +12095,7 @@
       <c r="N424" s="13"/>
       <c r="O424" s="2"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="11"/>
@@ -11527,7 +12112,7 @@
       <c r="N425" s="13"/>
       <c r="O425" s="2"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="11"/>
@@ -11544,7 +12129,7 @@
       <c r="N426" s="13"/>
       <c r="O426" s="2"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="11"/>
@@ -11561,7 +12146,7 @@
       <c r="N427" s="13"/>
       <c r="O427" s="2"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="11"/>
@@ -11578,7 +12163,7 @@
       <c r="N428" s="13"/>
       <c r="O428" s="2"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="11"/>
@@ -11595,7 +12180,7 @@
       <c r="N429" s="13"/>
       <c r="O429" s="2"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="11"/>
@@ -11612,7 +12197,7 @@
       <c r="N430" s="13"/>
       <c r="O430" s="2"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="11"/>
@@ -11629,7 +12214,7 @@
       <c r="N431" s="13"/>
       <c r="O431" s="2"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="11"/>
@@ -11646,7 +12231,7 @@
       <c r="N432" s="13"/>
       <c r="O432" s="2"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="11"/>
@@ -11663,7 +12248,7 @@
       <c r="N433" s="13"/>
       <c r="O433" s="2"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="11"/>
@@ -11680,7 +12265,7 @@
       <c r="N434" s="13"/>
       <c r="O434" s="2"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="11"/>
@@ -11697,7 +12282,7 @@
       <c r="N435" s="13"/>
       <c r="O435" s="2"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="11"/>
@@ -11714,7 +12299,7 @@
       <c r="N436" s="13"/>
       <c r="O436" s="2"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="11"/>
@@ -11731,7 +12316,7 @@
       <c r="N437" s="13"/>
       <c r="O437" s="2"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="11"/>
@@ -11748,7 +12333,7 @@
       <c r="N438" s="13"/>
       <c r="O438" s="2"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="11"/>
@@ -11765,7 +12350,7 @@
       <c r="N439" s="13"/>
       <c r="O439" s="2"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="11"/>
@@ -11782,7 +12367,7 @@
       <c r="N440" s="13"/>
       <c r="O440" s="2"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="11"/>
@@ -11799,7 +12384,7 @@
       <c r="N441" s="13"/>
       <c r="O441" s="2"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="11"/>
@@ -11816,7 +12401,7 @@
       <c r="N442" s="13"/>
       <c r="O442" s="2"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="11"/>
@@ -11833,7 +12418,7 @@
       <c r="N443" s="13"/>
       <c r="O443" s="2"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="11"/>
@@ -11850,7 +12435,7 @@
       <c r="N444" s="13"/>
       <c r="O444" s="2"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="11"/>
@@ -11867,7 +12452,7 @@
       <c r="N445" s="13"/>
       <c r="O445" s="2"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="11"/>
@@ -11884,7 +12469,7 @@
       <c r="N446" s="13"/>
       <c r="O446" s="2"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="11"/>
@@ -11901,7 +12486,7 @@
       <c r="N447" s="13"/>
       <c r="O447" s="2"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="11"/>
@@ -11918,7 +12503,7 @@
       <c r="N448" s="13"/>
       <c r="O448" s="2"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="11"/>
@@ -11935,7 +12520,7 @@
       <c r="N449" s="13"/>
       <c r="O449" s="2"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="11"/>
@@ -11952,7 +12537,7 @@
       <c r="N450" s="13"/>
       <c r="O450" s="2"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="11"/>
@@ -11969,7 +12554,7 @@
       <c r="N451" s="13"/>
       <c r="O451" s="2"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="11"/>
@@ -11986,7 +12571,7 @@
       <c r="N452" s="13"/>
       <c r="O452" s="2"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="11"/>
@@ -12003,7 +12588,7 @@
       <c r="N453" s="13"/>
       <c r="O453" s="2"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="11"/>
@@ -12020,7 +12605,7 @@
       <c r="N454" s="13"/>
       <c r="O454" s="2"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="11"/>
@@ -12037,7 +12622,7 @@
       <c r="N455" s="13"/>
       <c r="O455" s="2"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="11"/>
@@ -12054,7 +12639,7 @@
       <c r="N456" s="13"/>
       <c r="O456" s="2"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="11"/>
@@ -12071,7 +12656,7 @@
       <c r="N457" s="13"/>
       <c r="O457" s="2"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="11"/>
@@ -12088,7 +12673,7 @@
       <c r="N458" s="13"/>
       <c r="O458" s="2"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="11"/>
@@ -12105,7 +12690,7 @@
       <c r="N459" s="13"/>
       <c r="O459" s="2"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="11"/>
@@ -12122,7 +12707,7 @@
       <c r="N460" s="13"/>
       <c r="O460" s="2"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="11"/>
@@ -12139,7 +12724,7 @@
       <c r="N461" s="13"/>
       <c r="O461" s="2"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="11"/>
@@ -12156,7 +12741,7 @@
       <c r="N462" s="13"/>
       <c r="O462" s="2"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="11"/>
@@ -12173,7 +12758,7 @@
       <c r="N463" s="13"/>
       <c r="O463" s="2"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="11"/>
@@ -12190,7 +12775,7 @@
       <c r="N464" s="13"/>
       <c r="O464" s="2"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="11"/>
@@ -12207,7 +12792,7 @@
       <c r="N465" s="13"/>
       <c r="O465" s="2"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="11"/>
@@ -12224,7 +12809,7 @@
       <c r="N466" s="13"/>
       <c r="O466" s="2"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="11"/>
@@ -12241,7 +12826,7 @@
       <c r="N467" s="13"/>
       <c r="O467" s="2"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="11"/>
@@ -12258,7 +12843,7 @@
       <c r="N468" s="13"/>
       <c r="O468" s="2"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="11"/>
@@ -12275,7 +12860,7 @@
       <c r="N469" s="13"/>
       <c r="O469" s="2"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="11"/>
@@ -12292,7 +12877,7 @@
       <c r="N470" s="13"/>
       <c r="O470" s="2"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="11"/>
@@ -12309,7 +12894,7 @@
       <c r="N471" s="13"/>
       <c r="O471" s="2"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="11"/>
@@ -12326,7 +12911,7 @@
       <c r="N472" s="13"/>
       <c r="O472" s="2"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="11"/>
@@ -12343,7 +12928,7 @@
       <c r="N473" s="13"/>
       <c r="O473" s="2"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="11"/>
@@ -12360,7 +12945,7 @@
       <c r="N474" s="13"/>
       <c r="O474" s="2"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="11"/>
@@ -12377,7 +12962,7 @@
       <c r="N475" s="13"/>
       <c r="O475" s="2"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="11"/>
@@ -12394,7 +12979,7 @@
       <c r="N476" s="13"/>
       <c r="O476" s="2"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="11"/>
@@ -12411,7 +12996,7 @@
       <c r="N477" s="13"/>
       <c r="O477" s="2"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="11"/>
@@ -12428,7 +13013,7 @@
       <c r="N478" s="13"/>
       <c r="O478" s="2"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="11"/>
@@ -12445,7 +13030,7 @@
       <c r="N479" s="13"/>
       <c r="O479" s="2"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="11"/>
@@ -12462,7 +13047,7 @@
       <c r="N480" s="13"/>
       <c r="O480" s="2"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="11"/>
@@ -12479,7 +13064,7 @@
       <c r="N481" s="13"/>
       <c r="O481" s="2"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="11"/>
@@ -12496,7 +13081,7 @@
       <c r="N482" s="13"/>
       <c r="O482" s="2"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="11"/>
@@ -12513,7 +13098,7 @@
       <c r="N483" s="13"/>
       <c r="O483" s="2"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="11"/>
@@ -12530,7 +13115,7 @@
       <c r="N484" s="13"/>
       <c r="O484" s="2"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="11"/>
@@ -12547,7 +13132,7 @@
       <c r="N485" s="13"/>
       <c r="O485" s="2"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="11"/>
@@ -12564,7 +13149,7 @@
       <c r="N486" s="13"/>
       <c r="O486" s="2"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="11"/>
@@ -12581,7 +13166,7 @@
       <c r="N487" s="13"/>
       <c r="O487" s="2"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="11"/>
@@ -12598,7 +13183,7 @@
       <c r="N488" s="13"/>
       <c r="O488" s="2"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="11"/>
@@ -12615,7 +13200,7 @@
       <c r="N489" s="13"/>
       <c r="O489" s="2"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="11"/>
@@ -12632,7 +13217,7 @@
       <c r="N490" s="13"/>
       <c r="O490" s="2"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="11"/>
@@ -12649,7 +13234,7 @@
       <c r="N491" s="13"/>
       <c r="O491" s="2"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="11"/>
@@ -12666,7 +13251,7 @@
       <c r="N492" s="13"/>
       <c r="O492" s="2"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="11"/>
@@ -12683,7 +13268,7 @@
       <c r="N493" s="13"/>
       <c r="O493" s="2"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="11"/>
@@ -12700,7 +13285,7 @@
       <c r="N494" s="13"/>
       <c r="O494" s="2"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="11"/>
@@ -12717,7 +13302,7 @@
       <c r="N495" s="13"/>
       <c r="O495" s="2"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="11"/>
@@ -12734,7 +13319,7 @@
       <c r="N496" s="13"/>
       <c r="O496" s="2"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="11"/>
@@ -12751,7 +13336,7 @@
       <c r="N497" s="13"/>
       <c r="O497" s="2"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="11"/>
@@ -12768,7 +13353,7 @@
       <c r="N498" s="13"/>
       <c r="O498" s="2"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="11"/>
@@ -12785,7 +13370,7 @@
       <c r="N499" s="13"/>
       <c r="O499" s="2"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="11"/>
@@ -12802,7 +13387,7 @@
       <c r="N500" s="13"/>
       <c r="O500" s="2"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="11"/>
@@ -12819,7 +13404,7 @@
       <c r="N501" s="13"/>
       <c r="O501" s="2"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="11"/>
@@ -12836,7 +13421,7 @@
       <c r="N502" s="13"/>
       <c r="O502" s="2"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="11"/>
@@ -12853,7 +13438,7 @@
       <c r="N503" s="13"/>
       <c r="O503" s="2"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="11"/>
@@ -12870,7 +13455,7 @@
       <c r="N504" s="13"/>
       <c r="O504" s="2"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="11"/>
@@ -12887,7 +13472,7 @@
       <c r="N505" s="13"/>
       <c r="O505" s="2"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="11"/>
@@ -12904,7 +13489,7 @@
       <c r="N506" s="13"/>
       <c r="O506" s="2"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="11"/>
@@ -12921,7 +13506,7 @@
       <c r="N507" s="13"/>
       <c r="O507" s="2"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="11"/>
@@ -12938,7 +13523,7 @@
       <c r="N508" s="13"/>
       <c r="O508" s="2"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="11"/>
@@ -12955,7 +13540,7 @@
       <c r="N509" s="13"/>
       <c r="O509" s="2"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="11"/>
@@ -12972,7 +13557,7 @@
       <c r="N510" s="13"/>
       <c r="O510" s="2"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="11"/>
@@ -12989,7 +13574,7 @@
       <c r="N511" s="13"/>
       <c r="O511" s="2"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="11"/>
@@ -13006,7 +13591,7 @@
       <c r="N512" s="13"/>
       <c r="O512" s="2"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="11"/>
@@ -13023,7 +13608,7 @@
       <c r="N513" s="13"/>
       <c r="O513" s="2"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="11"/>
@@ -13040,7 +13625,7 @@
       <c r="N514" s="13"/>
       <c r="O514" s="2"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="11"/>
@@ -13057,7 +13642,7 @@
       <c r="N515" s="13"/>
       <c r="O515" s="2"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="11"/>
@@ -13074,7 +13659,7 @@
       <c r="N516" s="13"/>
       <c r="O516" s="2"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="11"/>
@@ -13091,7 +13676,7 @@
       <c r="N517" s="13"/>
       <c r="O517" s="2"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="11"/>
@@ -13108,7 +13693,7 @@
       <c r="N518" s="13"/>
       <c r="O518" s="2"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="11"/>
@@ -13125,7 +13710,7 @@
       <c r="N519" s="13"/>
       <c r="O519" s="2"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="11"/>
@@ -13142,7 +13727,7 @@
       <c r="N520" s="13"/>
       <c r="O520" s="2"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="11"/>
@@ -13159,7 +13744,7 @@
       <c r="N521" s="13"/>
       <c r="O521" s="2"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="11"/>
@@ -13176,7 +13761,7 @@
       <c r="N522" s="13"/>
       <c r="O522" s="2"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="11"/>
@@ -13193,7 +13778,7 @@
       <c r="N523" s="13"/>
       <c r="O523" s="2"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="11"/>
@@ -13210,7 +13795,7 @@
       <c r="N524" s="13"/>
       <c r="O524" s="2"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="11"/>
@@ -13227,7 +13812,7 @@
       <c r="N525" s="13"/>
       <c r="O525" s="2"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="11"/>
@@ -13244,7 +13829,7 @@
       <c r="N526" s="13"/>
       <c r="O526" s="2"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="11"/>
@@ -13261,7 +13846,7 @@
       <c r="N527" s="13"/>
       <c r="O527" s="2"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="11"/>
@@ -13278,7 +13863,7 @@
       <c r="N528" s="13"/>
       <c r="O528" s="2"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="11"/>
@@ -13295,7 +13880,7 @@
       <c r="N529" s="13"/>
       <c r="O529" s="2"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="11"/>
@@ -13312,7 +13897,7 @@
       <c r="N530" s="13"/>
       <c r="O530" s="2"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="11"/>
@@ -13329,7 +13914,7 @@
       <c r="N531" s="13"/>
       <c r="O531" s="2"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="11"/>
@@ -13346,7 +13931,7 @@
       <c r="N532" s="13"/>
       <c r="O532" s="2"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="11"/>
@@ -13363,7 +13948,7 @@
       <c r="N533" s="13"/>
       <c r="O533" s="2"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="11"/>
@@ -13380,7 +13965,7 @@
       <c r="N534" s="13"/>
       <c r="O534" s="2"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="11"/>
@@ -13397,7 +13982,7 @@
       <c r="N535" s="13"/>
       <c r="O535" s="2"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="11"/>
@@ -13414,7 +13999,7 @@
       <c r="N536" s="13"/>
       <c r="O536" s="2"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="11"/>
@@ -13431,7 +14016,7 @@
       <c r="N537" s="13"/>
       <c r="O537" s="2"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="11"/>
@@ -13448,7 +14033,7 @@
       <c r="N538" s="13"/>
       <c r="O538" s="2"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="11"/>
@@ -13465,360 +14050,360 @@
       <c r="N539" s="13"/>
       <c r="O539" s="2"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="545" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="546" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="547" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="548" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="549" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="550" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="551" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="552" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="553" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="554" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="555" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="556" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="557" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="558" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="559" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="560" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="561" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="562" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="563" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="564" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="565" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="566" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="567" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="568" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="569" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="570" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="571" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="572" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="573" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="574" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="575" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="576" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="577" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="578" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="579" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="580" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="581" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="582" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="583" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="584" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="585" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="586" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="587" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="588" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="589" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="590" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="591" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="592" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="593" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="594" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="595" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="596" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="597" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="598" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="599" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="600" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="601" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="602" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="603" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="604" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="605" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="606" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="607" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="608" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="609" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="610" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="611" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="612" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="613" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="614" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="615" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="616" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="617" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="618" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="619" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="620" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="621" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="622" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="623" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="624" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="625" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="626" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="627" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="628" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="629" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="630" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="631" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="632" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="633" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="634" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="635" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="636" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="637" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="638" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="639" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="640" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="641" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="642" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="643" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="644" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="645" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="646" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -13826,25 +14411,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C591" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C591" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D589" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D589" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{CFB49901-5061-044D-A942-2A0C7881077F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21160" windowWidth="25600" xWindow="6280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21160" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21160" windowWidth="25600" xWindow="6280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-21160"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -19,37 +19,38 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="521">
   <si>
     <t>description</t>
   </si>
@@ -1602,6 +1603,36 @@
   </si>
   <si>
     <t xml:space="preserve">0 2 3 4 7 8 9 10 11 12 13 14 15 16 17 18 </t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1609,7 +1640,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1782,8 +1813,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1955,8 +2188,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="97">
     <border>
       <left/>
       <right/>
@@ -2394,6 +2933,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2429,7 +3532,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="86">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2562,52 +3665,148 @@
       <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="6" fontId="10" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="9" fontId="12" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="12" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="15" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="16" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="21" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="24" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="40" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="40" fillId="27" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="40" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="40" fillId="27" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="48" fillId="33" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="36" fontId="28" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="56" fillId="39" fontId="29" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="56" fillId="42" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="32" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="60" fillId="48" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="51" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="68" fillId="54" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="68" fillId="54" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="60" borderId="76" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="63" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="66" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="69" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="75" borderId="88" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="78" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="81" borderId="96" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="96" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2960,9 +4159,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -2986,78 +4185,81 @@
         <v>461</v>
       </c>
       <c r="D1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>171</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>172</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>141</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>211</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>142</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>335</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>182</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>477</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>193</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>181</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>401</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>413</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>414</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>358</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>397</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>129</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>415</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3072,79 +4274,82 @@
         <v>465</v>
       </c>
       <c r="D2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>173</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>153</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>451</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>143</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>467</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>318</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>385</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>419</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>480</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>420</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>421</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>217</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>402</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>425</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>426</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>382</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>398</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>43</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>117</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>122</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>131</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>432</v>
       </c>
-      <c r="AB2" t="s">
-        <v>229</v>
+      <c r="AC2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="3">
@@ -3158,1546 +4363,1573 @@
         <v>462</v>
       </c>
       <c r="D3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E3" t="s">
         <v>458</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>366</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>176</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>175</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>478</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>350</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>343</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>336</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>183</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>481</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>422</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>241</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>218</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>403</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>427</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>383</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>399</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>44</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>118</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>123</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>365</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>130</v>
       </c>
-      <c r="AB3" t="s">
-        <v>230</v>
+      <c r="AC3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>511</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
       <c r="D4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>174</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>388</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>452</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>479</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>351</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>337</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>184</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>482</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>219</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>404</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>428</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>400</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>355</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>119</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>124</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>130</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>433</v>
       </c>
-      <c r="AB4" t="s">
-        <v>231</v>
+      <c r="AC4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
       <c r="D5" t="s">
+        <v>515</v>
+      </c>
+      <c r="E5" t="s">
         <v>459</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>440</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>338</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>456</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>352</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>463</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>185</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>21</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>243</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>220</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>405</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>429</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>360</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>356</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>120</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>125</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>132</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>434</v>
       </c>
-      <c r="AB5" t="s">
-        <v>232</v>
+      <c r="AC5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>389</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>449</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>349</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>173</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>186</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>22</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>244</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>392</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>406</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>362</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>45</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>446</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>126</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>133</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>435</v>
       </c>
-      <c r="AB6" t="s">
-        <v>233</v>
+      <c r="AC6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>367</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>448</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>144</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>318</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>24</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>424</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>407</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>361</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>46</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>447</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>127</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>134</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>436</v>
       </c>
-      <c r="AB7" t="s">
-        <v>234</v>
+      <c r="AC7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>321</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>368</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>330</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>166</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>187</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>160</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>246</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>408</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>363</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>47</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>121</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>128</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>135</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>437</v>
       </c>
-      <c r="AB8" t="s">
-        <v>235</v>
+      <c r="AC8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>309</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>331</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>145</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>188</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>161</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>247</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>409</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>364</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>206</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>179</v>
       </c>
-      <c r="AB9" t="s">
-        <v>475</v>
+      <c r="AC9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" t="s">
         <v>318</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>353</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>453</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>391</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>189</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>423</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>248</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>410</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>259</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>180</v>
       </c>
-      <c r="AB10" t="s">
-        <v>476</v>
+      <c r="AC10" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>335</v>
-      </c>
-      <c r="D11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" t="s">
         <v>257</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>276</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>324</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>146</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>472</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>162</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>249</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>260</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>261</v>
       </c>
-      <c r="AB11" t="s">
-        <v>236</v>
+      <c r="AC11" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E12" t="s">
         <v>322</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>265</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>325</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>147</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>442</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>26</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>250</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>48</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>136</v>
       </c>
-      <c r="AB12" t="s">
-        <v>237</v>
+      <c r="AC12" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>477</v>
-      </c>
-      <c r="D13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" t="s">
         <v>343</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>319</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>326</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>167</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>473</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>163</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>255</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>328</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>137</v>
       </c>
-      <c r="AB13" t="s">
-        <v>238</v>
+      <c r="AC13" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" t="s">
+        <v>477</v>
+      </c>
+      <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>266</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>327</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>168</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>190</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>164</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>251</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>49</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>138</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>267</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>457</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>191</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>165</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>252</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>50</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>139</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
         <v>386</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>320</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>169</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>192</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>253</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>42</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>140</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
         <v>387</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>177</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>170</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>51</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>464</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>401</v>
-      </c>
-      <c r="D18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" t="s">
         <v>416</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>178</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>381</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>52</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D19" t="s">
+        <v>401</v>
+      </c>
+      <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>298</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>471</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>414</v>
-      </c>
-      <c r="D20" t="s">
+        <v>413</v>
+      </c>
+      <c r="E20" t="s">
         <v>36</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>299</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>148</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>358</v>
-      </c>
-      <c r="D21" t="s">
+        <v>414</v>
+      </c>
+      <c r="E21" t="s">
         <v>258</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>300</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>393</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>397</v>
-      </c>
-      <c r="D22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" t="s">
         <v>37</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>301</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>149</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
+        <v>397</v>
+      </c>
+      <c r="E23" t="s">
         <v>323</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>292</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>441</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
         <v>38</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>281</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>150</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
         <v>450</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>154</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>151</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
         <v>226</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>284</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>415</v>
-      </c>
-      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" t="s">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>268</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" t="s">
+        <v>469</v>
+      </c>
+      <c r="G28" t="s">
+        <v>285</v>
+      </c>
+      <c r="X28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
-        <v>469</v>
-      </c>
-      <c r="F28" t="s">
-        <v>285</v>
-      </c>
-      <c r="W28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>470</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>286</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>417</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>213</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>156</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>277</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>39</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>287</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>40</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>262</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>157</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>332</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>158</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>310</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>159</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>263</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>41</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>311</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>152</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>269</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>155</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>212</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>291</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>302</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>303</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>345</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>208</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>304</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>341</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>369</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>305</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>357</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>333</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>270</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>294</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>295</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>296</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>306</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>315</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>339</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>312</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>313</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>370</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>371</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>347</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>316</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>271</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>354</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>317</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>411</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>307</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>412</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>264</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>346</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>282</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>288</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>293</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>418</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>334</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>272</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>283</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>289</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>278</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>273</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>290</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>274</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>275</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>308</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>314</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>297</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>342</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>279</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>280</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -44,12 +44,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="525">
   <si>
     <t>description</t>
   </si>
@@ -1633,6 +1633,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1652,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2015,8 +2027,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2494,8 +2607,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="97">
+  <borders count="125">
     <border>
       <left/>
       <right/>
@@ -3497,6 +3763,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3532,7 +4080,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3761,52 +4309,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="60" borderId="76" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="76" fillId="60" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="63" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="63" fontId="44" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="66" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="84" fillId="66" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="69" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="84" fillId="69" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="75" borderId="88" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="88" fillId="75" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="78" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="78" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="81" borderId="96" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="96" fillId="81" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="96" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="96" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="87" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="90" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="93" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="96" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="102" borderId="116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="105" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="108" borderId="124" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="108" borderId="124" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4159,7 +4755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -4935,7 +5531,7 @@
         <v>137</v>
       </c>
       <c r="AC13" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14">
@@ -4970,7 +5566,7 @@
         <v>138</v>
       </c>
       <c r="AC14" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15">
@@ -5002,7 +5598,7 @@
         <v>139</v>
       </c>
       <c r="AC15" t="s">
-        <v>520</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16">
@@ -5031,7 +5627,7 @@
         <v>140</v>
       </c>
       <c r="AC16" t="s">
-        <v>236</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17">
@@ -5054,7 +5650,7 @@
         <v>464</v>
       </c>
       <c r="AC17" t="s">
-        <v>237</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18">
@@ -5074,7 +5670,7 @@
         <v>52</v>
       </c>
       <c r="AC18" t="s">
-        <v>238</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19">
@@ -5093,6 +5689,9 @@
       <c r="X19" t="s">
         <v>53</v>
       </c>
+      <c r="AC19" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -5110,6 +5709,9 @@
       <c r="X20" t="s">
         <v>54</v>
       </c>
+      <c r="AC20" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -5127,6 +5729,9 @@
       <c r="X21" t="s">
         <v>483</v>
       </c>
+      <c r="AC21" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -5676,7 +6281,7 @@
         <v>272</v>
       </c>
       <c r="X79" t="s">
-        <v>92</v>
+        <v>521</v>
       </c>
     </row>
     <row r="80">
@@ -5684,7 +6289,7 @@
         <v>283</v>
       </c>
       <c r="X80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81">
@@ -5692,7 +6297,7 @@
         <v>289</v>
       </c>
       <c r="X81" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82">
@@ -5700,7 +6305,7 @@
         <v>278</v>
       </c>
       <c r="X82" t="s">
-        <v>485</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83">
@@ -5708,7 +6313,7 @@
         <v>273</v>
       </c>
       <c r="X83" t="s">
-        <v>197</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84">
@@ -5716,7 +6321,7 @@
         <v>290</v>
       </c>
       <c r="X84" t="s">
-        <v>454</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85">
@@ -5724,7 +6329,7 @@
         <v>274</v>
       </c>
       <c r="X85" t="s">
-        <v>198</v>
+        <v>454</v>
       </c>
     </row>
     <row r="86">
@@ -5732,7 +6337,7 @@
         <v>275</v>
       </c>
       <c r="X86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
@@ -5740,7 +6345,7 @@
         <v>308</v>
       </c>
       <c r="X87" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88">
@@ -5748,7 +6353,7 @@
         <v>314</v>
       </c>
       <c r="X88" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
@@ -5756,7 +6361,7 @@
         <v>297</v>
       </c>
       <c r="X89" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90">
@@ -5764,7 +6369,7 @@
         <v>342</v>
       </c>
       <c r="X90" t="s">
-        <v>431</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
@@ -5772,7 +6377,7 @@
         <v>279</v>
       </c>
       <c r="X91" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="92">
@@ -5780,156 +6385,161 @@
         <v>280</v>
       </c>
       <c r="X92" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>384</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>96</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>445</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>109</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -35,7 +35,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="528">
   <si>
     <t>description</t>
   </si>
@@ -1645,6 +1645,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1661,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="74" x14ac:knownFonts="1">
+  <fonts count="106" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2128,8 +2137,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2760,8 +2971,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="125">
+  <borders count="181">
     <border>
       <left/>
       <right/>
@@ -2916,6 +3433,570 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -4080,7 +5161,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="134">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4357,52 +5438,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="87" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="104" fillId="87" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="90" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="90" fontId="60" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="93" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="112" fillId="93" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="96" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="112" fillId="96" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="64" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="102" borderId="116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="116" fillId="102" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="105" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="105" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="108" borderId="124" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="124" fillId="108" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="124" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="124" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="132" fillId="114" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="117" fontId="76" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="140" fillId="120" fontId="77" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="140" fillId="123" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="80" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="144" fillId="129" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="132" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="152" fillId="135" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="152" fillId="135" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="141" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="144" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="147" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="150" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="156" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="159" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="162" borderId="180" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="162" borderId="180" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4755,7 +5932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -5586,7 +6763,7 @@
         <v>191</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>525</v>
       </c>
       <c r="Q15" t="s">
         <v>252</v>
@@ -5617,6 +6794,9 @@
       <c r="M16" t="s">
         <v>192</v>
       </c>
+      <c r="P16" t="s">
+        <v>526</v>
+      </c>
       <c r="Q16" t="s">
         <v>253</v>
       </c>
@@ -5644,7 +6824,7 @@
         <v>170</v>
       </c>
       <c r="X17" t="s">
-        <v>51</v>
+        <v>527</v>
       </c>
       <c r="AA17" t="s">
         <v>464</v>
@@ -5667,7 +6847,7 @@
         <v>381</v>
       </c>
       <c r="X18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC18" t="s">
         <v>524</v>
@@ -5687,7 +6867,7 @@
         <v>471</v>
       </c>
       <c r="X19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC19" t="s">
         <v>236</v>
@@ -5707,7 +6887,7 @@
         <v>148</v>
       </c>
       <c r="X20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC20" t="s">
         <v>237</v>
@@ -5727,7 +6907,7 @@
         <v>393</v>
       </c>
       <c r="X21" t="s">
-        <v>483</v>
+        <v>54</v>
       </c>
       <c r="AC21" t="s">
         <v>238</v>
@@ -5747,7 +6927,7 @@
         <v>149</v>
       </c>
       <c r="X22" t="s">
-        <v>55</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23">
@@ -5764,7 +6944,7 @@
         <v>441</v>
       </c>
       <c r="X23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -5781,7 +6961,7 @@
         <v>150</v>
       </c>
       <c r="X24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
@@ -5798,7 +6978,7 @@
         <v>151</v>
       </c>
       <c r="X25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -5812,7 +6992,7 @@
         <v>284</v>
       </c>
       <c r="X26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -5826,7 +7006,7 @@
         <v>268</v>
       </c>
       <c r="X27" t="s">
-        <v>329</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -5840,7 +7020,7 @@
         <v>285</v>
       </c>
       <c r="X28" t="s">
-        <v>60</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29">
@@ -5854,7 +7034,7 @@
         <v>286</v>
       </c>
       <c r="X29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -5865,7 +7045,7 @@
         <v>213</v>
       </c>
       <c r="X30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
@@ -5876,7 +7056,7 @@
         <v>277</v>
       </c>
       <c r="X31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
@@ -5887,7 +7067,7 @@
         <v>287</v>
       </c>
       <c r="X32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
@@ -5898,7 +7078,7 @@
         <v>262</v>
       </c>
       <c r="X33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
@@ -5909,7 +7089,7 @@
         <v>332</v>
       </c>
       <c r="X34" t="s">
-        <v>207</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
@@ -5920,7 +7100,7 @@
         <v>310</v>
       </c>
       <c r="X35" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36">
@@ -5931,7 +7111,7 @@
         <v>263</v>
       </c>
       <c r="X36" t="s">
-        <v>340</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37">
@@ -5942,7 +7122,7 @@
         <v>311</v>
       </c>
       <c r="X37" t="s">
-        <v>430</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38">
@@ -5953,7 +7133,7 @@
         <v>269</v>
       </c>
       <c r="X38" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39">
@@ -5961,7 +7141,7 @@
         <v>155</v>
       </c>
       <c r="X39" t="s">
-        <v>67</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40">
@@ -5969,7 +7149,7 @@
         <v>212</v>
       </c>
       <c r="X40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41">
@@ -5977,7 +7157,7 @@
         <v>291</v>
       </c>
       <c r="X41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
@@ -5985,7 +7165,7 @@
         <v>302</v>
       </c>
       <c r="X42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
@@ -5993,7 +7173,7 @@
         <v>303</v>
       </c>
       <c r="X43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -6001,7 +7181,7 @@
         <v>345</v>
       </c>
       <c r="X44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45">
@@ -6009,7 +7189,7 @@
         <v>344</v>
       </c>
       <c r="X45" t="s">
-        <v>443</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46">
@@ -6017,7 +7197,7 @@
         <v>208</v>
       </c>
       <c r="X46" t="s">
-        <v>214</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47">
@@ -6025,7 +7205,7 @@
         <v>304</v>
       </c>
       <c r="X47" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48">
@@ -6033,7 +7213,7 @@
         <v>341</v>
       </c>
       <c r="X48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49">
@@ -6041,7 +7221,7 @@
         <v>369</v>
       </c>
       <c r="X49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
@@ -6049,7 +7229,7 @@
         <v>305</v>
       </c>
       <c r="X50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
@@ -6057,7 +7237,7 @@
         <v>357</v>
       </c>
       <c r="X51" t="s">
-        <v>484</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
@@ -6065,7 +7245,7 @@
         <v>333</v>
       </c>
       <c r="X52" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53">
@@ -6073,7 +7253,7 @@
         <v>270</v>
       </c>
       <c r="X53" t="s">
-        <v>77</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54">
@@ -6081,7 +7261,7 @@
         <v>294</v>
       </c>
       <c r="X54" t="s">
-        <v>348</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
@@ -6089,7 +7269,7 @@
         <v>295</v>
       </c>
       <c r="X55" t="s">
-        <v>460</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56">
@@ -6097,7 +7277,7 @@
         <v>296</v>
       </c>
       <c r="X56" t="s">
-        <v>78</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57">
@@ -6105,7 +7285,7 @@
         <v>306</v>
       </c>
       <c r="X57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
@@ -6113,7 +7293,7 @@
         <v>315</v>
       </c>
       <c r="X58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
@@ -6121,7 +7301,7 @@
         <v>339</v>
       </c>
       <c r="X59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
@@ -6129,7 +7309,7 @@
         <v>312</v>
       </c>
       <c r="X60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
@@ -6137,7 +7317,7 @@
         <v>313</v>
       </c>
       <c r="X61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62">
@@ -6145,7 +7325,7 @@
         <v>370</v>
       </c>
       <c r="X62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63">
@@ -6153,7 +7333,7 @@
         <v>371</v>
       </c>
       <c r="X63" t="s">
-        <v>439</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64">
@@ -6161,7 +7341,7 @@
         <v>347</v>
       </c>
       <c r="X64" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65">
@@ -6169,7 +7349,7 @@
         <v>316</v>
       </c>
       <c r="X65" t="s">
-        <v>215</v>
+        <v>474</v>
       </c>
     </row>
     <row r="66">
@@ -6177,7 +7357,7 @@
         <v>271</v>
       </c>
       <c r="X66" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67">
@@ -6185,7 +7365,7 @@
         <v>354</v>
       </c>
       <c r="X67" t="s">
-        <v>444</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68">
@@ -6193,7 +7373,7 @@
         <v>317</v>
       </c>
       <c r="X68" t="s">
-        <v>85</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69">
@@ -6201,7 +7381,7 @@
         <v>411</v>
       </c>
       <c r="X69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70">
@@ -6209,7 +7389,7 @@
         <v>307</v>
       </c>
       <c r="X70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71">
@@ -6217,7 +7397,7 @@
         <v>412</v>
       </c>
       <c r="X71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72">
@@ -6225,7 +7405,7 @@
         <v>264</v>
       </c>
       <c r="X72" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73">
@@ -6233,7 +7413,7 @@
         <v>346</v>
       </c>
       <c r="X73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74">
@@ -6241,7 +7421,7 @@
         <v>282</v>
       </c>
       <c r="X74" t="s">
-        <v>455</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75">
@@ -6249,7 +7429,7 @@
         <v>288</v>
       </c>
       <c r="X75" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="76">
@@ -6257,7 +7437,7 @@
         <v>293</v>
       </c>
       <c r="X76" t="s">
-        <v>89</v>
+        <v>468</v>
       </c>
     </row>
     <row r="77">
@@ -6265,7 +7445,7 @@
         <v>418</v>
       </c>
       <c r="X77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78">
@@ -6273,7 +7453,7 @@
         <v>334</v>
       </c>
       <c r="X78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79">
@@ -6281,7 +7461,7 @@
         <v>272</v>
       </c>
       <c r="X79" t="s">
-        <v>521</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80">
@@ -6289,7 +7469,7 @@
         <v>283</v>
       </c>
       <c r="X80" t="s">
-        <v>92</v>
+        <v>521</v>
       </c>
     </row>
     <row r="81">
@@ -6297,7 +7477,7 @@
         <v>289</v>
       </c>
       <c r="X81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82">
@@ -6305,7 +7485,7 @@
         <v>278</v>
       </c>
       <c r="X82" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83">
@@ -6313,7 +7493,7 @@
         <v>273</v>
       </c>
       <c r="X83" t="s">
-        <v>485</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84">
@@ -6321,7 +7501,7 @@
         <v>290</v>
       </c>
       <c r="X84" t="s">
-        <v>197</v>
+        <v>485</v>
       </c>
     </row>
     <row r="85">
@@ -6329,7 +7509,7 @@
         <v>274</v>
       </c>
       <c r="X85" t="s">
-        <v>454</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86">
@@ -6337,7 +7517,7 @@
         <v>275</v>
       </c>
       <c r="X86" t="s">
-        <v>198</v>
+        <v>454</v>
       </c>
     </row>
     <row r="87">
@@ -6345,7 +7525,7 @@
         <v>308</v>
       </c>
       <c r="X87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
@@ -6353,7 +7533,7 @@
         <v>314</v>
       </c>
       <c r="X88" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89">
@@ -6361,7 +7541,7 @@
         <v>297</v>
       </c>
       <c r="X89" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -6369,7 +7549,7 @@
         <v>342</v>
       </c>
       <c r="X90" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91">
@@ -6377,7 +7557,7 @@
         <v>279</v>
       </c>
       <c r="X91" t="s">
-        <v>431</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
@@ -6385,161 +7565,166 @@
         <v>280</v>
       </c>
       <c r="X92" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>384</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>96</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>445</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>109</v>
+        <v>445</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -20,14 +20,14 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3600" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4116" uniqueCount="533">
   <si>
     <t>description</t>
   </si>
@@ -1654,6 +1654,21 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1676,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="106" x14ac:knownFonts="1">
+  <fonts count="122" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2339,8 +2354,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3277,8 +3393,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="181">
+  <borders count="209">
     <border>
       <left/>
       <right/>
@@ -3433,6 +3702,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -5161,7 +5712,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="150">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5534,52 +6085,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="141" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="160" fillId="141" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="144" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="164" fillId="144" fontId="92" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="147" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="168" fillId="147" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="150" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="168" fillId="150" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="96" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="156" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="172" fillId="156" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="159" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="159" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="162" borderId="180" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="180" fillId="162" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="162" borderId="180" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="180" fillId="162" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="168" borderId="188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="171" borderId="192" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="174" borderId="196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="177" borderId="196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="183" borderId="200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="186" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="189" borderId="208" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="189" borderId="208" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5932,7 +6531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -6366,6 +6965,9 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
+      <c r="F6" t="s">
+        <v>528</v>
+      </c>
       <c r="G6" t="s">
         <v>389</v>
       </c>
@@ -6488,7 +7090,7 @@
         <v>330</v>
       </c>
       <c r="K8" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="M8" t="s">
         <v>187</v>
@@ -6541,7 +7143,7 @@
         <v>331</v>
       </c>
       <c r="K9" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="M9" t="s">
         <v>188</v>
@@ -6582,7 +7184,7 @@
         <v>453</v>
       </c>
       <c r="K10" t="s">
-        <v>391</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s">
         <v>189</v>
@@ -6620,7 +7222,7 @@
         <v>324</v>
       </c>
       <c r="K11" t="s">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="M11" t="s">
         <v>472</v>
@@ -6655,7 +7257,7 @@
         <v>325</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>391</v>
       </c>
       <c r="M12" t="s">
         <v>442</v>
@@ -6690,7 +7292,7 @@
         <v>326</v>
       </c>
       <c r="K13" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="M13" t="s">
         <v>473</v>
@@ -6725,7 +7327,7 @@
         <v>327</v>
       </c>
       <c r="K14" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="M14" t="s">
         <v>190</v>
@@ -6757,7 +7359,7 @@
         <v>267</v>
       </c>
       <c r="K15" t="s">
-        <v>457</v>
+        <v>531</v>
       </c>
       <c r="M15" t="s">
         <v>191</v>
@@ -6789,7 +7391,7 @@
         <v>320</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M16" t="s">
         <v>192</v>
@@ -6821,7 +7423,7 @@
         <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X17" t="s">
         <v>527</v>
@@ -6844,7 +7446,7 @@
         <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>381</v>
+        <v>457</v>
       </c>
       <c r="X18" t="s">
         <v>51</v>
@@ -6864,7 +7466,7 @@
         <v>298</v>
       </c>
       <c r="K19" t="s">
-        <v>471</v>
+        <v>169</v>
       </c>
       <c r="X19" t="s">
         <v>52</v>
@@ -6884,7 +7486,7 @@
         <v>299</v>
       </c>
       <c r="K20" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="X20" t="s">
         <v>53</v>
@@ -6904,7 +7506,7 @@
         <v>300</v>
       </c>
       <c r="K21" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="X21" t="s">
         <v>54</v>
@@ -6924,7 +7526,7 @@
         <v>301</v>
       </c>
       <c r="K22" t="s">
-        <v>149</v>
+        <v>471</v>
       </c>
       <c r="X22" t="s">
         <v>483</v>
@@ -6941,7 +7543,7 @@
         <v>292</v>
       </c>
       <c r="K23" t="s">
-        <v>441</v>
+        <v>148</v>
       </c>
       <c r="X23" t="s">
         <v>55</v>
@@ -6958,7 +7560,7 @@
         <v>281</v>
       </c>
       <c r="K24" t="s">
-        <v>150</v>
+        <v>393</v>
       </c>
       <c r="X24" t="s">
         <v>56</v>
@@ -6975,7 +7577,7 @@
         <v>154</v>
       </c>
       <c r="K25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="X25" t="s">
         <v>57</v>
@@ -6991,6 +7593,9 @@
       <c r="G26" t="s">
         <v>284</v>
       </c>
+      <c r="K26" t="s">
+        <v>441</v>
+      </c>
       <c r="X26" t="s">
         <v>58</v>
       </c>
@@ -7005,6 +7610,9 @@
       <c r="G27" t="s">
         <v>268</v>
       </c>
+      <c r="K27" t="s">
+        <v>150</v>
+      </c>
       <c r="X27" t="s">
         <v>59</v>
       </c>
@@ -7019,6 +7627,9 @@
       <c r="G28" t="s">
         <v>285</v>
       </c>
+      <c r="K28" t="s">
+        <v>151</v>
+      </c>
       <c r="X28" t="s">
         <v>329</v>
       </c>
@@ -7605,126 +8216,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>95</v>
+        <v>532</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>384</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>96</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>445</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>109</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -23,7 +23,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4116" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4634" uniqueCount="535">
   <si>
     <t>description</t>
   </si>
@@ -1669,6 +1669,12 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1682,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="122" x14ac:knownFonts="1">
+  <fonts count="138" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2455,8 +2461,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3546,8 +3653,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="209">
+  <borders count="237">
     <border>
       <left/>
       <right/>
@@ -3702,6 +3962,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -5712,7 +6254,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6133,52 +6675,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="168" borderId="188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="188" fillId="168" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="171" borderId="192" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="192" fillId="171" fontId="108" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="174" borderId="196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="196" fillId="174" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="177" borderId="196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="196" fillId="177" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="112" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="183" borderId="200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="200" fillId="183" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="186" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="204" fillId="186" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="189" borderId="208" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="208" fillId="189" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="189" borderId="208" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="208" fillId="189" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="195" borderId="216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="198" borderId="220" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="201" borderId="224" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="204" borderId="224" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="210" borderId="228" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="213" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="216" borderId="236" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="216" borderId="236" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7686,7 +8276,7 @@
         <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>262</v>
+        <v>533</v>
       </c>
       <c r="X33" t="s">
         <v>64</v>
@@ -7697,7 +8287,7 @@
         <v>157</v>
       </c>
       <c r="G34" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="X34" t="s">
         <v>65</v>
@@ -7708,7 +8298,7 @@
         <v>158</v>
       </c>
       <c r="G35" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="X35" t="s">
         <v>207</v>
@@ -7719,7 +8309,7 @@
         <v>159</v>
       </c>
       <c r="G36" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="X36" t="s">
         <v>66</v>
@@ -7730,7 +8320,7 @@
         <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="X37" t="s">
         <v>340</v>
@@ -7741,7 +8331,7 @@
         <v>152</v>
       </c>
       <c r="G38" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="X38" t="s">
         <v>430</v>
@@ -7749,7 +8339,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
       <c r="X39" t="s">
         <v>394</v>
@@ -7757,7 +8347,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="X40" t="s">
         <v>67</v>
@@ -7765,7 +8355,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>291</v>
+        <v>212</v>
       </c>
       <c r="X41" t="s">
         <v>68</v>
@@ -7773,7 +8363,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="X42" t="s">
         <v>69</v>
@@ -7781,7 +8371,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X43" t="s">
         <v>70</v>
@@ -7789,7 +8379,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="X44" t="s">
         <v>71</v>
@@ -7797,7 +8387,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X45" t="s">
         <v>72</v>
@@ -7805,7 +8395,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="X46" t="s">
         <v>443</v>
@@ -7813,7 +8403,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>304</v>
+        <v>208</v>
       </c>
       <c r="X47" t="s">
         <v>214</v>
@@ -7821,7 +8411,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="X48" t="s">
         <v>73</v>
@@ -7829,7 +8419,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="X49" t="s">
         <v>74</v>
@@ -7837,7 +8427,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="X50" t="s">
         <v>75</v>
@@ -7845,7 +8435,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="X51" t="s">
         <v>76</v>
@@ -7853,7 +8443,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="X52" t="s">
         <v>484</v>
@@ -7861,7 +8451,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="X53" t="s">
         <v>466</v>
@@ -7869,7 +8459,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="X54" t="s">
         <v>77</v>
@@ -7877,7 +8467,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X55" t="s">
         <v>348</v>
@@ -7885,7 +8475,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X56" t="s">
         <v>460</v>
@@ -7893,7 +8483,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="X57" t="s">
         <v>78</v>
@@ -7901,7 +8491,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="X58" t="s">
         <v>79</v>
@@ -7909,7 +8499,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="X59" t="s">
         <v>80</v>
@@ -7917,7 +8507,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="X60" t="s">
         <v>81</v>
@@ -7925,7 +8515,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X61" t="s">
         <v>82</v>
@@ -7933,7 +8523,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="X62" t="s">
         <v>83</v>
@@ -7941,7 +8531,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X63" t="s">
         <v>84</v>
@@ -7949,7 +8539,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="X64" t="s">
         <v>439</v>
@@ -7957,7 +8547,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="X65" t="s">
         <v>474</v>
@@ -7965,7 +8555,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="X66" t="s">
         <v>215</v>
@@ -7973,7 +8563,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>354</v>
+        <v>271</v>
       </c>
       <c r="X67" t="s">
         <v>390</v>
@@ -7981,7 +8571,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="X68" t="s">
         <v>444</v>
@@ -7989,7 +8579,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>411</v>
+        <v>317</v>
       </c>
       <c r="X69" t="s">
         <v>85</v>
@@ -7997,7 +8587,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>307</v>
+        <v>411</v>
       </c>
       <c r="X70" t="s">
         <v>86</v>
@@ -8005,7 +8595,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>412</v>
+        <v>307</v>
       </c>
       <c r="X71" t="s">
         <v>87</v>
@@ -8013,7 +8603,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>264</v>
+        <v>412</v>
       </c>
       <c r="X72" t="s">
         <v>88</v>
@@ -8021,7 +8611,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>346</v>
+        <v>264</v>
       </c>
       <c r="X73" t="s">
         <v>194</v>
@@ -8029,7 +8619,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>282</v>
+        <v>534</v>
       </c>
       <c r="X74" t="s">
         <v>195</v>
@@ -8037,7 +8627,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="X75" t="s">
         <v>455</v>
@@ -8045,7 +8635,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="X76" t="s">
         <v>468</v>
@@ -8053,7 +8643,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>418</v>
+        <v>288</v>
       </c>
       <c r="X77" t="s">
         <v>89</v>
@@ -8061,7 +8651,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="X78" t="s">
         <v>90</v>
@@ -8069,7 +8659,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>272</v>
+        <v>418</v>
       </c>
       <c r="X79" t="s">
         <v>91</v>
@@ -8077,7 +8667,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="X80" t="s">
         <v>521</v>
@@ -8085,7 +8675,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="X81" t="s">
         <v>92</v>
@@ -8093,7 +8683,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="X82" t="s">
         <v>93</v>
@@ -8101,7 +8691,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="X83" t="s">
         <v>196</v>
@@ -8109,7 +8699,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="X84" t="s">
         <v>485</v>
@@ -8117,7 +8707,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X85" t="s">
         <v>197</v>
@@ -8125,7 +8715,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="X86" t="s">
         <v>454</v>
@@ -8133,7 +8723,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="X87" t="s">
         <v>198</v>
@@ -8141,7 +8731,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="X88" t="s">
         <v>199</v>
@@ -8149,7 +8739,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="X89" t="s">
         <v>216</v>
@@ -8157,7 +8747,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="X90" t="s">
         <v>94</v>
@@ -8165,7 +8755,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="X91" t="s">
         <v>200</v>
@@ -8173,18 +8763,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>280</v>
+        <v>342</v>
       </c>
       <c r="X92" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>279</v>
+      </c>
       <c r="X93" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>280</v>
+      </c>
       <c r="X94" t="s">
         <v>201</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4634" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5154" uniqueCount="537">
   <si>
     <t>description</t>
   </si>
@@ -1675,6 +1675,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1688,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="138" x14ac:knownFonts="1">
+  <fonts count="154" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2562,8 +2568,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="250">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3806,8 +3913,178 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="237">
+  <borders count="265">
     <border>
       <left/>
       <right/>
@@ -3962,6 +4239,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -6254,7 +6813,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="182">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6723,52 +7282,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="195" borderId="216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="216" fillId="195" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="198" borderId="220" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="220" fillId="198" fontId="124" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="201" borderId="224" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="224" fillId="201" fontId="125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="204" borderId="224" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="224" fillId="204" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="128" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="210" borderId="228" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="228" fillId="210" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="213" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="232" fillId="213" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="216" borderId="236" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="236" fillId="216" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="216" borderId="236" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="236" fillId="216" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="222" borderId="244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="225" borderId="248" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="228" borderId="252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="231" borderId="252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="237" borderId="256" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="240" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="243" borderId="264" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="243" borderId="264" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="249" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7121,7 +7728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -8817,126 +9424,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>95</v>
+        <v>535</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>384</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>96</v>
+        <v>536</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>97</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>445</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>110</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -30,27 +30,28 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5154" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5682" uniqueCount="544">
   <si>
     <t>description</t>
   </si>
@@ -1681,6 +1682,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1710,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="154" x14ac:knownFonts="1">
+  <fonts count="170" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2669,8 +2691,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="250">
+  <fills count="280">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4083,8 +4206,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="265">
+  <borders count="293">
     <border>
       <left/>
       <right/>
@@ -4239,6 +4532,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -6813,7 +7388,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="198">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7330,52 +7905,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="222" borderId="244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="244" fillId="222" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="225" borderId="248" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="248" fillId="225" fontId="140" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="228" borderId="252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="252" fillId="228" fontId="141" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="231" borderId="252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="252" fillId="231" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="144" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="237" borderId="256" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="256" fillId="237" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="240" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="260" fillId="240" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="243" borderId="264" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="264" fillId="243" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="243" borderId="264" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="264" fillId="243" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="249" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="252" borderId="272" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="255" borderId="276" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="258" borderId="280" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="261" borderId="280" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="264" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="267" borderId="284" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="270" borderId="288" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="273" borderId="292" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="273" borderId="292" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="279" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7728,7 +8351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -7784,51 +8407,54 @@
         <v>182</v>
       </c>
       <c r="N1" t="s">
+        <v>537</v>
+      </c>
+      <c r="O1" t="s">
         <v>477</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>193</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>240</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>181</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>401</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>413</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>414</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>358</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>397</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>129</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>415</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -7873,51 +8499,54 @@
         <v>419</v>
       </c>
       <c r="N2" t="s">
+        <v>538</v>
+      </c>
+      <c r="O2" t="s">
         <v>480</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>420</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>421</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>254</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>217</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>402</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>425</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>426</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>382</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>398</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>117</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>122</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>131</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>432</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>516</v>
       </c>
     </row>
@@ -7962,45 +8591,48 @@
         <v>183</v>
       </c>
       <c r="N3" t="s">
+        <v>539</v>
+      </c>
+      <c r="O3" t="s">
         <v>481</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>422</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>241</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>218</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>403</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>427</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>383</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>399</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>44</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>118</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>123</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>365</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>130</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -8042,45 +8674,48 @@
         <v>184</v>
       </c>
       <c r="N4" t="s">
+        <v>540</v>
+      </c>
+      <c r="O4" t="s">
         <v>482</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>242</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>219</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>404</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>428</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>359</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>400</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>355</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>119</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>124</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>130</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>433</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -8115,40 +8750,43 @@
       <c r="M5" t="s">
         <v>185</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q5" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>243</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>220</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>405</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>429</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>356</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>120</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>125</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>132</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>434</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8180,37 +8818,40 @@
       <c r="M6" t="s">
         <v>186</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q6" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>244</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>392</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>406</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>446</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>126</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>133</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>435</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -8236,37 +8877,40 @@
       <c r="M7" t="s">
         <v>318</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q7" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>245</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>424</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>407</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>447</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>127</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>134</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>436</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8292,34 +8936,34 @@
       <c r="M8" t="s">
         <v>187</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>160</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>246</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>408</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>47</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>121</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>128</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>135</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>437</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -8345,25 +8989,25 @@
       <c r="M9" t="s">
         <v>188</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>161</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>247</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>409</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>206</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>179</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>235</v>
       </c>
     </row>
@@ -8386,22 +9030,22 @@
       <c r="M10" t="s">
         <v>189</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>423</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>248</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>410</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>259</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>180</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>475</v>
       </c>
     </row>
@@ -8424,19 +9068,19 @@
       <c r="M11" t="s">
         <v>472</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>162</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>261</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8459,19 +9103,19 @@
       <c r="M12" t="s">
         <v>442</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>48</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>136</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8494,25 +9138,25 @@
       <c r="M13" t="s">
         <v>473</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>163</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>328</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>137</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -8529,25 +9173,25 @@
       <c r="M14" t="s">
         <v>190</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>164</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>49</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>138</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>477</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
@@ -8561,25 +9205,25 @@
       <c r="M15" t="s">
         <v>191</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>525</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>50</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>139</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="E16" t="s">
         <v>386</v>
@@ -8593,25 +9237,25 @@
       <c r="M16" t="s">
         <v>192</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>526</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>42</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>140</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
         <v>387</v>
@@ -8622,19 +9266,19 @@
       <c r="K17" t="s">
         <v>168</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>527</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>464</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
         <v>416</v>
@@ -8645,16 +9289,16 @@
       <c r="K18" t="s">
         <v>457</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>51</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>401</v>
+        <v>181</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
@@ -8665,16 +9309,16 @@
       <c r="K19" t="s">
         <v>169</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>52</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -8685,16 +9329,16 @@
       <c r="K20" t="s">
         <v>170</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>53</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E21" t="s">
         <v>258</v>
@@ -8705,16 +9349,16 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>54</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="E22" t="s">
         <v>37</v>
@@ -8725,13 +9369,13 @@
       <c r="K22" t="s">
         <v>471</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="E23" t="s">
         <v>323</v>
@@ -8742,13 +9386,13 @@
       <c r="K23" t="s">
         <v>148</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>397</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
@@ -8759,13 +9403,13 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
         <v>450</v>
@@ -8776,13 +9420,13 @@
       <c r="K25" t="s">
         <v>149</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
         <v>226</v>
@@ -8793,13 +9437,13 @@
       <c r="K26" t="s">
         <v>441</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
         <v>227</v>
@@ -8810,13 +9454,13 @@
       <c r="K27" t="s">
         <v>150</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>415</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
         <v>469</v>
@@ -8827,13 +9471,13 @@
       <c r="K28" t="s">
         <v>151</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>415</v>
       </c>
       <c r="E29" t="s">
         <v>470</v>
@@ -8841,18 +9485,21 @@
       <c r="G29" t="s">
         <v>286</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
       <c r="E30" t="s">
         <v>417</v>
       </c>
       <c r="G30" t="s">
         <v>213</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8863,7 +9510,7 @@
       <c r="G31" t="s">
         <v>277</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>62</v>
       </c>
     </row>
@@ -8874,7 +9521,7 @@
       <c r="G32" t="s">
         <v>287</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8885,7 +9532,7 @@
       <c r="G33" t="s">
         <v>533</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>64</v>
       </c>
     </row>
@@ -8896,7 +9543,7 @@
       <c r="G34" t="s">
         <v>262</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8907,7 +9554,7 @@
       <c r="G35" t="s">
         <v>332</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>207</v>
       </c>
     </row>
@@ -8918,7 +9565,7 @@
       <c r="G36" t="s">
         <v>310</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8929,7 +9576,7 @@
       <c r="G37" t="s">
         <v>263</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>340</v>
       </c>
     </row>
@@ -8940,7 +9587,7 @@
       <c r="G38" t="s">
         <v>311</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>430</v>
       </c>
     </row>
@@ -8948,7 +9595,7 @@
       <c r="G39" t="s">
         <v>269</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>394</v>
       </c>
     </row>
@@ -8956,7 +9603,7 @@
       <c r="G40" t="s">
         <v>155</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>67</v>
       </c>
     </row>
@@ -8964,7 +9611,7 @@
       <c r="G41" t="s">
         <v>212</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8972,7 +9619,7 @@
       <c r="G42" t="s">
         <v>291</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8980,7 +9627,7 @@
       <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8988,7 +9635,7 @@
       <c r="G44" t="s">
         <v>303</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8996,7 +9643,7 @@
       <c r="G45" t="s">
         <v>345</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9004,7 +9651,7 @@
       <c r="G46" t="s">
         <v>344</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>443</v>
       </c>
     </row>
@@ -9012,7 +9659,7 @@
       <c r="G47" t="s">
         <v>208</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>214</v>
       </c>
     </row>
@@ -9020,7 +9667,7 @@
       <c r="G48" t="s">
         <v>304</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9028,7 +9675,7 @@
       <c r="G49" t="s">
         <v>341</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9036,7 +9683,7 @@
       <c r="G50" t="s">
         <v>369</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>75</v>
       </c>
     </row>
@@ -9044,7 +9691,7 @@
       <c r="G51" t="s">
         <v>305</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9052,7 +9699,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>484</v>
       </c>
     </row>
@@ -9060,7 +9707,7 @@
       <c r="G53" t="s">
         <v>333</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>466</v>
       </c>
     </row>
@@ -9068,7 +9715,7 @@
       <c r="G54" t="s">
         <v>270</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>77</v>
       </c>
     </row>
@@ -9076,7 +9723,7 @@
       <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>348</v>
       </c>
     </row>
@@ -9084,7 +9731,7 @@
       <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>460</v>
       </c>
     </row>
@@ -9092,7 +9739,7 @@
       <c r="G57" t="s">
         <v>296</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9100,7 +9747,7 @@
       <c r="G58" t="s">
         <v>306</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9108,7 +9755,7 @@
       <c r="G59" t="s">
         <v>315</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>80</v>
       </c>
     </row>
@@ -9116,7 +9763,7 @@
       <c r="G60" t="s">
         <v>339</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>81</v>
       </c>
     </row>
@@ -9124,7 +9771,7 @@
       <c r="G61" t="s">
         <v>312</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>82</v>
       </c>
     </row>
@@ -9132,7 +9779,7 @@
       <c r="G62" t="s">
         <v>313</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>83</v>
       </c>
     </row>
@@ -9140,7 +9787,7 @@
       <c r="G63" t="s">
         <v>370</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>84</v>
       </c>
     </row>
@@ -9148,7 +9795,7 @@
       <c r="G64" t="s">
         <v>371</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>439</v>
       </c>
     </row>
@@ -9156,7 +9803,7 @@
       <c r="G65" t="s">
         <v>347</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>474</v>
       </c>
     </row>
@@ -9164,7 +9811,7 @@
       <c r="G66" t="s">
         <v>316</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>215</v>
       </c>
     </row>
@@ -9172,7 +9819,7 @@
       <c r="G67" t="s">
         <v>271</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>390</v>
       </c>
     </row>
@@ -9180,7 +9827,7 @@
       <c r="G68" t="s">
         <v>354</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>444</v>
       </c>
     </row>
@@ -9188,7 +9835,7 @@
       <c r="G69" t="s">
         <v>317</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>85</v>
       </c>
     </row>
@@ -9196,7 +9843,7 @@
       <c r="G70" t="s">
         <v>411</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>86</v>
       </c>
     </row>
@@ -9204,7 +9851,7 @@
       <c r="G71" t="s">
         <v>307</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>87</v>
       </c>
     </row>
@@ -9212,7 +9859,7 @@
       <c r="G72" t="s">
         <v>412</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>88</v>
       </c>
     </row>
@@ -9220,7 +9867,7 @@
       <c r="G73" t="s">
         <v>264</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>194</v>
       </c>
     </row>
@@ -9228,7 +9875,7 @@
       <c r="G74" t="s">
         <v>534</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>195</v>
       </c>
     </row>
@@ -9236,7 +9883,7 @@
       <c r="G75" t="s">
         <v>346</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>455</v>
       </c>
     </row>
@@ -9244,7 +9891,7 @@
       <c r="G76" t="s">
         <v>282</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>468</v>
       </c>
     </row>
@@ -9252,7 +9899,7 @@
       <c r="G77" t="s">
         <v>288</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>89</v>
       </c>
     </row>
@@ -9260,7 +9907,7 @@
       <c r="G78" t="s">
         <v>293</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>90</v>
       </c>
     </row>
@@ -9268,7 +9915,7 @@
       <c r="G79" t="s">
         <v>418</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>91</v>
       </c>
     </row>
@@ -9276,7 +9923,7 @@
       <c r="G80" t="s">
         <v>334</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9284,7 +9931,7 @@
       <c r="G81" t="s">
         <v>272</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>92</v>
       </c>
     </row>
@@ -9292,7 +9939,7 @@
       <c r="G82" t="s">
         <v>283</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9300,7 +9947,7 @@
       <c r="G83" t="s">
         <v>289</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>196</v>
       </c>
     </row>
@@ -9308,7 +9955,7 @@
       <c r="G84" t="s">
         <v>278</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>485</v>
       </c>
     </row>
@@ -9316,7 +9963,7 @@
       <c r="G85" t="s">
         <v>273</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -9324,7 +9971,7 @@
       <c r="G86" t="s">
         <v>290</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>454</v>
       </c>
     </row>
@@ -9332,7 +9979,7 @@
       <c r="G87" t="s">
         <v>274</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>198</v>
       </c>
     </row>
@@ -9340,7 +9987,7 @@
       <c r="G88" t="s">
         <v>275</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>199</v>
       </c>
     </row>
@@ -9348,7 +9995,7 @@
       <c r="G89" t="s">
         <v>308</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>216</v>
       </c>
     </row>
@@ -9356,7 +10003,7 @@
       <c r="G90" t="s">
         <v>314</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9364,7 +10011,7 @@
       <c r="G91" t="s">
         <v>297</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>200</v>
       </c>
     </row>
@@ -9372,7 +10019,7 @@
       <c r="G92" t="s">
         <v>342</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>431</v>
       </c>
     </row>
@@ -9380,7 +10027,7 @@
       <c r="G93" t="s">
         <v>279</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>438</v>
       </c>
     </row>
@@ -9388,172 +10035,172 @@
       <c r="G94" t="s">
         <v>280</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
@@ -51,7 +51,7 @@
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5682" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6745" uniqueCount="548">
   <si>
     <t>description</t>
   </si>
@@ -1703,6 +1703,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1722,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="170" x14ac:knownFonts="1">
+  <fonts count="202" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2792,8 +2804,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="280">
+  <fills count="340">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4376,8 +4590,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="293">
+  <borders count="349">
     <border>
       <left/>
       <right/>
@@ -4532,6 +5086,570 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -7388,7 +8506,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="230">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7953,52 +9071,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="252" borderId="272" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="272" fillId="252" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="255" borderId="276" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="276" fillId="255" fontId="156" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="258" borderId="280" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="280" fillId="258" fontId="157" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="261" borderId="280" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="280" fillId="261" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="264" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="264" fontId="160" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="267" borderId="284" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="284" fillId="267" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="270" borderId="288" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="288" fillId="270" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="273" borderId="292" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="292" fillId="273" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="273" borderId="292" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="292" fillId="273" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="279" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="300" fillId="282" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="304" fillId="285" fontId="172" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="308" fillId="288" fontId="173" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="308" fillId="291" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="176" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="312" fillId="297" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="316" fillId="300" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="320" fillId="303" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="320" fillId="303" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="306" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="309" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="312" borderId="328" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="315" borderId="332" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="318" borderId="336" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="321" borderId="336" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="327" borderId="340" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="330" borderId="344" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="333" borderId="348" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="333" borderId="348" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8751,7 +9965,7 @@
         <v>185</v>
       </c>
       <c r="N5" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -8819,7 +10033,7 @@
         <v>186</v>
       </c>
       <c r="N6" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
@@ -8878,7 +10092,7 @@
         <v>318</v>
       </c>
       <c r="N7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="Q7" t="s">
         <v>24</v>
@@ -8936,6 +10150,9 @@
       <c r="M8" t="s">
         <v>187</v>
       </c>
+      <c r="N8" t="s">
+        <v>541</v>
+      </c>
       <c r="Q8" t="s">
         <v>160</v>
       </c>
@@ -8989,6 +10206,9 @@
       <c r="M9" t="s">
         <v>188</v>
       </c>
+      <c r="N9" t="s">
+        <v>542</v>
+      </c>
       <c r="Q9" t="s">
         <v>161</v>
       </c>
@@ -9030,6 +10250,9 @@
       <c r="M10" t="s">
         <v>189</v>
       </c>
+      <c r="N10" t="s">
+        <v>543</v>
+      </c>
       <c r="Q10" t="s">
         <v>423</v>
       </c>
@@ -9418,7 +10641,7 @@
         <v>154</v>
       </c>
       <c r="K25" t="s">
-        <v>149</v>
+        <v>547</v>
       </c>
       <c r="Y25" t="s">
         <v>57</v>
@@ -9435,7 +10658,7 @@
         <v>284</v>
       </c>
       <c r="K26" t="s">
-        <v>441</v>
+        <v>149</v>
       </c>
       <c r="Y26" t="s">
         <v>58</v>
@@ -9452,7 +10675,7 @@
         <v>268</v>
       </c>
       <c r="K27" t="s">
-        <v>150</v>
+        <v>441</v>
       </c>
       <c r="Y27" t="s">
         <v>59</v>
@@ -9469,7 +10692,7 @@
         <v>285</v>
       </c>
       <c r="K28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y28" t="s">
         <v>329</v>
@@ -9484,6 +10707,9 @@
       </c>
       <c r="G29" t="s">
         <v>286</v>
+      </c>
+      <c r="K29" t="s">
+        <v>151</v>
       </c>
       <c r="Y29" t="s">
         <v>60</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -50,8 +50,8 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6745" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7280" uniqueCount="552">
   <si>
     <t>description</t>
   </si>
@@ -1715,6 +1715,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1734,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="202" x14ac:knownFonts="1">
+  <fonts count="218" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3006,8 +3018,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="340">
+  <fills count="370">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4930,8 +5043,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="349">
+  <borders count="377">
     <border>
       <left/>
       <right/>
@@ -5086,6 +5369,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -8506,7 +9071,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="246">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9167,52 +9732,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="309" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="312" borderId="328" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="328" fillId="312" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="315" borderId="332" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="332" fillId="315" fontId="188" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="318" borderId="336" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="336" fillId="318" fontId="189" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="321" borderId="336" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="336" fillId="321" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="192" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="327" borderId="340" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="340" fillId="327" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="330" borderId="344" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="344" fillId="330" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="333" borderId="348" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="348" fillId="333" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="333" borderId="348" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="348" fillId="333" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="321" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="336" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="321" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="342" borderId="356" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="345" borderId="360" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="348" borderId="364" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="351" borderId="364" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="357" borderId="368" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="360" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="363" borderId="376" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="363" borderId="376" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9775,7 +10388,7 @@
         <v>462</v>
       </c>
       <c r="D3" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="E3" t="s">
         <v>458</v>
@@ -9858,7 +10471,7 @@
         <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -9941,7 +10554,7 @@
         <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E5" t="s">
         <v>459</v>
@@ -9965,7 +10578,7 @@
         <v>185</v>
       </c>
       <c r="N5" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -10011,6 +10624,9 @@
       <c r="B6" t="s">
         <v>377</v>
       </c>
+      <c r="D6" t="s">
+        <v>515</v>
+      </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -10033,7 +10649,7 @@
         <v>186</v>
       </c>
       <c r="N6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
@@ -10092,7 +10708,7 @@
         <v>318</v>
       </c>
       <c r="N7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Q7" t="s">
         <v>24</v>
@@ -10151,7 +10767,7 @@
         <v>187</v>
       </c>
       <c r="N8" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="Q8" t="s">
         <v>160</v>
@@ -10207,7 +10823,7 @@
         <v>188</v>
       </c>
       <c r="N9" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="Q9" t="s">
         <v>161</v>
@@ -10251,7 +10867,7 @@
         <v>189</v>
       </c>
       <c r="N10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Q10" t="s">
         <v>423</v>
@@ -10291,6 +10907,9 @@
       <c r="M11" t="s">
         <v>472</v>
       </c>
+      <c r="N11" t="s">
+        <v>542</v>
+      </c>
       <c r="Q11" t="s">
         <v>162</v>
       </c>
@@ -10326,6 +10945,9 @@
       <c r="M12" t="s">
         <v>442</v>
       </c>
+      <c r="N12" t="s">
+        <v>543</v>
+      </c>
       <c r="Q12" t="s">
         <v>26</v>
       </c>
@@ -10641,7 +11263,7 @@
         <v>154</v>
       </c>
       <c r="K25" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="Y25" t="s">
         <v>57</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -25,7 +25,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7280" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7817" uniqueCount="554">
   <si>
     <t>description</t>
   </si>
@@ -1727,6 +1727,12 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1740,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="218" x14ac:knownFonts="1">
+  <fonts count="234" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3119,8 +3125,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="370">
+  <fills count="400">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5213,8 +5320,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="377">
+  <borders count="405">
     <border>
       <left/>
       <right/>
@@ -5369,6 +5646,288 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -9071,7 +9630,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="262">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9780,52 +10339,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="342" borderId="356" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="356" fillId="342" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="345" borderId="360" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="360" fillId="345" fontId="204" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="348" borderId="364" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="364" fillId="348" fontId="205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="351" borderId="364" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="364" fillId="351" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="357" borderId="368" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="368" fillId="357" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="360" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="372" fillId="360" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="363" borderId="376" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="376" fillId="363" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="363" borderId="376" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="376" fillId="363" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="372" borderId="384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="375" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="378" borderId="392" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="381" borderId="392" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="384" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="387" borderId="396" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="390" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="393" borderId="404" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="393" borderId="404" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="399" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10178,7 +10785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -10568,6 +11175,9 @@
       <c r="H5" t="s">
         <v>456</v>
       </c>
+      <c r="I5" t="s">
+        <v>552</v>
+      </c>
       <c r="J5" t="s">
         <v>352</v>
       </c>
@@ -11444,7 +12054,7 @@
         <v>269</v>
       </c>
       <c r="Y39" t="s">
-        <v>394</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40">
@@ -11452,7 +12062,7 @@
         <v>155</v>
       </c>
       <c r="Y40" t="s">
-        <v>67</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41">
@@ -11460,7 +12070,7 @@
         <v>212</v>
       </c>
       <c r="Y41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42">
@@ -11468,7 +12078,7 @@
         <v>291</v>
       </c>
       <c r="Y42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43">
@@ -11476,7 +12086,7 @@
         <v>302</v>
       </c>
       <c r="Y43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44">
@@ -11484,7 +12094,7 @@
         <v>303</v>
       </c>
       <c r="Y44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45">
@@ -11492,7 +12102,7 @@
         <v>345</v>
       </c>
       <c r="Y45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -11500,7 +12110,7 @@
         <v>344</v>
       </c>
       <c r="Y46" t="s">
-        <v>443</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47">
@@ -11508,7 +12118,7 @@
         <v>208</v>
       </c>
       <c r="Y47" t="s">
-        <v>214</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48">
@@ -11516,7 +12126,7 @@
         <v>304</v>
       </c>
       <c r="Y48" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49">
@@ -11524,7 +12134,7 @@
         <v>341</v>
       </c>
       <c r="Y49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
@@ -11532,7 +12142,7 @@
         <v>369</v>
       </c>
       <c r="Y50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51">
@@ -11540,7 +12150,7 @@
         <v>305</v>
       </c>
       <c r="Y51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
@@ -11548,7 +12158,7 @@
         <v>357</v>
       </c>
       <c r="Y52" t="s">
-        <v>484</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
@@ -11556,7 +12166,7 @@
         <v>333</v>
       </c>
       <c r="Y53" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54">
@@ -11564,7 +12174,7 @@
         <v>270</v>
       </c>
       <c r="Y54" t="s">
-        <v>77</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55">
@@ -11572,7 +12182,7 @@
         <v>294</v>
       </c>
       <c r="Y55" t="s">
-        <v>348</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
@@ -11580,7 +12190,7 @@
         <v>295</v>
       </c>
       <c r="Y56" t="s">
-        <v>460</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57">
@@ -11588,7 +12198,7 @@
         <v>296</v>
       </c>
       <c r="Y57" t="s">
-        <v>78</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58">
@@ -11596,7 +12206,7 @@
         <v>306</v>
       </c>
       <c r="Y58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
@@ -11604,7 +12214,7 @@
         <v>315</v>
       </c>
       <c r="Y59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
@@ -11612,7 +12222,7 @@
         <v>339</v>
       </c>
       <c r="Y60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
@@ -11620,7 +12230,7 @@
         <v>312</v>
       </c>
       <c r="Y61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
@@ -11628,7 +12238,7 @@
         <v>313</v>
       </c>
       <c r="Y62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63">
@@ -11636,7 +12246,7 @@
         <v>370</v>
       </c>
       <c r="Y63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64">
@@ -11644,7 +12254,7 @@
         <v>371</v>
       </c>
       <c r="Y64" t="s">
-        <v>439</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65">
@@ -11652,7 +12262,7 @@
         <v>347</v>
       </c>
       <c r="Y65" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66">
@@ -11660,7 +12270,7 @@
         <v>316</v>
       </c>
       <c r="Y66" t="s">
-        <v>215</v>
+        <v>474</v>
       </c>
     </row>
     <row r="67">
@@ -11668,7 +12278,7 @@
         <v>271</v>
       </c>
       <c r="Y67" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68">
@@ -11676,7 +12286,7 @@
         <v>354</v>
       </c>
       <c r="Y68" t="s">
-        <v>444</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69">
@@ -11684,7 +12294,7 @@
         <v>317</v>
       </c>
       <c r="Y69" t="s">
-        <v>85</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70">
@@ -11692,7 +12302,7 @@
         <v>411</v>
       </c>
       <c r="Y70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71">
@@ -11700,7 +12310,7 @@
         <v>307</v>
       </c>
       <c r="Y71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72">
@@ -11708,7 +12318,7 @@
         <v>412</v>
       </c>
       <c r="Y72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73">
@@ -11716,7 +12326,7 @@
         <v>264</v>
       </c>
       <c r="Y73" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74">
@@ -11724,7 +12334,7 @@
         <v>534</v>
       </c>
       <c r="Y74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75">
@@ -11732,7 +12342,7 @@
         <v>346</v>
       </c>
       <c r="Y75" t="s">
-        <v>455</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76">
@@ -11740,7 +12350,7 @@
         <v>282</v>
       </c>
       <c r="Y76" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77">
@@ -11748,7 +12358,7 @@
         <v>288</v>
       </c>
       <c r="Y77" t="s">
-        <v>89</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78">
@@ -11756,7 +12366,7 @@
         <v>293</v>
       </c>
       <c r="Y78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79">
@@ -11764,7 +12374,7 @@
         <v>418</v>
       </c>
       <c r="Y79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80">
@@ -11772,7 +12382,7 @@
         <v>334</v>
       </c>
       <c r="Y80" t="s">
-        <v>521</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81">
@@ -11780,7 +12390,7 @@
         <v>272</v>
       </c>
       <c r="Y81" t="s">
-        <v>92</v>
+        <v>521</v>
       </c>
     </row>
     <row r="82">
@@ -11788,7 +12398,7 @@
         <v>283</v>
       </c>
       <c r="Y82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83">
@@ -11796,7 +12406,7 @@
         <v>289</v>
       </c>
       <c r="Y83" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84">
@@ -11804,7 +12414,7 @@
         <v>278</v>
       </c>
       <c r="Y84" t="s">
-        <v>485</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85">
@@ -11812,7 +12422,7 @@
         <v>273</v>
       </c>
       <c r="Y85" t="s">
-        <v>197</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86">
@@ -11820,7 +12430,7 @@
         <v>290</v>
       </c>
       <c r="Y86" t="s">
-        <v>454</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87">
@@ -11828,7 +12438,7 @@
         <v>274</v>
       </c>
       <c r="Y87" t="s">
-        <v>198</v>
+        <v>454</v>
       </c>
     </row>
     <row r="88">
@@ -11836,7 +12446,7 @@
         <v>275</v>
       </c>
       <c r="Y88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89">
@@ -11844,7 +12454,7 @@
         <v>308</v>
       </c>
       <c r="Y89" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
@@ -11852,7 +12462,7 @@
         <v>314</v>
       </c>
       <c r="Y90" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91">
@@ -11860,7 +12470,7 @@
         <v>297</v>
       </c>
       <c r="Y91" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92">
@@ -11868,7 +12478,7 @@
         <v>342</v>
       </c>
       <c r="Y92" t="s">
-        <v>431</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
@@ -11876,7 +12486,7 @@
         <v>279</v>
       </c>
       <c r="Y93" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94">
@@ -11884,171 +12494,176 @@
         <v>280</v>
       </c>
       <c r="Y94" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>532</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>95</v>
+        <v>535</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>536</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>384</v>
+        <v>536</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>96</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>445</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>109</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -23,13 +23,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -44,12 +44,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7817" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8364" uniqueCount="565">
   <si>
     <t>description</t>
   </si>
@@ -1733,6 +1733,39 @@
   </si>
   <si>
     <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1773,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="234" x14ac:knownFonts="1">
+  <fonts count="250" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3226,8 +3259,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="400">
+  <fills count="427">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5490,8 +5624,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="405">
+  <borders count="437">
     <border>
       <left/>
       <right/>
@@ -9417,6 +9704,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -9630,7 +10243,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="278">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10387,52 +11000,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="372" borderId="384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="384" fillId="372" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="375" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="388" fillId="375" fontId="220" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="378" borderId="392" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="392" fillId="378" fontId="221" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="381" borderId="392" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="392" fillId="381" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="384" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="384" fontId="224" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="387" borderId="396" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="396" fillId="387" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="390" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="400" fillId="390" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="393" borderId="404" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="404" fillId="393" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="393" borderId="404" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="404" fillId="393" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="399" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="399" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="402" borderId="412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="405" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="408" borderId="420" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="411" borderId="424" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="414" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="417" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="408" borderId="432" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="420" borderId="436" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="420" borderId="436" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="426" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10785,7 +11446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -11311,6 +11972,9 @@
       <c r="H7" t="s">
         <v>448</v>
       </c>
+      <c r="J7" t="s">
+        <v>556</v>
+      </c>
       <c r="K7" t="s">
         <v>144</v>
       </c>
@@ -11351,7 +12015,7 @@
         <v>436</v>
       </c>
       <c r="AD7" t="s">
-        <v>233</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8">
@@ -11407,7 +12071,7 @@
         <v>437</v>
       </c>
       <c r="AD8" t="s">
-        <v>234</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9">
@@ -11454,7 +12118,7 @@
         <v>179</v>
       </c>
       <c r="AD9" t="s">
-        <v>235</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10">
@@ -11495,7 +12159,7 @@
         <v>180</v>
       </c>
       <c r="AD10" t="s">
-        <v>475</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
@@ -11533,7 +12197,7 @@
         <v>261</v>
       </c>
       <c r="AD11" t="s">
-        <v>517</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -11553,7 +12217,7 @@
         <v>391</v>
       </c>
       <c r="M12" t="s">
-        <v>442</v>
+        <v>557</v>
       </c>
       <c r="N12" t="s">
         <v>543</v>
@@ -11571,7 +12235,7 @@
         <v>136</v>
       </c>
       <c r="AD12" t="s">
-        <v>518</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
@@ -11591,7 +12255,7 @@
         <v>146</v>
       </c>
       <c r="M13" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="Q13" t="s">
         <v>163</v>
@@ -11606,7 +12270,7 @@
         <v>137</v>
       </c>
       <c r="AD13" t="s">
-        <v>522</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14">
@@ -11626,7 +12290,7 @@
         <v>147</v>
       </c>
       <c r="M14" t="s">
-        <v>190</v>
+        <v>473</v>
       </c>
       <c r="Q14" t="s">
         <v>164</v>
@@ -11641,7 +12305,7 @@
         <v>138</v>
       </c>
       <c r="AD14" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15">
@@ -11658,7 +12322,7 @@
         <v>531</v>
       </c>
       <c r="M15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q15" t="s">
         <v>525</v>
@@ -11673,7 +12337,7 @@
         <v>139</v>
       </c>
       <c r="AD15" t="s">
-        <v>476</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16">
@@ -11690,7 +12354,7 @@
         <v>167</v>
       </c>
       <c r="M16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q16" t="s">
         <v>526</v>
@@ -11705,7 +12369,7 @@
         <v>140</v>
       </c>
       <c r="AD16" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17">
@@ -11721,6 +12385,9 @@
       <c r="K17" t="s">
         <v>168</v>
       </c>
+      <c r="M17" t="s">
+        <v>192</v>
+      </c>
       <c r="Y17" t="s">
         <v>527</v>
       </c>
@@ -11728,7 +12395,7 @@
         <v>464</v>
       </c>
       <c r="AD17" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18">
@@ -11748,7 +12415,7 @@
         <v>51</v>
       </c>
       <c r="AD18" t="s">
-        <v>524</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19">
@@ -11768,7 +12435,7 @@
         <v>52</v>
       </c>
       <c r="AD19" t="s">
-        <v>236</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20">
@@ -11788,7 +12455,7 @@
         <v>53</v>
       </c>
       <c r="AD20" t="s">
-        <v>237</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21">
@@ -11808,7 +12475,7 @@
         <v>54</v>
       </c>
       <c r="AD21" t="s">
-        <v>238</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22">
@@ -11827,6 +12494,9 @@
       <c r="Y22" t="s">
         <v>483</v>
       </c>
+      <c r="AD22" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -11844,6 +12514,9 @@
       <c r="Y23" t="s">
         <v>55</v>
       </c>
+      <c r="AD23" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -11861,6 +12534,9 @@
       <c r="Y24" t="s">
         <v>56</v>
       </c>
+      <c r="AD24" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -11878,6 +12554,9 @@
       <c r="Y25" t="s">
         <v>57</v>
       </c>
+      <c r="AD25" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -11895,6 +12574,9 @@
       <c r="Y26" t="s">
         <v>58</v>
       </c>
+      <c r="AD26" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -11912,6 +12594,9 @@
       <c r="Y27" t="s">
         <v>59</v>
       </c>
+      <c r="AD27" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -12142,7 +12827,7 @@
         <v>369</v>
       </c>
       <c r="Y50" t="s">
-        <v>74</v>
+        <v>558</v>
       </c>
     </row>
     <row r="51">
@@ -12150,7 +12835,7 @@
         <v>305</v>
       </c>
       <c r="Y51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52">
@@ -12158,7 +12843,7 @@
         <v>357</v>
       </c>
       <c r="Y52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
@@ -12166,7 +12851,7 @@
         <v>333</v>
       </c>
       <c r="Y53" t="s">
-        <v>484</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
@@ -12174,7 +12859,7 @@
         <v>270</v>
       </c>
       <c r="Y54" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55">
@@ -12182,7 +12867,7 @@
         <v>294</v>
       </c>
       <c r="Y55" t="s">
-        <v>77</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56">
@@ -12190,7 +12875,7 @@
         <v>295</v>
       </c>
       <c r="Y56" t="s">
-        <v>348</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
@@ -12198,7 +12883,7 @@
         <v>296</v>
       </c>
       <c r="Y57" t="s">
-        <v>460</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58">
@@ -12206,7 +12891,7 @@
         <v>306</v>
       </c>
       <c r="Y58" t="s">
-        <v>78</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59">
@@ -12214,7 +12899,7 @@
         <v>315</v>
       </c>
       <c r="Y59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
@@ -12222,7 +12907,7 @@
         <v>339</v>
       </c>
       <c r="Y60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
@@ -12230,7 +12915,7 @@
         <v>312</v>
       </c>
       <c r="Y61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
@@ -12238,7 +12923,7 @@
         <v>313</v>
       </c>
       <c r="Y62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
@@ -12246,7 +12931,7 @@
         <v>370</v>
       </c>
       <c r="Y63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64">
@@ -12254,7 +12939,7 @@
         <v>371</v>
       </c>
       <c r="Y64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65">
@@ -12262,7 +12947,7 @@
         <v>347</v>
       </c>
       <c r="Y65" t="s">
-        <v>439</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66">
@@ -12270,7 +12955,7 @@
         <v>316</v>
       </c>
       <c r="Y66" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67">
@@ -12278,15 +12963,15 @@
         <v>271</v>
       </c>
       <c r="Y67" t="s">
-        <v>215</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>354</v>
+        <v>554</v>
       </c>
       <c r="Y68" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69">
@@ -12294,7 +12979,7 @@
         <v>317</v>
       </c>
       <c r="Y69" t="s">
-        <v>444</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70">
@@ -12302,7 +12987,7 @@
         <v>411</v>
       </c>
       <c r="Y70" t="s">
-        <v>85</v>
+        <v>444</v>
       </c>
     </row>
     <row r="71">
@@ -12310,7 +12995,7 @@
         <v>307</v>
       </c>
       <c r="Y71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72">
@@ -12318,7 +13003,7 @@
         <v>412</v>
       </c>
       <c r="Y72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73">
@@ -12326,7 +13011,7 @@
         <v>264</v>
       </c>
       <c r="Y73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74">
@@ -12334,7 +13019,7 @@
         <v>534</v>
       </c>
       <c r="Y74" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75">
@@ -12342,7 +13027,7 @@
         <v>346</v>
       </c>
       <c r="Y75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76">
@@ -12350,7 +13035,7 @@
         <v>282</v>
       </c>
       <c r="Y76" t="s">
-        <v>455</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77">
@@ -12358,7 +13043,7 @@
         <v>288</v>
       </c>
       <c r="Y77" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78">
@@ -12366,7 +13051,7 @@
         <v>293</v>
       </c>
       <c r="Y78" t="s">
-        <v>89</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79">
@@ -12374,7 +13059,7 @@
         <v>418</v>
       </c>
       <c r="Y79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80">
@@ -12382,7 +13067,7 @@
         <v>334</v>
       </c>
       <c r="Y80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
@@ -12390,7 +13075,7 @@
         <v>272</v>
       </c>
       <c r="Y81" t="s">
-        <v>521</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82">
@@ -12398,7 +13083,7 @@
         <v>283</v>
       </c>
       <c r="Y82" t="s">
-        <v>92</v>
+        <v>521</v>
       </c>
     </row>
     <row r="83">
@@ -12406,7 +13091,7 @@
         <v>289</v>
       </c>
       <c r="Y83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84">
@@ -12414,256 +13099,264 @@
         <v>278</v>
       </c>
       <c r="Y84" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>273</v>
+        <v>555</v>
       </c>
       <c r="Y85" t="s">
-        <v>485</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="Y86" t="s">
-        <v>197</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="Y87" t="s">
-        <v>454</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y88" t="s">
-        <v>198</v>
+        <v>454</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="Y89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Y90" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Y91" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="Y92" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="Y93" t="s">
-        <v>431</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>280</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>438</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>532</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>95</v>
+        <v>535</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>536</v>
+        <v>95</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>384</v>
+        <v>536</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>96</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>445</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>109</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -43,15 +43,16 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8364" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8915" uniqueCount="568">
   <si>
     <t>description</t>
   </si>
@@ -1766,6 +1767,15 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1783,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="250" x14ac:knownFonts="1">
+  <fonts count="266" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3360,8 +3370,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="427">
+  <fills count="454">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5777,8 +5888,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="437">
+  <borders count="469">
     <border>
       <left/>
       <right/>
@@ -9704,6 +9968,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -10243,7 +10833,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="294">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11048,52 +11638,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="399" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="402" borderId="412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="412" fillId="402" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="405" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="416" fillId="405" fontId="236" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="408" borderId="420" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="420" fillId="408" fontId="237" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="411" borderId="424" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="424" fillId="411" fontId="238" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="414" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="414" fontId="240" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="417" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="428" fillId="417" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="408" borderId="432" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="432" fillId="408" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="420" borderId="436" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="436" fillId="420" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="420" borderId="436" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="436" fillId="420" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="426" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="426" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="429" borderId="444" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="432" borderId="448" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="435" borderId="452" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="438" borderId="456" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="444" borderId="460" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="435" borderId="464" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="447" borderId="468" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="447" borderId="468" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11446,7 +12084,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -11535,21 +12173,24 @@
         <v>397</v>
       </c>
       <c r="Y1" t="s">
+        <v>565</v>
+      </c>
+      <c r="Z1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>415</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -11627,21 +12268,24 @@
         <v>398</v>
       </c>
       <c r="Y2" t="s">
+        <v>567</v>
+      </c>
+      <c r="Z2" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>117</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>122</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>131</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>432</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>516</v>
       </c>
     </row>
@@ -11712,22 +12356,22 @@
       <c r="X3" t="s">
         <v>399</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>118</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>123</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>365</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>130</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -11795,22 +12439,22 @@
       <c r="X4" t="s">
         <v>400</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>355</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>119</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>124</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>130</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>433</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -11869,22 +12513,22 @@
       <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>356</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>120</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>125</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>132</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>434</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -11937,22 +12581,22 @@
       <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>446</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>126</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>133</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>435</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -11999,22 +12643,22 @@
       <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>46</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>447</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>127</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>134</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>436</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>559</v>
       </c>
     </row>
@@ -12055,22 +12699,22 @@
       <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>47</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>121</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>128</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>135</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>437</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>560</v>
       </c>
     </row>
@@ -12111,13 +12755,13 @@
       <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>206</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>179</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>561</v>
       </c>
     </row>
@@ -12152,13 +12796,13 @@
       <c r="T10" t="s">
         <v>410</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>259</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>180</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -12190,13 +12834,13 @@
       <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>261</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -12228,13 +12872,13 @@
       <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>48</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>136</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -12263,13 +12907,13 @@
       <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>328</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>137</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>475</v>
       </c>
     </row>
@@ -12298,13 +12942,13 @@
       <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>49</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>138</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>517</v>
       </c>
     </row>
@@ -12330,13 +12974,13 @@
       <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>50</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>139</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12362,13 +13006,13 @@
       <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>42</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>140</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>522</v>
       </c>
     </row>
@@ -12388,13 +13032,13 @@
       <c r="M17" t="s">
         <v>192</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>527</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>464</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>523</v>
       </c>
     </row>
@@ -12411,10 +13055,10 @@
       <c r="K18" t="s">
         <v>457</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>51</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>476</v>
       </c>
     </row>
@@ -12431,10 +13075,10 @@
       <c r="K19" t="s">
         <v>169</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>52</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>519</v>
       </c>
     </row>
@@ -12451,10 +13095,10 @@
       <c r="K20" t="s">
         <v>170</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>53</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>520</v>
       </c>
     </row>
@@ -12471,10 +13115,10 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>54</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>524</v>
       </c>
     </row>
@@ -12483,7 +13127,7 @@
         <v>414</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>566</v>
       </c>
       <c r="G22" t="s">
         <v>301</v>
@@ -12491,10 +13135,10 @@
       <c r="K22" t="s">
         <v>471</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>483</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -12503,7 +13147,7 @@
         <v>358</v>
       </c>
       <c r="E23" t="s">
-        <v>323</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>292</v>
@@ -12511,10 +13155,10 @@
       <c r="K23" t="s">
         <v>148</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>55</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>562</v>
       </c>
     </row>
@@ -12523,7 +13167,7 @@
         <v>397</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c r="G24" t="s">
         <v>281</v>
@@ -12531,19 +13175,19 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>56</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>565</v>
       </c>
       <c r="E25" t="s">
-        <v>450</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
         <v>154</v>
@@ -12551,19 +13195,19 @@
       <c r="K25" t="s">
         <v>549</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>57</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>450</v>
       </c>
       <c r="G26" t="s">
         <v>284</v>
@@ -12571,19 +13215,19 @@
       <c r="K26" t="s">
         <v>149</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>58</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
         <v>268</v>
@@ -12591,19 +13235,19 @@
       <c r="K27" t="s">
         <v>441</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>59</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>469</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
         <v>285</v>
@@ -12611,16 +13255,16 @@
       <c r="K28" t="s">
         <v>150</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>415</v>
+        <v>129</v>
       </c>
       <c r="E29" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G29" t="s">
         <v>286</v>
@@ -12628,117 +13272,123 @@
       <c r="K29" t="s">
         <v>151</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>415</v>
       </c>
       <c r="E30" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="G30" t="s">
         <v>213</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>228</v>
+      </c>
       <c r="E31" t="s">
-        <v>156</v>
+        <v>417</v>
       </c>
       <c r="G31" t="s">
         <v>277</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="G32" t="s">
         <v>287</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
         <v>533</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
         <v>262</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G35" t="s">
         <v>332</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G36" t="s">
         <v>310</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="G37" t="s">
         <v>263</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
         <v>311</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>152</v>
+      </c>
       <c r="G39" t="s">
         <v>269</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>553</v>
       </c>
     </row>
@@ -12746,7 +13396,7 @@
       <c r="G40" t="s">
         <v>155</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>394</v>
       </c>
     </row>
@@ -12754,7 +13404,7 @@
       <c r="G41" t="s">
         <v>212</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>67</v>
       </c>
     </row>
@@ -12762,7 +13412,7 @@
       <c r="G42" t="s">
         <v>291</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>68</v>
       </c>
     </row>
@@ -12770,7 +13420,7 @@
       <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>69</v>
       </c>
     </row>
@@ -12778,7 +13428,7 @@
       <c r="G44" t="s">
         <v>303</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>70</v>
       </c>
     </row>
@@ -12786,7 +13436,7 @@
       <c r="G45" t="s">
         <v>345</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>71</v>
       </c>
     </row>
@@ -12794,7 +13444,7 @@
       <c r="G46" t="s">
         <v>344</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>72</v>
       </c>
     </row>
@@ -12802,7 +13452,7 @@
       <c r="G47" t="s">
         <v>208</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>443</v>
       </c>
     </row>
@@ -12810,7 +13460,7 @@
       <c r="G48" t="s">
         <v>304</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -12818,7 +13468,7 @@
       <c r="G49" t="s">
         <v>341</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>73</v>
       </c>
     </row>
@@ -12826,7 +13476,7 @@
       <c r="G50" t="s">
         <v>369</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>558</v>
       </c>
     </row>
@@ -12834,7 +13484,7 @@
       <c r="G51" t="s">
         <v>305</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>74</v>
       </c>
     </row>
@@ -12842,7 +13492,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>75</v>
       </c>
     </row>
@@ -12850,7 +13500,7 @@
       <c r="G53" t="s">
         <v>333</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>76</v>
       </c>
     </row>
@@ -12858,7 +13508,7 @@
       <c r="G54" t="s">
         <v>270</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>484</v>
       </c>
     </row>
@@ -12866,7 +13516,7 @@
       <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>466</v>
       </c>
     </row>
@@ -12874,7 +13524,7 @@
       <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>77</v>
       </c>
     </row>
@@ -12882,7 +13532,7 @@
       <c r="G57" t="s">
         <v>296</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>348</v>
       </c>
     </row>
@@ -12890,7 +13540,7 @@
       <c r="G58" t="s">
         <v>306</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>460</v>
       </c>
     </row>
@@ -12898,7 +13548,7 @@
       <c r="G59" t="s">
         <v>315</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12906,7 +13556,7 @@
       <c r="G60" t="s">
         <v>339</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>79</v>
       </c>
     </row>
@@ -12914,7 +13564,7 @@
       <c r="G61" t="s">
         <v>312</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>80</v>
       </c>
     </row>
@@ -12922,7 +13572,7 @@
       <c r="G62" t="s">
         <v>313</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>81</v>
       </c>
     </row>
@@ -12930,7 +13580,7 @@
       <c r="G63" t="s">
         <v>370</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>82</v>
       </c>
     </row>
@@ -12938,7 +13588,7 @@
       <c r="G64" t="s">
         <v>371</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12946,7 +13596,7 @@
       <c r="G65" t="s">
         <v>347</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>84</v>
       </c>
     </row>
@@ -12954,7 +13604,7 @@
       <c r="G66" t="s">
         <v>316</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>439</v>
       </c>
     </row>
@@ -12962,7 +13612,7 @@
       <c r="G67" t="s">
         <v>271</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>474</v>
       </c>
     </row>
@@ -12970,7 +13620,7 @@
       <c r="G68" t="s">
         <v>554</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -12978,7 +13628,7 @@
       <c r="G69" t="s">
         <v>317</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>390</v>
       </c>
     </row>
@@ -12986,7 +13636,7 @@
       <c r="G70" t="s">
         <v>411</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>444</v>
       </c>
     </row>
@@ -12994,7 +13644,7 @@
       <c r="G71" t="s">
         <v>307</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>85</v>
       </c>
     </row>
@@ -13002,7 +13652,7 @@
       <c r="G72" t="s">
         <v>412</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>86</v>
       </c>
     </row>
@@ -13010,7 +13660,7 @@
       <c r="G73" t="s">
         <v>264</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>87</v>
       </c>
     </row>
@@ -13018,7 +13668,7 @@
       <c r="G74" t="s">
         <v>534</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>88</v>
       </c>
     </row>
@@ -13026,7 +13676,7 @@
       <c r="G75" t="s">
         <v>346</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>194</v>
       </c>
     </row>
@@ -13034,7 +13684,7 @@
       <c r="G76" t="s">
         <v>282</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>195</v>
       </c>
     </row>
@@ -13042,7 +13692,7 @@
       <c r="G77" t="s">
         <v>288</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>455</v>
       </c>
     </row>
@@ -13050,7 +13700,7 @@
       <c r="G78" t="s">
         <v>293</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>468</v>
       </c>
     </row>
@@ -13058,7 +13708,7 @@
       <c r="G79" t="s">
         <v>418</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>89</v>
       </c>
     </row>
@@ -13066,7 +13716,7 @@
       <c r="G80" t="s">
         <v>334</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>90</v>
       </c>
     </row>
@@ -13074,7 +13724,7 @@
       <c r="G81" t="s">
         <v>272</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13082,7 +13732,7 @@
       <c r="G82" t="s">
         <v>283</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>521</v>
       </c>
     </row>
@@ -13090,7 +13740,7 @@
       <c r="G83" t="s">
         <v>289</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>92</v>
       </c>
     </row>
@@ -13098,7 +13748,7 @@
       <c r="G84" t="s">
         <v>278</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>93</v>
       </c>
     </row>
@@ -13106,7 +13756,7 @@
       <c r="G85" t="s">
         <v>555</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>196</v>
       </c>
     </row>
@@ -13114,7 +13764,7 @@
       <c r="G86" t="s">
         <v>273</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>485</v>
       </c>
     </row>
@@ -13122,7 +13772,7 @@
       <c r="G87" t="s">
         <v>290</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>197</v>
       </c>
     </row>
@@ -13130,7 +13780,7 @@
       <c r="G88" t="s">
         <v>274</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>454</v>
       </c>
     </row>
@@ -13138,7 +13788,7 @@
       <c r="G89" t="s">
         <v>275</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>198</v>
       </c>
     </row>
@@ -13146,7 +13796,7 @@
       <c r="G90" t="s">
         <v>308</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>199</v>
       </c>
     </row>
@@ -13154,7 +13804,7 @@
       <c r="G91" t="s">
         <v>314</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -13162,7 +13812,7 @@
       <c r="G92" t="s">
         <v>297</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>94</v>
       </c>
     </row>
@@ -13170,7 +13820,7 @@
       <c r="G93" t="s">
         <v>342</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>200</v>
       </c>
     </row>
@@ -13178,7 +13828,7 @@
       <c r="G94" t="s">
         <v>279</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>431</v>
       </c>
     </row>
@@ -13186,177 +13836,177 @@
       <c r="G95" t="s">
         <v>280</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -23,7 +23,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8915" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9468" uniqueCount="570">
   <si>
     <t>description</t>
   </si>
@@ -1776,6 +1776,12 @@
   </si>
   <si>
     <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1789,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="266" x14ac:knownFonts="1">
+  <fonts count="282" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3471,8 +3477,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="454">
+  <fills count="481">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6041,8 +6148,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="469">
+  <borders count="501">
     <border>
       <left/>
       <right/>
@@ -9968,6 +10228,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -10833,7 +11419,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="310">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11686,52 +12272,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="426" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="429" borderId="444" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="444" fillId="429" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="432" borderId="448" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="448" fillId="432" fontId="252" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="435" borderId="452" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="452" fillId="435" fontId="253" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="438" borderId="456" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="456" fillId="438" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="256" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="444" borderId="460" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="460" fillId="444" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="435" borderId="464" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="464" fillId="435" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="447" borderId="468" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="468" fillId="447" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="447" borderId="468" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="468" fillId="447" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="438" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="438" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="453" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="456" borderId="476" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="459" borderId="480" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="462" borderId="484" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="465" borderId="488" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="471" borderId="492" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="462" borderId="496" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="474" borderId="500" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="474" borderId="500" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="465" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="465" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="480" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13410,7 +14044,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>291</v>
+        <v>568</v>
       </c>
       <c r="Z42" t="s">
         <v>68</v>
@@ -13418,7 +14052,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="Z43" t="s">
         <v>69</v>
@@ -13426,7 +14060,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Z44" t="s">
         <v>70</v>
@@ -13434,7 +14068,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="Z45" t="s">
         <v>71</v>
@@ -13442,7 +14076,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z46" t="s">
         <v>72</v>
@@ -13450,7 +14084,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="Z47" t="s">
         <v>443</v>
@@ -13458,7 +14092,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>304</v>
+        <v>208</v>
       </c>
       <c r="Z48" t="s">
         <v>214</v>
@@ -13466,7 +14100,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="Z49" t="s">
         <v>73</v>
@@ -13474,7 +14108,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="Z50" t="s">
         <v>558</v>
@@ -13482,7 +14116,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="Z51" t="s">
         <v>74</v>
@@ -13490,7 +14124,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="Z52" t="s">
         <v>75</v>
@@ -13498,7 +14132,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="Z53" t="s">
         <v>76</v>
@@ -13506,7 +14140,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="Z54" t="s">
         <v>484</v>
@@ -13514,7 +14148,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="Z55" t="s">
         <v>466</v>
@@ -13522,7 +14156,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z56" t="s">
         <v>77</v>
@@ -13530,7 +14164,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Z57" t="s">
         <v>348</v>
@@ -13538,7 +14172,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>306</v>
+        <v>569</v>
       </c>
       <c r="Z58" t="s">
         <v>460</v>
@@ -13546,7 +14180,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="Z59" t="s">
         <v>78</v>
@@ -13554,7 +14188,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="Z60" t="s">
         <v>79</v>
@@ -13562,7 +14196,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Z61" t="s">
         <v>80</v>
@@ -13570,7 +14204,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="Z62" t="s">
         <v>81</v>
@@ -13578,7 +14212,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="Z63" t="s">
         <v>82</v>
@@ -13586,7 +14220,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>371</v>
+        <v>313</v>
       </c>
       <c r="Z64" t="s">
         <v>83</v>
@@ -13594,7 +14228,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="Z65" t="s">
         <v>84</v>
@@ -13602,7 +14236,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>316</v>
+        <v>371</v>
       </c>
       <c r="Z66" t="s">
         <v>439</v>
@@ -13610,7 +14244,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="Z67" t="s">
         <v>474</v>
@@ -13618,7 +14252,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>554</v>
+        <v>316</v>
       </c>
       <c r="Z68" t="s">
         <v>215</v>
@@ -13626,7 +14260,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="Z69" t="s">
         <v>390</v>
@@ -13634,7 +14268,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>411</v>
+        <v>554</v>
       </c>
       <c r="Z70" t="s">
         <v>444</v>
@@ -13642,7 +14276,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="Z71" t="s">
         <v>85</v>
@@ -13650,7 +14284,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z72" t="s">
         <v>86</v>
@@ -13658,7 +14292,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="Z73" t="s">
         <v>87</v>
@@ -13666,7 +14300,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>534</v>
+        <v>412</v>
       </c>
       <c r="Z74" t="s">
         <v>88</v>
@@ -13674,7 +14308,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>346</v>
+        <v>264</v>
       </c>
       <c r="Z75" t="s">
         <v>194</v>
@@ -13682,7 +14316,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>282</v>
+        <v>534</v>
       </c>
       <c r="Z76" t="s">
         <v>195</v>
@@ -13690,7 +14324,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="Z77" t="s">
         <v>455</v>
@@ -13698,7 +14332,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="Z78" t="s">
         <v>468</v>
@@ -13706,7 +14340,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>418</v>
+        <v>288</v>
       </c>
       <c r="Z79" t="s">
         <v>89</v>
@@ -13714,7 +14348,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="Z80" t="s">
         <v>90</v>
@@ -13722,7 +14356,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>272</v>
+        <v>418</v>
       </c>
       <c r="Z81" t="s">
         <v>91</v>
@@ -13730,7 +14364,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="Z82" t="s">
         <v>521</v>
@@ -13738,7 +14372,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Z83" t="s">
         <v>92</v>
@@ -13746,7 +14380,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Z84" t="s">
         <v>93</v>
@@ -13754,7 +14388,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>555</v>
+        <v>289</v>
       </c>
       <c r="Z85" t="s">
         <v>196</v>
@@ -13762,7 +14396,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Z86" t="s">
         <v>485</v>
@@ -13770,7 +14404,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>290</v>
+        <v>555</v>
       </c>
       <c r="Z87" t="s">
         <v>197</v>
@@ -13778,7 +14412,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z88" t="s">
         <v>454</v>
@@ -13786,7 +14420,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="Z89" t="s">
         <v>198</v>
@@ -13794,7 +14428,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="Z90" t="s">
         <v>199</v>
@@ -13802,7 +14436,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="Z91" t="s">
         <v>216</v>
@@ -13810,7 +14444,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="Z92" t="s">
         <v>94</v>
@@ -13818,7 +14452,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="Z93" t="s">
         <v>200</v>
@@ -13826,7 +14460,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="Z94" t="s">
         <v>431</v>
@@ -13834,18 +14468,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>280</v>
+        <v>342</v>
       </c>
       <c r="Z95" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>279</v>
+      </c>
       <c r="Z96" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>280</v>
+      </c>
       <c r="Z97" t="s">
         <v>202</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -29,7 +29,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -43,13 +43,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9468" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10019" uniqueCount="571">
   <si>
     <t>description</t>
   </si>
@@ -1782,6 +1782,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1792,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="282" x14ac:knownFonts="1">
+  <fonts count="298" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3578,8 +3581,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="481">
+  <fills count="508">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6301,8 +6405,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="501">
+  <borders count="533">
     <border>
       <left/>
       <right/>
@@ -10228,6 +10485,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -11419,7 +12002,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="326">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12320,52 +12903,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="453" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="456" borderId="476" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="476" fillId="456" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="459" borderId="480" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="480" fillId="459" fontId="268" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="462" borderId="484" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="484" fillId="462" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="465" borderId="488" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="488" fillId="465" fontId="270" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="271" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="468" fontId="272" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="471" borderId="492" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="492" fillId="471" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="462" borderId="496" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="496" fillId="462" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="474" borderId="500" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="500" fillId="474" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="474" borderId="500" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="500" fillId="474" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="465" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="465" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="465" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="465" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="480" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="480" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="483" borderId="508" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="486" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="489" borderId="516" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="492" borderId="520" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="498" borderId="524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="489" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="501" borderId="532" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="501" borderId="532" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="507" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12718,7 +13349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -12807,24 +13438,21 @@
         <v>397</v>
       </c>
       <c r="Y1" t="s">
-        <v>565</v>
+        <v>30</v>
       </c>
       <c r="Z1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB1" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="AC1" t="s">
-        <v>129</v>
+        <v>415</v>
       </c>
       <c r="AD1" t="s">
-        <v>415</v>
-      </c>
-      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -12902,24 +13530,21 @@
         <v>398</v>
       </c>
       <c r="Y2" t="s">
-        <v>567</v>
+        <v>43</v>
       </c>
       <c r="Z2" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="AA2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AB2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AC2" t="s">
-        <v>131</v>
+        <v>432</v>
       </c>
       <c r="AD2" t="s">
-        <v>432</v>
-      </c>
-      <c r="AE2" t="s">
         <v>516</v>
       </c>
     </row>
@@ -12990,22 +13615,22 @@
       <c r="X3" t="s">
         <v>399</v>
       </c>
+      <c r="Y3" t="s">
+        <v>44</v>
+      </c>
       <c r="Z3" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="AA3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AB3" t="s">
-        <v>123</v>
+        <v>365</v>
       </c>
       <c r="AC3" t="s">
-        <v>365</v>
+        <v>130</v>
       </c>
       <c r="AD3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -13073,22 +13698,22 @@
       <c r="X4" t="s">
         <v>400</v>
       </c>
+      <c r="Y4" t="s">
+        <v>355</v>
+      </c>
       <c r="Z4" t="s">
-        <v>355</v>
+        <v>119</v>
       </c>
       <c r="AA4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AB4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AC4" t="s">
-        <v>130</v>
+        <v>433</v>
       </c>
       <c r="AD4" t="s">
-        <v>433</v>
-      </c>
-      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -13147,22 +13772,22 @@
       <c r="W5" t="s">
         <v>360</v>
       </c>
+      <c r="Y5" t="s">
+        <v>356</v>
+      </c>
       <c r="Z5" t="s">
-        <v>356</v>
+        <v>120</v>
       </c>
       <c r="AA5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AC5" t="s">
-        <v>132</v>
+        <v>434</v>
       </c>
       <c r="AD5" t="s">
-        <v>434</v>
-      </c>
-      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -13215,22 +13840,22 @@
       <c r="W6" t="s">
         <v>362</v>
       </c>
+      <c r="Y6" t="s">
+        <v>45</v>
+      </c>
       <c r="Z6" t="s">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="AA6" t="s">
-        <v>446</v>
+        <v>126</v>
       </c>
       <c r="AB6" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AC6" t="s">
-        <v>133</v>
+        <v>435</v>
       </c>
       <c r="AD6" t="s">
-        <v>435</v>
-      </c>
-      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -13277,22 +13902,22 @@
       <c r="W7" t="s">
         <v>361</v>
       </c>
+      <c r="Y7" t="s">
+        <v>46</v>
+      </c>
       <c r="Z7" t="s">
-        <v>46</v>
+        <v>447</v>
       </c>
       <c r="AA7" t="s">
-        <v>447</v>
+        <v>127</v>
       </c>
       <c r="AB7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AC7" t="s">
-        <v>134</v>
+        <v>436</v>
       </c>
       <c r="AD7" t="s">
-        <v>436</v>
-      </c>
-      <c r="AE7" t="s">
         <v>559</v>
       </c>
     </row>
@@ -13333,22 +13958,22 @@
       <c r="W8" t="s">
         <v>363</v>
       </c>
+      <c r="Y8" t="s">
+        <v>47</v>
+      </c>
       <c r="Z8" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AA8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AB8" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AC8" t="s">
-        <v>135</v>
+        <v>437</v>
       </c>
       <c r="AD8" t="s">
-        <v>437</v>
-      </c>
-      <c r="AE8" t="s">
         <v>560</v>
       </c>
     </row>
@@ -13389,13 +14014,13 @@
       <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>206</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>179</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>561</v>
       </c>
     </row>
@@ -13430,13 +14055,13 @@
       <c r="T10" t="s">
         <v>410</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>259</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>180</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -13468,13 +14093,13 @@
       <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>261</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -13506,13 +14131,13 @@
       <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>48</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>136</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -13541,13 +14166,13 @@
       <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>328</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>137</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>475</v>
       </c>
     </row>
@@ -13576,13 +14201,13 @@
       <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>49</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>138</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>517</v>
       </c>
     </row>
@@ -13608,13 +14233,13 @@
       <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>50</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>139</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>518</v>
       </c>
     </row>
@@ -13632,7 +14257,7 @@
         <v>167</v>
       </c>
       <c r="M16" t="s">
-        <v>191</v>
+        <v>570</v>
       </c>
       <c r="Q16" t="s">
         <v>526</v>
@@ -13640,13 +14265,13 @@
       <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>42</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>140</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>522</v>
       </c>
     </row>
@@ -13664,15 +14289,15 @@
         <v>168</v>
       </c>
       <c r="M17" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y17" t="s">
         <v>527</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>464</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>523</v>
       </c>
     </row>
@@ -13689,10 +14314,13 @@
       <c r="K18" t="s">
         <v>457</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y18" t="s">
         <v>51</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>476</v>
       </c>
     </row>
@@ -13709,10 +14337,10 @@
       <c r="K19" t="s">
         <v>169</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>52</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>519</v>
       </c>
     </row>
@@ -13729,10 +14357,10 @@
       <c r="K20" t="s">
         <v>170</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>53</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>520</v>
       </c>
     </row>
@@ -13749,10 +14377,10 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>54</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>524</v>
       </c>
     </row>
@@ -13769,10 +14397,10 @@
       <c r="K22" t="s">
         <v>471</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>483</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -13789,10 +14417,10 @@
       <c r="K23" t="s">
         <v>148</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>55</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>562</v>
       </c>
     </row>
@@ -13809,16 +14437,16 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>56</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>565</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
@@ -13829,16 +14457,16 @@
       <c r="K25" t="s">
         <v>549</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>57</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
         <v>450</v>
@@ -13849,16 +14477,16 @@
       <c r="K26" t="s">
         <v>149</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>58</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
         <v>226</v>
@@ -13869,16 +14497,16 @@
       <c r="K27" t="s">
         <v>441</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>59</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
         <v>227</v>
@@ -13889,13 +14517,13 @@
       <c r="K28" t="s">
         <v>150</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>415</v>
       </c>
       <c r="E29" t="s">
         <v>469</v>
@@ -13906,13 +14534,13 @@
       <c r="K29" t="s">
         <v>151</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>415</v>
+        <v>228</v>
       </c>
       <c r="E30" t="s">
         <v>470</v>
@@ -13920,21 +14548,18 @@
       <c r="G30" t="s">
         <v>213</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>228</v>
-      </c>
       <c r="E31" t="s">
         <v>417</v>
       </c>
       <c r="G31" t="s">
         <v>277</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13945,7 +14570,7 @@
       <c r="G32" t="s">
         <v>287</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>63</v>
       </c>
     </row>
@@ -13956,7 +14581,7 @@
       <c r="G33" t="s">
         <v>533</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>64</v>
       </c>
     </row>
@@ -13967,7 +14592,7 @@
       <c r="G34" t="s">
         <v>262</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>65</v>
       </c>
     </row>
@@ -13978,7 +14603,7 @@
       <c r="G35" t="s">
         <v>332</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>207</v>
       </c>
     </row>
@@ -13989,7 +14614,7 @@
       <c r="G36" t="s">
         <v>310</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>66</v>
       </c>
     </row>
@@ -14000,7 +14625,7 @@
       <c r="G37" t="s">
         <v>263</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>340</v>
       </c>
     </row>
@@ -14011,7 +14636,7 @@
       <c r="G38" t="s">
         <v>311</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>430</v>
       </c>
     </row>
@@ -14022,7 +14647,7 @@
       <c r="G39" t="s">
         <v>269</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>553</v>
       </c>
     </row>
@@ -14030,7 +14655,7 @@
       <c r="G40" t="s">
         <v>155</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>394</v>
       </c>
     </row>
@@ -14038,7 +14663,7 @@
       <c r="G41" t="s">
         <v>212</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>67</v>
       </c>
     </row>
@@ -14046,7 +14671,7 @@
       <c r="G42" t="s">
         <v>568</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>68</v>
       </c>
     </row>
@@ -14054,7 +14679,7 @@
       <c r="G43" t="s">
         <v>291</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>69</v>
       </c>
     </row>
@@ -14062,7 +14687,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>70</v>
       </c>
     </row>
@@ -14070,7 +14695,7 @@
       <c r="G45" t="s">
         <v>303</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>71</v>
       </c>
     </row>
@@ -14078,7 +14703,7 @@
       <c r="G46" t="s">
         <v>345</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>72</v>
       </c>
     </row>
@@ -14086,7 +14711,7 @@
       <c r="G47" t="s">
         <v>344</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>443</v>
       </c>
     </row>
@@ -14094,7 +14719,7 @@
       <c r="G48" t="s">
         <v>208</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -14102,7 +14727,7 @@
       <c r="G49" t="s">
         <v>304</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>73</v>
       </c>
     </row>
@@ -14110,7 +14735,7 @@
       <c r="G50" t="s">
         <v>341</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>558</v>
       </c>
     </row>
@@ -14118,7 +14743,7 @@
       <c r="G51" t="s">
         <v>369</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>74</v>
       </c>
     </row>
@@ -14126,7 +14751,7 @@
       <c r="G52" t="s">
         <v>305</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>75</v>
       </c>
     </row>
@@ -14134,7 +14759,7 @@
       <c r="G53" t="s">
         <v>357</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>76</v>
       </c>
     </row>
@@ -14142,7 +14767,7 @@
       <c r="G54" t="s">
         <v>333</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>484</v>
       </c>
     </row>
@@ -14150,7 +14775,7 @@
       <c r="G55" t="s">
         <v>270</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>466</v>
       </c>
     </row>
@@ -14158,7 +14783,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>77</v>
       </c>
     </row>
@@ -14166,7 +14791,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>348</v>
       </c>
     </row>
@@ -14174,7 +14799,7 @@
       <c r="G58" t="s">
         <v>569</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>460</v>
       </c>
     </row>
@@ -14182,7 +14807,7 @@
       <c r="G59" t="s">
         <v>296</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>78</v>
       </c>
     </row>
@@ -14190,7 +14815,7 @@
       <c r="G60" t="s">
         <v>306</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>79</v>
       </c>
     </row>
@@ -14198,7 +14823,7 @@
       <c r="G61" t="s">
         <v>315</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>80</v>
       </c>
     </row>
@@ -14206,7 +14831,7 @@
       <c r="G62" t="s">
         <v>339</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>81</v>
       </c>
     </row>
@@ -14214,7 +14839,7 @@
       <c r="G63" t="s">
         <v>312</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>82</v>
       </c>
     </row>
@@ -14222,7 +14847,7 @@
       <c r="G64" t="s">
         <v>313</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>83</v>
       </c>
     </row>
@@ -14230,7 +14855,7 @@
       <c r="G65" t="s">
         <v>370</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>84</v>
       </c>
     </row>
@@ -14238,7 +14863,7 @@
       <c r="G66" t="s">
         <v>371</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>439</v>
       </c>
     </row>
@@ -14246,7 +14871,7 @@
       <c r="G67" t="s">
         <v>347</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>474</v>
       </c>
     </row>
@@ -14254,7 +14879,7 @@
       <c r="G68" t="s">
         <v>316</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -14262,7 +14887,7 @@
       <c r="G69" t="s">
         <v>271</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>390</v>
       </c>
     </row>
@@ -14270,7 +14895,7 @@
       <c r="G70" t="s">
         <v>554</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>444</v>
       </c>
     </row>
@@ -14278,7 +14903,7 @@
       <c r="G71" t="s">
         <v>317</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>85</v>
       </c>
     </row>
@@ -14286,7 +14911,7 @@
       <c r="G72" t="s">
         <v>411</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>86</v>
       </c>
     </row>
@@ -14294,7 +14919,7 @@
       <c r="G73" t="s">
         <v>307</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>87</v>
       </c>
     </row>
@@ -14302,7 +14927,7 @@
       <c r="G74" t="s">
         <v>412</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>88</v>
       </c>
     </row>
@@ -14310,7 +14935,7 @@
       <c r="G75" t="s">
         <v>264</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>194</v>
       </c>
     </row>
@@ -14318,7 +14943,7 @@
       <c r="G76" t="s">
         <v>534</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>195</v>
       </c>
     </row>
@@ -14326,7 +14951,7 @@
       <c r="G77" t="s">
         <v>346</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>455</v>
       </c>
     </row>
@@ -14334,7 +14959,7 @@
       <c r="G78" t="s">
         <v>282</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>468</v>
       </c>
     </row>
@@ -14342,7 +14967,7 @@
       <c r="G79" t="s">
         <v>288</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>89</v>
       </c>
     </row>
@@ -14350,7 +14975,7 @@
       <c r="G80" t="s">
         <v>293</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>90</v>
       </c>
     </row>
@@ -14358,7 +14983,7 @@
       <c r="G81" t="s">
         <v>418</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>91</v>
       </c>
     </row>
@@ -14366,7 +14991,7 @@
       <c r="G82" t="s">
         <v>334</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>521</v>
       </c>
     </row>
@@ -14374,7 +14999,7 @@
       <c r="G83" t="s">
         <v>272</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14382,7 +15007,7 @@
       <c r="G84" t="s">
         <v>283</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>93</v>
       </c>
     </row>
@@ -14390,7 +15015,7 @@
       <c r="G85" t="s">
         <v>289</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>196</v>
       </c>
     </row>
@@ -14398,7 +15023,7 @@
       <c r="G86" t="s">
         <v>278</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>485</v>
       </c>
     </row>
@@ -14406,7 +15031,7 @@
       <c r="G87" t="s">
         <v>555</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>197</v>
       </c>
     </row>
@@ -14414,7 +15039,7 @@
       <c r="G88" t="s">
         <v>273</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>454</v>
       </c>
     </row>
@@ -14422,7 +15047,7 @@
       <c r="G89" t="s">
         <v>290</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>198</v>
       </c>
     </row>
@@ -14430,7 +15055,7 @@
       <c r="G90" t="s">
         <v>274</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>199</v>
       </c>
     </row>
@@ -14438,7 +15063,7 @@
       <c r="G91" t="s">
         <v>275</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -14446,7 +15071,7 @@
       <c r="G92" t="s">
         <v>308</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>94</v>
       </c>
     </row>
@@ -14454,7 +15079,7 @@
       <c r="G93" t="s">
         <v>314</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>200</v>
       </c>
     </row>
@@ -14462,7 +15087,7 @@
       <c r="G94" t="s">
         <v>297</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>431</v>
       </c>
     </row>
@@ -14470,7 +15095,7 @@
       <c r="G95" t="s">
         <v>342</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>438</v>
       </c>
     </row>
@@ -14478,7 +15103,7 @@
       <c r="G96" t="s">
         <v>279</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>201</v>
       </c>
     </row>
@@ -14486,167 +15111,167 @@
       <c r="G97" t="s">
         <v>280</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10019" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12790" uniqueCount="575">
   <si>
     <t>description</t>
   </si>
@@ -1785,6 +1785,18 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1792,7 +1804,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="298" x14ac:knownFonts="1">
+  <fonts count="378" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3682,8 +3694,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="508">
+  <fills count="643">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6558,8 +7075,773 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="533">
+  <borders count="693">
     <border>
       <left/>
       <right/>
@@ -10485,6 +11767,1636 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -12002,7 +14914,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="406">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12951,52 +15863,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="480" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="483" borderId="508" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="508" fillId="483" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="486" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="512" fillId="486" fontId="284" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="489" borderId="516" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="516" fillId="489" fontId="285" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="492" borderId="520" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="520" fillId="492" fontId="286" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="495" fontId="288" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="498" borderId="524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="524" fillId="498" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="489" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="528" fillId="489" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="501" borderId="532" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="532" fillId="501" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="501" borderId="532" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="532" fillId="501" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="492" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="492" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="507" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="507" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="540" fillId="510" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="544" fillId="513" fontId="300" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="548" fillId="516" fontId="301" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="552" fillId="519" fontId="302" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="303" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="522" fontId="304" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="556" fillId="525" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="560" fillId="516" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="564" fillId="528" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="564" fillId="528" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="519" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="519" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="534" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="572" fillId="537" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="315" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="576" fillId="540" fontId="316" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="580" fillId="543" fontId="317" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="584" fillId="546" fontId="318" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="319" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="320" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="321" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="588" fillId="552" fontId="322" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="592" fillId="543" fontId="323" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="596" fillId="555" fontId="324" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="596" fillId="555" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="546" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="546" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="561" fontId="329" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="604" fillId="564" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="608" fillId="567" fontId="332" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="612" fillId="570" fontId="333" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="616" fillId="573" fontId="334" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="335" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="336" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="337" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="620" fillId="579" fontId="338" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="624" fillId="570" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="628" fillId="582" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="628" fillId="582" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="573" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="573" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="588" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="636" fillId="591" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="640" fillId="594" fontId="348" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="644" fillId="597" fontId="349" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="648" fillId="600" fontId="350" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="351" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="352" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="353" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="652" fillId="606" fontId="354" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="656" fillId="597" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="660" fillId="609" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="660" fillId="609" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="600" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="600" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="615" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="618" borderId="668" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="621" borderId="672" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="624" borderId="676" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="627" borderId="680" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="633" borderId="684" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="624" borderId="688" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="636" borderId="692" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="636" borderId="692" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="642" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13349,7 +16501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -14438,7 +17590,7 @@
         <v>393</v>
       </c>
       <c r="Y24" t="s">
-        <v>56</v>
+        <v>571</v>
       </c>
       <c r="AD24" t="s">
         <v>563</v>
@@ -14458,7 +17610,7 @@
         <v>549</v>
       </c>
       <c r="Y25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD25" t="s">
         <v>564</v>
@@ -14478,7 +17630,7 @@
         <v>149</v>
       </c>
       <c r="Y26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD26" t="s">
         <v>237</v>
@@ -14498,7 +17650,7 @@
         <v>441</v>
       </c>
       <c r="Y27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD27" t="s">
         <v>238</v>
@@ -14518,7 +17670,7 @@
         <v>150</v>
       </c>
       <c r="Y28" t="s">
-        <v>329</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
@@ -14535,7 +17687,7 @@
         <v>151</v>
       </c>
       <c r="Y29" t="s">
-        <v>60</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30">
@@ -14549,7 +17701,7 @@
         <v>213</v>
       </c>
       <c r="Y30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -14560,7 +17712,7 @@
         <v>277</v>
       </c>
       <c r="Y31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
@@ -14571,7 +17723,7 @@
         <v>287</v>
       </c>
       <c r="Y32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
@@ -14582,7 +17734,7 @@
         <v>533</v>
       </c>
       <c r="Y33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34">
@@ -14593,7 +17745,7 @@
         <v>262</v>
       </c>
       <c r="Y34" t="s">
-        <v>65</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35">
@@ -14604,7 +17756,7 @@
         <v>332</v>
       </c>
       <c r="Y35" t="s">
-        <v>207</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36">
@@ -14615,7 +17767,7 @@
         <v>310</v>
       </c>
       <c r="Y36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
@@ -14626,7 +17778,7 @@
         <v>263</v>
       </c>
       <c r="Y37" t="s">
-        <v>340</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38">
@@ -14637,7 +17789,7 @@
         <v>311</v>
       </c>
       <c r="Y38" t="s">
-        <v>430</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39">
@@ -14648,7 +17800,7 @@
         <v>269</v>
       </c>
       <c r="Y39" t="s">
-        <v>553</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40">
@@ -14656,7 +17808,7 @@
         <v>155</v>
       </c>
       <c r="Y40" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41">
@@ -14664,7 +17816,7 @@
         <v>212</v>
       </c>
       <c r="Y41" t="s">
-        <v>67</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42">
@@ -14672,7 +17824,7 @@
         <v>568</v>
       </c>
       <c r="Y42" t="s">
-        <v>68</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43">
@@ -14680,7 +17832,7 @@
         <v>291</v>
       </c>
       <c r="Y43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44">
@@ -14688,7 +17840,7 @@
         <v>302</v>
       </c>
       <c r="Y44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45">
@@ -14696,7 +17848,7 @@
         <v>303</v>
       </c>
       <c r="Y45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
@@ -14704,7 +17856,7 @@
         <v>345</v>
       </c>
       <c r="Y46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
@@ -14712,7 +17864,7 @@
         <v>344</v>
       </c>
       <c r="Y47" t="s">
-        <v>443</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48">
@@ -14720,7 +17872,7 @@
         <v>208</v>
       </c>
       <c r="Y48" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49">
@@ -14728,7 +17880,7 @@
         <v>304</v>
       </c>
       <c r="Y49" t="s">
-        <v>73</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50">
@@ -14736,7 +17888,7 @@
         <v>341</v>
       </c>
       <c r="Y50" t="s">
-        <v>558</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51">
@@ -14744,7 +17896,7 @@
         <v>369</v>
       </c>
       <c r="Y51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52">
@@ -14752,7 +17904,7 @@
         <v>305</v>
       </c>
       <c r="Y52" t="s">
-        <v>75</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53">
@@ -14760,7 +17912,7 @@
         <v>357</v>
       </c>
       <c r="Y53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
@@ -14768,7 +17920,7 @@
         <v>333</v>
       </c>
       <c r="Y54" t="s">
-        <v>484</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
@@ -14776,7 +17928,7 @@
         <v>270</v>
       </c>
       <c r="Y55" t="s">
-        <v>466</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56">
@@ -14784,7 +17936,7 @@
         <v>294</v>
       </c>
       <c r="Y56" t="s">
-        <v>77</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57">
@@ -14792,7 +17944,7 @@
         <v>295</v>
       </c>
       <c r="Y57" t="s">
-        <v>348</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58">
@@ -14800,7 +17952,7 @@
         <v>569</v>
       </c>
       <c r="Y58" t="s">
-        <v>460</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
@@ -14808,7 +17960,7 @@
         <v>296</v>
       </c>
       <c r="Y59" t="s">
-        <v>78</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60">
@@ -14816,7 +17968,7 @@
         <v>306</v>
       </c>
       <c r="Y60" t="s">
-        <v>79</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61">
@@ -14824,7 +17976,7 @@
         <v>315</v>
       </c>
       <c r="Y61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
@@ -14832,7 +17984,7 @@
         <v>339</v>
       </c>
       <c r="Y62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
@@ -14840,7 +17992,7 @@
         <v>312</v>
       </c>
       <c r="Y63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
@@ -14848,7 +18000,7 @@
         <v>313</v>
       </c>
       <c r="Y64" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65">
@@ -14856,7 +18008,7 @@
         <v>370</v>
       </c>
       <c r="Y65" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66">
@@ -14864,7 +18016,7 @@
         <v>371</v>
       </c>
       <c r="Y66" t="s">
-        <v>439</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67">
@@ -14872,7 +18024,7 @@
         <v>347</v>
       </c>
       <c r="Y67" t="s">
-        <v>474</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68">
@@ -14880,7 +18032,7 @@
         <v>316</v>
       </c>
       <c r="Y68" t="s">
-        <v>215</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69">
@@ -14888,7 +18040,7 @@
         <v>271</v>
       </c>
       <c r="Y69" t="s">
-        <v>390</v>
+        <v>474</v>
       </c>
     </row>
     <row r="70">
@@ -14896,7 +18048,7 @@
         <v>554</v>
       </c>
       <c r="Y70" t="s">
-        <v>444</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71">
@@ -14904,7 +18056,7 @@
         <v>317</v>
       </c>
       <c r="Y71" t="s">
-        <v>85</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72">
@@ -14912,7 +18064,7 @@
         <v>411</v>
       </c>
       <c r="Y72" t="s">
-        <v>86</v>
+        <v>444</v>
       </c>
     </row>
     <row r="73">
@@ -14920,7 +18072,7 @@
         <v>307</v>
       </c>
       <c r="Y73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74">
@@ -14928,7 +18080,7 @@
         <v>412</v>
       </c>
       <c r="Y74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75">
@@ -14936,7 +18088,7 @@
         <v>264</v>
       </c>
       <c r="Y75" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76">
@@ -14944,7 +18096,7 @@
         <v>534</v>
       </c>
       <c r="Y76" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77">
@@ -14952,7 +18104,7 @@
         <v>346</v>
       </c>
       <c r="Y77" t="s">
-        <v>455</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78">
@@ -14960,7 +18112,7 @@
         <v>282</v>
       </c>
       <c r="Y78" t="s">
-        <v>468</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79">
@@ -14968,7 +18120,7 @@
         <v>288</v>
       </c>
       <c r="Y79" t="s">
-        <v>89</v>
+        <v>455</v>
       </c>
     </row>
     <row r="80">
@@ -14976,7 +18128,7 @@
         <v>293</v>
       </c>
       <c r="Y80" t="s">
-        <v>90</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81">
@@ -14984,7 +18136,7 @@
         <v>418</v>
       </c>
       <c r="Y81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82">
@@ -14992,7 +18144,7 @@
         <v>334</v>
       </c>
       <c r="Y82" t="s">
-        <v>521</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
@@ -15000,7 +18152,7 @@
         <v>272</v>
       </c>
       <c r="Y83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84">
@@ -15008,7 +18160,7 @@
         <v>283</v>
       </c>
       <c r="Y84" t="s">
-        <v>93</v>
+        <v>521</v>
       </c>
     </row>
     <row r="85">
@@ -15016,7 +18168,7 @@
         <v>289</v>
       </c>
       <c r="Y85" t="s">
-        <v>196</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
@@ -15024,7 +18176,7 @@
         <v>278</v>
       </c>
       <c r="Y86" t="s">
-        <v>485</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87">
@@ -15032,7 +18184,7 @@
         <v>555</v>
       </c>
       <c r="Y87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88">
@@ -15040,7 +18192,7 @@
         <v>273</v>
       </c>
       <c r="Y88" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="89">
@@ -15048,7 +18200,7 @@
         <v>290</v>
       </c>
       <c r="Y89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90">
@@ -15056,7 +18208,7 @@
         <v>274</v>
       </c>
       <c r="Y90" t="s">
-        <v>199</v>
+        <v>454</v>
       </c>
     </row>
     <row r="91">
@@ -15064,7 +18216,7 @@
         <v>275</v>
       </c>
       <c r="Y91" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92">
@@ -15072,7 +18224,7 @@
         <v>308</v>
       </c>
       <c r="Y92" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
@@ -15080,7 +18232,7 @@
         <v>314</v>
       </c>
       <c r="Y93" t="s">
-        <v>200</v>
+        <v>574</v>
       </c>
     </row>
     <row r="94">
@@ -15088,7 +18240,7 @@
         <v>297</v>
       </c>
       <c r="Y94" t="s">
-        <v>431</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95">
@@ -15096,7 +18248,7 @@
         <v>342</v>
       </c>
       <c r="Y95" t="s">
-        <v>438</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
@@ -15104,7 +18256,7 @@
         <v>279</v>
       </c>
       <c r="Y96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97">
@@ -15112,166 +18264,186 @@
         <v>280</v>
       </c>
       <c r="Y97" t="s">
-        <v>202</v>
+        <v>431</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>532</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>535</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>384</v>
+        <v>535</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>97</v>
+        <v>536</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>98</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>445</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>111</v>
+        <v>445</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>27</v>
+        <v>573</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -23,7 +23,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12790" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13346" uniqueCount="577">
   <si>
     <t>description</t>
   </si>
@@ -1797,6 +1797,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1804,7 +1810,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="378" x14ac:knownFonts="1">
+  <fonts count="394" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4199,8 +4205,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="643">
+  <fills count="670">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7840,8 +7947,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="693">
+  <borders count="725">
     <border>
       <left/>
       <right/>
@@ -11767,6 +12027,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -14914,7 +15500,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="406">
+  <cellXfs count="422">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16103,52 +16689,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="615" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="618" borderId="668" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="668" fillId="618" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="621" borderId="672" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="672" fillId="621" fontId="364" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="624" borderId="676" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="676" fillId="624" fontId="365" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="627" borderId="680" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="680" fillId="627" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="367" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="368" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="633" borderId="684" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="684" fillId="633" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="624" borderId="688" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="688" fillId="624" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="636" borderId="692" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="692" fillId="636" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="636" borderId="692" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="692" fillId="636" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="627" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="627" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="642" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="642" fontId="377" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="645" borderId="700" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="648" borderId="704" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="651" borderId="708" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="654" borderId="712" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="657" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="660" borderId="716" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="651" borderId="720" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="663" borderId="724" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="663" borderId="724" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="654" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="654" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="669" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16886,7 +17520,7 @@
         <v>440</v>
       </c>
       <c r="G5" t="s">
-        <v>338</v>
+        <v>575</v>
       </c>
       <c r="H5" t="s">
         <v>456</v>
@@ -16960,7 +17594,7 @@
         <v>528</v>
       </c>
       <c r="G6" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="H6" t="s">
         <v>449</v>
@@ -17022,7 +17656,7 @@
         <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="H7" t="s">
         <v>448</v>
@@ -17084,7 +17718,7 @@
         <v>321</v>
       </c>
       <c r="G8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H8" t="s">
         <v>330</v>
@@ -17140,7 +17774,7 @@
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>309</v>
+        <v>368</v>
       </c>
       <c r="H9" t="s">
         <v>331</v>
@@ -17184,7 +17818,7 @@
         <v>318</v>
       </c>
       <c r="G10" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="H10" t="s">
         <v>453</v>
@@ -17225,7 +17859,7 @@
         <v>257</v>
       </c>
       <c r="G11" t="s">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="H11" t="s">
         <v>324</v>
@@ -17263,7 +17897,7 @@
         <v>322</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="H12" t="s">
         <v>325</v>
@@ -17301,7 +17935,7 @@
         <v>343</v>
       </c>
       <c r="G13" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="H13" t="s">
         <v>326</v>
@@ -17336,7 +17970,7 @@
         <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="H14" t="s">
         <v>327</v>
@@ -17371,7 +18005,7 @@
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K15" t="s">
         <v>531</v>
@@ -17403,7 +18037,7 @@
         <v>386</v>
       </c>
       <c r="G16" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="K16" t="s">
         <v>167</v>
@@ -17435,7 +18069,7 @@
         <v>387</v>
       </c>
       <c r="G17" t="s">
-        <v>177</v>
+        <v>320</v>
       </c>
       <c r="K17" t="s">
         <v>168</v>
@@ -17461,7 +18095,7 @@
         <v>416</v>
       </c>
       <c r="G18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
         <v>457</v>
@@ -17484,7 +18118,7 @@
         <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>298</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
         <v>169</v>
@@ -17504,7 +18138,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K20" t="s">
         <v>170</v>
@@ -17524,7 +18158,7 @@
         <v>258</v>
       </c>
       <c r="G21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K21" t="s">
         <v>381</v>
@@ -17544,7 +18178,7 @@
         <v>566</v>
       </c>
       <c r="G22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K22" t="s">
         <v>471</v>
@@ -17564,7 +18198,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="K23" t="s">
         <v>148</v>
@@ -17584,7 +18218,7 @@
         <v>323</v>
       </c>
       <c r="G24" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="K24" t="s">
         <v>393</v>
@@ -17604,7 +18238,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
+        <v>281</v>
       </c>
       <c r="K25" t="s">
         <v>549</v>
@@ -17624,7 +18258,7 @@
         <v>450</v>
       </c>
       <c r="G26" t="s">
-        <v>284</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s">
         <v>149</v>
@@ -17644,7 +18278,7 @@
         <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="K27" t="s">
         <v>441</v>
@@ -17664,7 +18298,7 @@
         <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="K28" t="s">
         <v>150</v>
@@ -17681,7 +18315,7 @@
         <v>469</v>
       </c>
       <c r="G29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K29" t="s">
         <v>151</v>
@@ -17698,7 +18332,7 @@
         <v>470</v>
       </c>
       <c r="G30" t="s">
-        <v>213</v>
+        <v>286</v>
       </c>
       <c r="Y30" t="s">
         <v>60</v>
@@ -17709,7 +18343,7 @@
         <v>417</v>
       </c>
       <c r="G31" t="s">
-        <v>277</v>
+        <v>213</v>
       </c>
       <c r="Y31" t="s">
         <v>61</v>
@@ -17720,7 +18354,7 @@
         <v>156</v>
       </c>
       <c r="G32" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="Y32" t="s">
         <v>62</v>
@@ -17731,7 +18365,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>533</v>
+        <v>287</v>
       </c>
       <c r="Y33" t="s">
         <v>63</v>
@@ -17742,7 +18376,7 @@
         <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>262</v>
+        <v>533</v>
       </c>
       <c r="Y34" t="s">
         <v>572</v>
@@ -17753,7 +18387,7 @@
         <v>157</v>
       </c>
       <c r="G35" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="Y35" t="s">
         <v>64</v>
@@ -17764,7 +18398,7 @@
         <v>158</v>
       </c>
       <c r="G36" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="Y36" t="s">
         <v>65</v>
@@ -17775,7 +18409,7 @@
         <v>159</v>
       </c>
       <c r="G37" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="Y37" t="s">
         <v>207</v>
@@ -17786,7 +18420,7 @@
         <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="Y38" t="s">
         <v>66</v>
@@ -17797,7 +18431,7 @@
         <v>152</v>
       </c>
       <c r="G39" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="Y39" t="s">
         <v>340</v>
@@ -17805,7 +18439,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
       <c r="Y40" t="s">
         <v>430</v>
@@ -17813,7 +18447,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="Y41" t="s">
         <v>553</v>
@@ -17821,7 +18455,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>568</v>
+        <v>212</v>
       </c>
       <c r="Y42" t="s">
         <v>394</v>
@@ -17829,7 +18463,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>291</v>
+        <v>568</v>
       </c>
       <c r="Y43" t="s">
         <v>67</v>
@@ -17837,7 +18471,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="Y44" t="s">
         <v>68</v>
@@ -17845,7 +18479,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y45" t="s">
         <v>69</v>
@@ -17853,7 +18487,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="Y46" t="s">
         <v>70</v>
@@ -17861,7 +18495,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Y47" t="s">
         <v>71</v>
@@ -17869,7 +18503,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="Y48" t="s">
         <v>72</v>
@@ -17877,7 +18511,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>304</v>
+        <v>208</v>
       </c>
       <c r="Y49" t="s">
         <v>443</v>
@@ -17885,7 +18519,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="Y50" t="s">
         <v>214</v>
@@ -17893,7 +18527,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="Y51" t="s">
         <v>73</v>
@@ -17901,7 +18535,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="Y52" t="s">
         <v>558</v>
@@ -17909,7 +18543,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="Y53" t="s">
         <v>74</v>
@@ -17917,7 +18551,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="Y54" t="s">
         <v>75</v>
@@ -17925,7 +18559,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="Y55" t="s">
         <v>76</v>
@@ -17933,7 +18567,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="Y56" t="s">
         <v>484</v>
@@ -17941,7 +18575,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y57" t="s">
         <v>466</v>
@@ -17949,7 +18583,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>569</v>
+        <v>295</v>
       </c>
       <c r="Y58" t="s">
         <v>77</v>
@@ -17957,7 +18591,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>296</v>
+        <v>569</v>
       </c>
       <c r="Y59" t="s">
         <v>348</v>
@@ -17965,7 +18599,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="Y60" t="s">
         <v>460</v>
@@ -17973,7 +18607,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Y61" t="s">
         <v>78</v>
@@ -17981,7 +18615,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="Y62" t="s">
         <v>79</v>
@@ -17989,7 +18623,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="Y63" t="s">
         <v>80</v>
@@ -17997,7 +18631,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y64" t="s">
         <v>81</v>
@@ -18005,7 +18639,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="Y65" t="s">
         <v>82</v>
@@ -18013,7 +18647,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Y66" t="s">
         <v>83</v>
@@ -18021,7 +18655,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="Y67" t="s">
         <v>84</v>
@@ -18029,7 +18663,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="Y68" t="s">
         <v>439</v>
@@ -18037,7 +18671,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="Y69" t="s">
         <v>474</v>
@@ -18045,7 +18679,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>554</v>
+        <v>271</v>
       </c>
       <c r="Y70" t="s">
         <v>215</v>
@@ -18053,7 +18687,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>317</v>
+        <v>554</v>
       </c>
       <c r="Y71" t="s">
         <v>390</v>
@@ -18061,7 +18695,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>411</v>
+        <v>317</v>
       </c>
       <c r="Y72" t="s">
         <v>444</v>
@@ -18069,7 +18703,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>307</v>
+        <v>411</v>
       </c>
       <c r="Y73" t="s">
         <v>85</v>
@@ -18077,7 +18711,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>412</v>
+        <v>307</v>
       </c>
       <c r="Y74" t="s">
         <v>86</v>
@@ -18085,7 +18719,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>264</v>
+        <v>412</v>
       </c>
       <c r="Y75" t="s">
         <v>87</v>
@@ -18093,7 +18727,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>534</v>
+        <v>264</v>
       </c>
       <c r="Y76" t="s">
         <v>88</v>
@@ -18101,7 +18735,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>346</v>
+        <v>534</v>
       </c>
       <c r="Y77" t="s">
         <v>194</v>
@@ -18109,7 +18743,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>282</v>
+        <v>346</v>
       </c>
       <c r="Y78" t="s">
         <v>195</v>
@@ -18117,7 +18751,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Y79" t="s">
         <v>455</v>
@@ -18125,7 +18759,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Y80" t="s">
         <v>468</v>
@@ -18133,7 +18767,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>418</v>
+        <v>293</v>
       </c>
       <c r="Y81" t="s">
         <v>89</v>
@@ -18141,7 +18775,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>334</v>
+        <v>418</v>
       </c>
       <c r="Y82" t="s">
         <v>90</v>
@@ -18149,7 +18783,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
       <c r="Y83" t="s">
         <v>91</v>
@@ -18157,7 +18791,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="Y84" t="s">
         <v>521</v>
@@ -18165,7 +18799,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Y85" t="s">
         <v>92</v>
@@ -18173,7 +18807,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="Y86" t="s">
         <v>93</v>
@@ -18181,7 +18815,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>555</v>
+        <v>278</v>
       </c>
       <c r="Y87" t="s">
         <v>196</v>
@@ -18189,7 +18823,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>273</v>
+        <v>555</v>
       </c>
       <c r="Y88" t="s">
         <v>485</v>
@@ -18197,7 +18831,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="Y89" t="s">
         <v>197</v>
@@ -18205,7 +18839,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="Y90" t="s">
         <v>454</v>
@@ -18213,7 +18847,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y91" t="s">
         <v>198</v>
@@ -18221,7 +18855,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="Y92" t="s">
         <v>199</v>
@@ -18229,15 +18863,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Y93" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Y94" t="s">
         <v>216</v>
@@ -18245,7 +18879,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="Y95" t="s">
         <v>94</v>
@@ -18253,7 +18887,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="Y96" t="s">
         <v>200</v>
@@ -18261,13 +18895,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y97" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>280</v>
+      </c>
       <c r="Y98" t="s">
         <v>438</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13346" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13903" uniqueCount="578">
   <si>
     <t>description</t>
   </si>
@@ -1803,6 +1803,9 @@
   </si>
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1810,7 +1813,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="394" x14ac:knownFonts="1">
+  <fonts count="410" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4306,8 +4309,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="670">
+  <fills count="697">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8100,8 +8204,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="725">
+  <borders count="757">
     <border>
       <left/>
       <right/>
@@ -12027,6 +12284,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -15500,7 +16083,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="422">
+  <cellXfs count="438">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16737,52 +17320,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="642" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="645" borderId="700" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="700" fillId="645" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="648" borderId="704" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="704" fillId="648" fontId="380" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="651" borderId="708" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="708" fillId="651" fontId="381" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="654" borderId="712" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="712" fillId="654" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="383" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="657" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="657" fontId="384" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="660" borderId="716" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="716" fillId="660" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="651" borderId="720" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="720" fillId="651" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="663" borderId="724" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="724" fillId="663" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="663" borderId="724" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="724" fillId="663" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="654" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="654" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="654" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="654" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="669" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="669" fontId="393" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="672" borderId="732" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="675" borderId="736" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="678" borderId="740" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="681" borderId="744" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="687" borderId="748" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="678" borderId="752" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="690" borderId="756" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="690" borderId="756" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="696" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17135,7 +17766,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -18874,7 +19505,7 @@
         <v>314</v>
       </c>
       <c r="Y94" t="s">
-        <v>216</v>
+        <v>577</v>
       </c>
     </row>
     <row r="95">
@@ -18882,7 +19513,7 @@
         <v>297</v>
       </c>
       <c r="Y95" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96">
@@ -18890,7 +19521,7 @@
         <v>342</v>
       </c>
       <c r="Y96" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97">
@@ -18898,7 +19529,7 @@
         <v>279</v>
       </c>
       <c r="Y97" t="s">
-        <v>431</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98">
@@ -18906,181 +19537,186 @@
         <v>280</v>
       </c>
       <c r="Y98" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>532</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>95</v>
+        <v>535</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>536</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>384</v>
+        <v>536</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>96</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>445</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>109</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>573</v>
+        <v>109</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>110</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -19,40 +19,41 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13903" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14464" uniqueCount="584">
   <si>
     <t>description</t>
   </si>
@@ -1806,6 +1807,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1832,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="410" x14ac:knownFonts="1">
+  <fonts count="426" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4410,8 +4429,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="697">
+  <fills count="724">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8357,8 +8477,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="757">
+  <borders count="789">
     <border>
       <left/>
       <right/>
@@ -12284,6 +12557,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -16083,7 +16682,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="438">
+  <cellXfs count="454">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17368,52 +17967,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="669" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="672" borderId="732" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="732" fillId="672" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="675" borderId="736" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="736" fillId="675" fontId="396" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="678" borderId="740" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="740" fillId="678" fontId="397" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="681" borderId="744" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="744" fillId="681" fontId="398" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="399" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="684" fontId="400" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="401" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="687" borderId="748" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="748" fillId="687" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="678" borderId="752" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="752" fillId="678" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="690" borderId="756" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="756" fillId="690" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="690" borderId="756" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="756" fillId="690" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="681" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="681" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="696" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="696" fontId="409" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="699" borderId="764" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="702" borderId="768" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="705" borderId="772" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="708" borderId="776" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="711" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="714" borderId="780" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="705" borderId="784" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="717" borderId="788" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="717" borderId="788" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="708" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="708" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="723" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17766,7 +18413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -17795,81 +18442,84 @@
         <v>511</v>
       </c>
       <c r="E1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>171</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>172</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>141</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>211</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>142</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>335</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>182</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>537</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>477</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>193</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>240</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>181</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>401</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>413</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>414</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>358</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>397</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>415</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -17887,81 +18537,84 @@
         <v>512</v>
       </c>
       <c r="E2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>173</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>153</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>451</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>143</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>467</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>318</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>385</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>419</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>538</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>480</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>420</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>421</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>254</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>217</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>402</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>425</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>426</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>382</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>398</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>117</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>122</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>131</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>432</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>516</v>
       </c>
     </row>
@@ -17978,76 +18631,76 @@
       <c r="D3" t="s">
         <v>548</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>458</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>366</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>176</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>175</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>478</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>350</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>343</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>336</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>183</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>539</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>481</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>422</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>241</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>218</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>403</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>427</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>383</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>399</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>118</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>123</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>365</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>130</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -18061,82 +18714,82 @@
       <c r="D4" t="s">
         <v>513</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>174</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>388</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>452</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>479</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>351</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>239</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>337</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>184</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>540</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>482</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>19</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>242</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>219</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>404</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>428</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>359</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>400</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>355</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>119</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>124</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>130</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>433</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>578</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
@@ -18144,73 +18797,73 @@
       <c r="D5" t="s">
         <v>514</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>459</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>440</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>575</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>456</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>552</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>352</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>463</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>185</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>550</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>21</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>243</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>220</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>405</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>429</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
-        <v>356</v>
-      </c>
       <c r="Z5" t="s">
+        <v>581</v>
+      </c>
+      <c r="AA5" t="s">
         <v>120</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>125</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>132</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>434</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
@@ -18218,1505 +18871,1513 @@
       <c r="D6" t="s">
         <v>515</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>528</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>338</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>449</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>349</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>173</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>186</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>544</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>22</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>244</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>392</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>406</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>362</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>446</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>126</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>133</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>435</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>225</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>389</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>448</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>556</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>144</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>318</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>545</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>24</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>245</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>424</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>407</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>361</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>46</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>447</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>127</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>134</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>436</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>321</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>367</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>330</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>529</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>187</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>546</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>160</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>246</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>408</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>363</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>47</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>121</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>128</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>135</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>437</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>368</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>331</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>166</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>188</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>551</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>161</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>247</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>409</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>364</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>206</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>179</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" t="s">
         <v>318</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>309</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>453</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>145</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>189</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>541</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>423</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>248</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>410</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>259</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>180</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" t="s">
-        <v>257</v>
-      </c>
-      <c r="G11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" t="s">
+        <v>580</v>
+      </c>
+      <c r="H11" t="s">
         <v>353</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>324</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>530</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>472</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>542</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>162</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>249</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>261</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>335</v>
-      </c>
-      <c r="E12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" t="s">
         <v>322</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>276</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>325</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>391</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>557</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>543</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>26</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>250</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>48</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>136</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" t="s">
+        <v>335</v>
+      </c>
+      <c r="F13" t="s">
         <v>343</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>265</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>326</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>146</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>442</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>163</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>255</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>328</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>137</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>537</v>
-      </c>
-      <c r="E14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" t="s">
         <v>25</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>319</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>327</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>147</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>473</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>164</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>251</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>49</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>138</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>477</v>
-      </c>
-      <c r="E15" t="s">
+        <v>537</v>
+      </c>
+      <c r="F15" t="s">
         <v>34</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>266</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>531</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>190</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>525</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>252</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>50</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>139</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16" t="s">
+        <v>477</v>
+      </c>
+      <c r="F16" t="s">
         <v>386</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>267</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>167</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>570</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>526</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>253</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>42</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>140</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" t="s">
         <v>387</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>320</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>168</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>191</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>527</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>464</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
         <v>416</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>177</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>457</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>192</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>51</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>178</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>169</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>52</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>401</v>
-      </c>
-      <c r="E20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" t="s">
         <v>36</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>298</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>170</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>53</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>413</v>
-      </c>
-      <c r="E21" t="s">
+        <v>401</v>
+      </c>
+      <c r="F21" t="s">
         <v>258</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>299</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>381</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>54</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>414</v>
-      </c>
-      <c r="E22" t="s">
+        <v>413</v>
+      </c>
+      <c r="F22" t="s">
         <v>566</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>300</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>471</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>483</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>358</v>
-      </c>
-      <c r="E23" t="s">
+        <v>414</v>
+      </c>
+      <c r="F23" t="s">
         <v>37</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>301</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>148</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>55</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>397</v>
-      </c>
-      <c r="E24" t="s">
+        <v>358</v>
+      </c>
+      <c r="F24" t="s">
         <v>323</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>292</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>393</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>571</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" t="s">
+        <v>397</v>
+      </c>
+      <c r="F25" t="s">
         <v>38</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>281</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>549</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>56</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
         <v>450</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>154</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>149</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>57</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
         <v>226</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>284</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>441</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>58</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
         <v>227</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>268</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>150</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>415</v>
-      </c>
-      <c r="E29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" t="s">
         <v>469</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>285</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>151</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>415</v>
+      </c>
+      <c r="F30" t="s">
+        <v>470</v>
+      </c>
+      <c r="H30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>228</v>
       </c>
-      <c r="E30" t="s">
-        <v>470</v>
-      </c>
-      <c r="G30" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>417</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>213</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>156</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>277</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>39</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>287</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>40</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>533</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>157</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>262</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>158</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>332</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>159</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>310</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>41</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>263</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>152</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>311</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>269</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>155</v>
       </c>
-      <c r="Y41" t="s">
-        <v>553</v>
+      <c r="Z41" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>212</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>568</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>291</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>302</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>303</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>345</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>344</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>208</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>304</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>341</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>369</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>305</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>357</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>333</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>270</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>294</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>295</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>569</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>296</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>306</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>315</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>339</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>312</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>313</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>370</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>371</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>347</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>316</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>271</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>554</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>317</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>411</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>307</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>412</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>264</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>534</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>346</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>282</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>288</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>293</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>418</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>334</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>272</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>283</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>289</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>278</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>555</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>273</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>290</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>274</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>275</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>308</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>314</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>297</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>342</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>279</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>280</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14464" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15025" uniqueCount="584">
   <si>
     <t>description</t>
   </si>
@@ -1832,7 +1832,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="426" x14ac:knownFonts="1">
+  <fonts count="442" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4530,8 +4530,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="724">
+  <fills count="751">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8630,8 +8731,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="789">
+  <borders count="821">
     <border>
       <left/>
       <right/>
@@ -12557,6 +12811,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -16682,7 +17262,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="454">
+  <cellXfs count="470">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18015,52 +18595,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="696" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="699" borderId="764" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="764" fillId="699" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="702" borderId="768" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="768" fillId="702" fontId="412" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="705" borderId="772" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="772" fillId="705" fontId="413" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="708" borderId="776" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="776" fillId="708" fontId="414" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="415" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="711" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="711" fontId="416" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="417" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="714" borderId="780" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="780" fillId="714" fontId="418" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="705" borderId="784" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="784" fillId="705" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="717" borderId="788" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="788" fillId="717" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="717" borderId="788" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="788" fillId="717" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="708" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="708" fontId="422" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="423" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="708" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="708" fontId="424" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="723" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="723" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="726" borderId="796" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="729" borderId="800" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="732" borderId="804" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="735" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="741" borderId="812" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="732" borderId="816" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="744" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="744" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15025" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16149" uniqueCount="586">
   <si>
     <t>description</t>
   </si>
@@ -1825,6 +1825,12 @@
   </si>
   <si>
     <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1838,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="442" x14ac:knownFonts="1">
+  <fonts count="474" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4631,8 +4637,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="751">
+  <fills count="805">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8884,8 +9092,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="821">
+  <borders count="885">
     <border>
       <left/>
       <right/>
@@ -12811,6 +13325,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -17262,7 +18428,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="470">
+  <cellXfs count="502">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18643,52 +19809,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="723" fontId="425" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="726" borderId="796" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="796" fillId="726" fontId="426" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="427" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="729" borderId="800" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="800" fillId="729" fontId="428" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="429" fillId="732" borderId="804" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="804" fillId="732" fontId="429" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="735" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="808" fillId="735" fontId="430" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="431" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="432" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="738" fontId="432" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="433" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="741" borderId="812" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="812" fillId="741" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="732" borderId="816" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="816" fillId="732" fontId="435" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="744" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="820" fillId="744" fontId="436" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="744" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="820" fillId="744" fontId="437" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="735" fontId="438" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="439" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="735" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="750" fontId="441" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="828" fillId="753" fontId="442" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="443" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="832" fillId="756" fontId="444" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="836" fillId="759" fontId="445" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="840" fillId="762" fontId="446" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="447" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="765" fontId="448" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="449" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="844" fillId="768" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="848" fillId="759" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="852" fillId="771" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="852" fillId="771" fontId="453" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="762" fontId="454" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="455" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="762" fontId="456" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="777" fontId="457" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="780" borderId="860" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="783" borderId="864" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="786" borderId="868" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="789" borderId="872" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="795" borderId="876" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="786" borderId="880" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="798" borderId="884" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="798" borderId="884" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="789" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="789" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="804" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20004,7 +21266,7 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>416</v>
+        <v>584</v>
       </c>
       <c r="H18" t="s">
         <v>177</v>
@@ -20027,7 +21289,7 @@
         <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>416</v>
       </c>
       <c r="H19" t="s">
         <v>178</v>
@@ -20047,7 +21309,7 @@
         <v>181</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
         <v>298</v>
@@ -20067,13 +21329,13 @@
         <v>401</v>
       </c>
       <c r="F21" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
         <v>299</v>
       </c>
       <c r="L21" t="s">
-        <v>381</v>
+        <v>585</v>
       </c>
       <c r="Z21" t="s">
         <v>54</v>
@@ -20087,7 +21349,7 @@
         <v>413</v>
       </c>
       <c r="F22" t="s">
-        <v>566</v>
+        <v>258</v>
       </c>
       <c r="H22" t="s">
         <v>300</v>
@@ -20107,7 +21369,7 @@
         <v>414</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>566</v>
       </c>
       <c r="H23" t="s">
         <v>301</v>
@@ -20127,7 +21389,7 @@
         <v>358</v>
       </c>
       <c r="F24" t="s">
-        <v>323</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s">
         <v>292</v>
@@ -20147,7 +21409,7 @@
         <v>397</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c r="H25" t="s">
         <v>281</v>
@@ -20167,7 +21429,7 @@
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>450</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
         <v>154</v>
@@ -20187,7 +21449,7 @@
         <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>226</v>
+        <v>450</v>
       </c>
       <c r="H27" t="s">
         <v>284</v>
@@ -20207,7 +21469,7 @@
         <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H28" t="s">
         <v>268</v>
@@ -20224,7 +21486,7 @@
         <v>129</v>
       </c>
       <c r="F29" t="s">
-        <v>469</v>
+        <v>227</v>
       </c>
       <c r="H29" t="s">
         <v>285</v>
@@ -20241,7 +21503,7 @@
         <v>415</v>
       </c>
       <c r="F30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H30" t="s">
         <v>286</v>
@@ -20255,7 +21517,7 @@
         <v>228</v>
       </c>
       <c r="F31" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
@@ -20266,7 +21528,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>156</v>
+        <v>417</v>
       </c>
       <c r="H32" t="s">
         <v>277</v>
@@ -20277,7 +21539,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="H33" t="s">
         <v>287</v>
@@ -20288,7 +21550,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H34" t="s">
         <v>533</v>
@@ -20299,7 +21561,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s">
         <v>262</v>
@@ -20310,7 +21572,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H36" t="s">
         <v>332</v>
@@ -20321,7 +21583,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H37" t="s">
         <v>310</v>
@@ -20332,7 +21594,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="H38" t="s">
         <v>263</v>
@@ -20343,7 +21605,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s">
         <v>311</v>
@@ -20353,6 +21615,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>152</v>
+      </c>
       <c r="H40" t="s">
         <v>269</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -19,15 +19,15 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16149" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16714" uniqueCount="591">
   <si>
     <t>description</t>
   </si>
@@ -1831,6 +1831,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1838,7 +1853,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="474" x14ac:knownFonts="1">
+  <fonts count="490" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4839,8 +4854,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="805">
+  <fills count="832">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9398,8 +9514,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="885">
+  <borders count="917">
     <border>
       <left/>
       <right/>
@@ -13325,6 +13594,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -18428,7 +19023,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="502">
+  <cellXfs count="518">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19905,52 +20500,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="777" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="780" borderId="860" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="860" fillId="780" fontId="458" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="459" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="783" borderId="864" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="864" fillId="783" fontId="460" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="786" borderId="868" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="868" fillId="786" fontId="461" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="789" borderId="872" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="872" fillId="789" fontId="462" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="463" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="464" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="792" fontId="464" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="465" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="795" borderId="876" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="876" fillId="795" fontId="466" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="467" fillId="786" borderId="880" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="880" fillId="786" fontId="467" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="798" borderId="884" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="884" fillId="798" fontId="468" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="798" borderId="884" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="884" fillId="798" fontId="469" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="789" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="789" fontId="470" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="471" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="789" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="789" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="804" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="804" fontId="473" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="807" borderId="892" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="810" borderId="896" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="813" borderId="900" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="816" borderId="904" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="819" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="822" borderId="908" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="813" borderId="912" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="825" borderId="916" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="825" borderId="916" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="816" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="816" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="831" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20303,7 +20946,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -20623,7 +21266,7 @@
         <v>351</v>
       </c>
       <c r="L4" t="s">
-        <v>239</v>
+        <v>587</v>
       </c>
       <c r="M4" t="s">
         <v>337</v>
@@ -20659,7 +21302,7 @@
         <v>400</v>
       </c>
       <c r="Z4" t="s">
-        <v>355</v>
+        <v>588</v>
       </c>
       <c r="AA4" t="s">
         <v>119</v>
@@ -20706,7 +21349,7 @@
         <v>352</v>
       </c>
       <c r="L5" t="s">
-        <v>463</v>
+        <v>239</v>
       </c>
       <c r="N5" t="s">
         <v>185</v>
@@ -20773,11 +21416,14 @@
       <c r="I6" t="s">
         <v>449</v>
       </c>
+      <c r="J6" t="s">
+        <v>586</v>
+      </c>
       <c r="K6" t="s">
         <v>349</v>
       </c>
       <c r="L6" t="s">
-        <v>173</v>
+        <v>463</v>
       </c>
       <c r="N6" t="s">
         <v>186</v>
@@ -20839,7 +21485,7 @@
         <v>556</v>
       </c>
       <c r="L7" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="N7" t="s">
         <v>318</v>
@@ -20898,7 +21544,7 @@
         <v>330</v>
       </c>
       <c r="L8" t="s">
-        <v>529</v>
+        <v>144</v>
       </c>
       <c r="N8" t="s">
         <v>187</v>
@@ -20954,7 +21600,7 @@
         <v>331</v>
       </c>
       <c r="L9" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="N9" t="s">
         <v>188</v>
@@ -20998,7 +21644,7 @@
         <v>453</v>
       </c>
       <c r="L10" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="N10" t="s">
         <v>189</v>
@@ -21039,7 +21685,7 @@
         <v>324</v>
       </c>
       <c r="L11" t="s">
-        <v>530</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s">
         <v>472</v>
@@ -21077,7 +21723,7 @@
         <v>325</v>
       </c>
       <c r="L12" t="s">
-        <v>391</v>
+        <v>530</v>
       </c>
       <c r="N12" t="s">
         <v>557</v>
@@ -21115,7 +21761,7 @@
         <v>326</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>391</v>
       </c>
       <c r="N13" t="s">
         <v>442</v>
@@ -21150,7 +21796,7 @@
         <v>327</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N14" t="s">
         <v>473</v>
@@ -21182,7 +21828,7 @@
         <v>266</v>
       </c>
       <c r="L15" t="s">
-        <v>531</v>
+        <v>147</v>
       </c>
       <c r="N15" t="s">
         <v>190</v>
@@ -21214,7 +21860,7 @@
         <v>267</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>531</v>
       </c>
       <c r="N16" t="s">
         <v>570</v>
@@ -21246,7 +21892,7 @@
         <v>320</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N17" t="s">
         <v>191</v>
@@ -21266,13 +21912,13 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>584</v>
+        <v>416</v>
       </c>
       <c r="H18" t="s">
         <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>457</v>
+        <v>168</v>
       </c>
       <c r="N18" t="s">
         <v>192</v>
@@ -21289,13 +21935,13 @@
         <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>416</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
         <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>457</v>
       </c>
       <c r="Z19" t="s">
         <v>52</v>
@@ -21309,13 +21955,13 @@
         <v>181</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s">
         <v>298</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z20" t="s">
         <v>53</v>
@@ -21329,13 +21975,13 @@
         <v>401</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="H21" t="s">
         <v>299</v>
       </c>
       <c r="L21" t="s">
-        <v>585</v>
+        <v>170</v>
       </c>
       <c r="Z21" t="s">
         <v>54</v>
@@ -21349,13 +21995,13 @@
         <v>413</v>
       </c>
       <c r="F22" t="s">
-        <v>258</v>
+        <v>566</v>
       </c>
       <c r="H22" t="s">
         <v>300</v>
       </c>
       <c r="L22" t="s">
-        <v>471</v>
+        <v>585</v>
       </c>
       <c r="Z22" t="s">
         <v>483</v>
@@ -21369,13 +22015,13 @@
         <v>414</v>
       </c>
       <c r="F23" t="s">
-        <v>566</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s">
         <v>301</v>
       </c>
       <c r="L23" t="s">
-        <v>148</v>
+        <v>471</v>
       </c>
       <c r="Z23" t="s">
         <v>55</v>
@@ -21389,13 +22035,13 @@
         <v>358</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>323</v>
       </c>
       <c r="H24" t="s">
         <v>292</v>
       </c>
       <c r="L24" t="s">
-        <v>393</v>
+        <v>148</v>
       </c>
       <c r="Z24" t="s">
         <v>571</v>
@@ -21409,13 +22055,13 @@
         <v>397</v>
       </c>
       <c r="F25" t="s">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
         <v>281</v>
       </c>
       <c r="L25" t="s">
-        <v>549</v>
+        <v>393</v>
       </c>
       <c r="Z25" t="s">
         <v>56</v>
@@ -21429,13 +22075,13 @@
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="H26" t="s">
         <v>154</v>
       </c>
       <c r="L26" t="s">
-        <v>149</v>
+        <v>549</v>
       </c>
       <c r="Z26" t="s">
         <v>57</v>
@@ -21449,13 +22095,13 @@
         <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>450</v>
+        <v>226</v>
       </c>
       <c r="H27" t="s">
         <v>284</v>
       </c>
       <c r="L27" t="s">
-        <v>441</v>
+        <v>149</v>
       </c>
       <c r="Z27" t="s">
         <v>58</v>
@@ -21469,13 +22115,13 @@
         <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H28" t="s">
         <v>268</v>
       </c>
       <c r="L28" t="s">
-        <v>150</v>
+        <v>441</v>
       </c>
       <c r="Z28" t="s">
         <v>59</v>
@@ -21486,13 +22132,13 @@
         <v>129</v>
       </c>
       <c r="F29" t="s">
-        <v>227</v>
+        <v>469</v>
       </c>
       <c r="H29" t="s">
         <v>285</v>
       </c>
       <c r="L29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z29" t="s">
         <v>329</v>
@@ -21503,10 +22149,13 @@
         <v>415</v>
       </c>
       <c r="F30" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H30" t="s">
         <v>286</v>
+      </c>
+      <c r="L30" t="s">
+        <v>151</v>
       </c>
       <c r="Z30" t="s">
         <v>60</v>
@@ -21517,7 +22166,7 @@
         <v>228</v>
       </c>
       <c r="F31" t="s">
-        <v>470</v>
+        <v>417</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
@@ -21528,7 +22177,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>417</v>
+        <v>156</v>
       </c>
       <c r="H32" t="s">
         <v>277</v>
@@ -21539,7 +22188,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="H33" t="s">
         <v>287</v>
@@ -21550,7 +22199,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s">
         <v>533</v>
@@ -21561,7 +22210,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="H35" t="s">
         <v>262</v>
@@ -21572,7 +22221,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H36" t="s">
         <v>332</v>
@@ -21583,7 +22232,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H37" t="s">
         <v>310</v>
@@ -21594,7 +22243,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s">
         <v>263</v>
@@ -21605,7 +22254,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="H39" t="s">
         <v>311</v>
@@ -21615,9 +22264,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>152</v>
-      </c>
       <c r="H40" t="s">
         <v>269</v>
       </c>
@@ -22091,186 +22737,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>438</v>
+        <v>589</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>201</v>
+        <v>590</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>202</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>532</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>583</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>95</v>
+        <v>583</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>384</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>96</v>
+        <v>536</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>97</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>445</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>573</v>
+        <v>445</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>111</v>
+        <v>573</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16714" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17279" uniqueCount="591">
   <si>
     <t>description</t>
   </si>
@@ -1853,7 +1853,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="490" x14ac:knownFonts="1">
+  <fonts count="506" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4955,8 +4955,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="832">
+  <fills count="859">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9667,8 +9768,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="917">
+  <borders count="949">
     <border>
       <left/>
       <right/>
@@ -13594,6 +13848,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -19023,7 +19603,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="518">
+  <cellXfs count="534">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20548,52 +21128,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="804" fontId="473" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="807" borderId="892" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="892" fillId="807" fontId="474" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="475" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="810" borderId="896" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="896" fillId="810" fontId="476" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="813" borderId="900" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="900" fillId="813" fontId="477" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="816" borderId="904" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="904" fillId="816" fontId="478" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="479" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="819" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="819" fontId="480" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="481" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="822" borderId="908" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="908" fillId="822" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="813" borderId="912" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="912" fillId="813" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="825" borderId="916" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="916" fillId="825" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="825" borderId="916" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="916" fillId="825" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="816" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="816" fontId="486" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="816" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="816" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="831" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="831" fontId="489" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="834" borderId="924" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="837" borderId="928" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="840" borderId="932" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="843" borderId="936" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="849" borderId="940" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="840" borderId="944" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="852" borderId="948" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="852" borderId="948" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="843" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="843" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="858" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17279" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18411" uniqueCount="592">
   <si>
     <t>description</t>
   </si>
@@ -1846,6 +1846,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1853,7 +1856,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="506" x14ac:knownFonts="1">
+  <fonts count="538" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5056,8 +5059,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="859">
+  <fills count="913">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9921,8 +10126,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="949">
+  <borders count="1013">
     <border>
       <left/>
       <right/>
@@ -13848,6 +14359,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -19603,7 +20766,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="534">
+  <cellXfs count="566">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21176,52 +22339,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="831" fontId="489" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="834" borderId="924" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="924" fillId="834" fontId="490" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="491" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="837" borderId="928" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="928" fillId="837" fontId="492" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="840" borderId="932" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="932" fillId="840" fontId="493" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="843" borderId="936" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="936" fillId="843" fontId="494" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="495" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="846" fontId="496" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="497" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="849" borderId="940" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="940" fillId="849" fontId="498" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="840" borderId="944" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="944" fillId="840" fontId="499" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="852" borderId="948" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="948" fillId="852" fontId="500" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="852" borderId="948" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="948" fillId="852" fontId="501" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="843" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="843" fontId="502" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="503" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="504" fillId="843" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="843" fontId="504" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="858" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="858" fontId="505" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="956" fillId="861" fontId="506" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="507" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="960" fillId="864" fontId="508" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="964" fillId="867" fontId="509" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="968" fillId="870" fontId="510" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="511" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="873" fontId="512" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="513" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="972" fillId="876" fontId="514" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="976" fillId="867" fontId="515" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="980" fillId="879" fontId="516" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="980" fillId="879" fontId="517" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="870" fontId="518" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="519" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="870" fontId="520" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="885" fontId="521" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="888" borderId="988" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="891" borderId="992" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="894" borderId="996" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="897" borderId="1000" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="903" borderId="1004" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="894" borderId="1008" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="906" borderId="1012" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="906" borderId="1012" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="897" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="897" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="912" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21574,7 +22833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -23288,7 +24547,7 @@
         <v>273</v>
       </c>
       <c r="Z89" t="s">
-        <v>197</v>
+        <v>591</v>
       </c>
     </row>
     <row r="90">
@@ -23296,7 +24555,7 @@
         <v>290</v>
       </c>
       <c r="Z90" t="s">
-        <v>454</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91">
@@ -23304,7 +24563,7 @@
         <v>274</v>
       </c>
       <c r="Z91" t="s">
-        <v>198</v>
+        <v>454</v>
       </c>
     </row>
     <row r="92">
@@ -23312,7 +24571,7 @@
         <v>275</v>
       </c>
       <c r="Z92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
@@ -23320,7 +24579,7 @@
         <v>308</v>
       </c>
       <c r="Z93" t="s">
-        <v>576</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94">
@@ -23328,7 +24587,7 @@
         <v>314</v>
       </c>
       <c r="Z94" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="95">
@@ -23336,7 +24595,7 @@
         <v>297</v>
       </c>
       <c r="Z95" t="s">
-        <v>216</v>
+        <v>577</v>
       </c>
     </row>
     <row r="96">
@@ -23344,7 +24603,7 @@
         <v>342</v>
       </c>
       <c r="Z96" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97">
@@ -23352,7 +24611,7 @@
         <v>279</v>
       </c>
       <c r="Z97" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98">
@@ -23360,201 +24619,206 @@
         <v>280</v>
       </c>
       <c r="Z98" t="s">
-        <v>431</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>589</v>
+        <v>431</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>438</v>
+        <v>590</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>532</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>583</v>
+        <v>532</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>535</v>
+        <v>583</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>95</v>
+        <v>535</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>536</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>384</v>
+        <v>536</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>96</v>
+        <v>384</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>445</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>109</v>
+        <v>445</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>573</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>110</v>
+        <v>573</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18411" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18977" uniqueCount="592">
   <si>
     <t>description</t>
   </si>
@@ -1856,7 +1856,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="538" x14ac:knownFonts="1">
+  <fonts count="554" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5261,8 +5261,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="913">
+  <fills count="940">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10432,8 +10533,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1013">
+  <borders count="1045">
     <border>
       <left/>
       <right/>
@@ -14359,6 +14613,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -20766,7 +21346,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="566">
+  <cellXfs count="582">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22435,52 +23015,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="885" fontId="521" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="888" borderId="988" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="988" fillId="888" fontId="522" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="523" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="891" borderId="992" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="992" fillId="891" fontId="524" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="894" borderId="996" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="996" fillId="894" fontId="525" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="897" borderId="1000" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1000" fillId="897" fontId="526" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="527" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="900" fontId="528" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="529" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="903" borderId="1004" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1004" fillId="903" fontId="530" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="894" borderId="1008" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1008" fillId="894" fontId="531" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="906" borderId="1012" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1012" fillId="906" fontId="532" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="906" borderId="1012" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1012" fillId="906" fontId="533" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="897" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="897" fontId="534" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="535" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="535" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="897" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="897" fontId="536" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="912" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="912" fontId="537" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="915" borderId="1020" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="918" borderId="1024" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="921" borderId="1028" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="924" borderId="1032" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="930" borderId="1036" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="921" borderId="1040" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="933" borderId="1044" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="933" borderId="1044" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="939" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -24,7 +24,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -36,7 +36,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -44,9 +44,9 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18977" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19553" uniqueCount="602">
   <si>
     <t>description</t>
   </si>
@@ -1849,6 +1849,36 @@
   </si>
   <si>
     <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1856,7 +1886,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="554" x14ac:knownFonts="1">
+  <fonts count="570" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5362,8 +5392,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="940">
+  <fills count="967">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10686,8 +10817,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1045">
+  <borders count="1077">
     <border>
       <left/>
       <right/>
@@ -14613,6 +14897,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -21346,7 +21956,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="582">
+  <cellXfs count="598">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -23063,52 +23673,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="912" fontId="537" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="915" borderId="1020" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1020" fillId="915" fontId="538" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="539" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="918" borderId="1024" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1024" fillId="918" fontId="540" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="921" borderId="1028" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1028" fillId="921" fontId="541" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="924" borderId="1032" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1032" fillId="924" fontId="542" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="543" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="927" fontId="544" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="545" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="930" borderId="1036" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1036" fillId="930" fontId="546" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="921" borderId="1040" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1040" fillId="921" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="933" borderId="1044" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1044" fillId="933" fontId="548" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="933" borderId="1044" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1044" fillId="933" fontId="549" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="924" fontId="550" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="936" fontId="551" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="924" fontId="552" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="939" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="939" fontId="553" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="942" borderId="1052" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="945" borderId="1056" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="948" borderId="1060" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="951" borderId="1064" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="954" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="957" borderId="1068" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="948" borderId="1072" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="960" borderId="1076" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="960" borderId="1076" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="951" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="951" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="966" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23461,7 +24119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -23897,7 +24555,7 @@
         <v>120</v>
       </c>
       <c r="AB5" t="s">
-        <v>125</v>
+        <v>600</v>
       </c>
       <c r="AC5" t="s">
         <v>132</v>
@@ -23968,7 +24626,7 @@
         <v>446</v>
       </c>
       <c r="AB6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC6" t="s">
         <v>133</v>
@@ -24030,7 +24688,7 @@
         <v>447</v>
       </c>
       <c r="AB7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC7" t="s">
         <v>134</v>
@@ -24086,7 +24744,7 @@
         <v>121</v>
       </c>
       <c r="AB8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC8" t="s">
         <v>135</v>
@@ -24138,6 +24796,9 @@
       <c r="Z9" t="s">
         <v>206</v>
       </c>
+      <c r="AB9" t="s">
+        <v>128</v>
+      </c>
       <c r="AC9" t="s">
         <v>179</v>
       </c>
@@ -24156,7 +24817,7 @@
         <v>309</v>
       </c>
       <c r="I10" t="s">
-        <v>453</v>
+        <v>592</v>
       </c>
       <c r="L10" t="s">
         <v>166</v>
@@ -24178,6 +24839,9 @@
       </c>
       <c r="Z10" t="s">
         <v>259</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>601</v>
       </c>
       <c r="AC10" t="s">
         <v>180</v>
@@ -24197,7 +24861,7 @@
         <v>353</v>
       </c>
       <c r="I11" t="s">
-        <v>324</v>
+        <v>453</v>
       </c>
       <c r="L11" t="s">
         <v>145</v>
@@ -24235,7 +24899,7 @@
         <v>276</v>
       </c>
       <c r="I12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L12" t="s">
         <v>530</v>
@@ -24273,7 +24937,7 @@
         <v>265</v>
       </c>
       <c r="I13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L13" t="s">
         <v>391</v>
@@ -24285,7 +24949,7 @@
         <v>163</v>
       </c>
       <c r="S13" t="s">
-        <v>255</v>
+        <v>593</v>
       </c>
       <c r="Z13" t="s">
         <v>328</v>
@@ -24308,7 +24972,7 @@
         <v>319</v>
       </c>
       <c r="I14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L14" t="s">
         <v>146</v>
@@ -24320,7 +24984,7 @@
         <v>164</v>
       </c>
       <c r="S14" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Z14" t="s">
         <v>49</v>
@@ -24342,6 +25006,9 @@
       <c r="H15" t="s">
         <v>266</v>
       </c>
+      <c r="I15" t="s">
+        <v>327</v>
+      </c>
       <c r="L15" t="s">
         <v>147</v>
       </c>
@@ -24352,10 +25019,10 @@
         <v>525</v>
       </c>
       <c r="S15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z15" t="s">
-        <v>50</v>
+        <v>594</v>
       </c>
       <c r="AC15" t="s">
         <v>139</v>
@@ -24384,10 +25051,10 @@
         <v>526</v>
       </c>
       <c r="S16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AC16" t="s">
         <v>140</v>
@@ -24412,8 +25079,11 @@
       <c r="N17" t="s">
         <v>191</v>
       </c>
+      <c r="S17" t="s">
+        <v>253</v>
+      </c>
       <c r="Z17" t="s">
-        <v>527</v>
+        <v>42</v>
       </c>
       <c r="AC17" t="s">
         <v>464</v>
@@ -24439,7 +25109,7 @@
         <v>192</v>
       </c>
       <c r="Z18" t="s">
-        <v>51</v>
+        <v>527</v>
       </c>
       <c r="AE18" t="s">
         <v>476</v>
@@ -24459,7 +25129,7 @@
         <v>457</v>
       </c>
       <c r="Z19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE19" t="s">
         <v>519</v>
@@ -24479,7 +25149,7 @@
         <v>169</v>
       </c>
       <c r="Z20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE20" t="s">
         <v>520</v>
@@ -24499,7 +25169,7 @@
         <v>170</v>
       </c>
       <c r="Z21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE21" t="s">
         <v>524</v>
@@ -24519,7 +25189,7 @@
         <v>585</v>
       </c>
       <c r="Z22" t="s">
-        <v>483</v>
+        <v>54</v>
       </c>
       <c r="AE22" t="s">
         <v>236</v>
@@ -24539,7 +25209,7 @@
         <v>471</v>
       </c>
       <c r="Z23" t="s">
-        <v>55</v>
+        <v>483</v>
       </c>
       <c r="AE23" t="s">
         <v>562</v>
@@ -24559,7 +25229,7 @@
         <v>148</v>
       </c>
       <c r="Z24" t="s">
-        <v>571</v>
+        <v>55</v>
       </c>
       <c r="AE24" t="s">
         <v>563</v>
@@ -24579,7 +25249,7 @@
         <v>393</v>
       </c>
       <c r="Z25" t="s">
-        <v>56</v>
+        <v>571</v>
       </c>
       <c r="AE25" t="s">
         <v>564</v>
@@ -24599,7 +25269,7 @@
         <v>549</v>
       </c>
       <c r="Z26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE26" t="s">
         <v>237</v>
@@ -24619,7 +25289,7 @@
         <v>149</v>
       </c>
       <c r="Z27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE27" t="s">
         <v>238</v>
@@ -24639,7 +25309,7 @@
         <v>441</v>
       </c>
       <c r="Z28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -24656,7 +25326,7 @@
         <v>150</v>
       </c>
       <c r="Z29" t="s">
-        <v>329</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -24673,7 +25343,7 @@
         <v>151</v>
       </c>
       <c r="Z30" t="s">
-        <v>60</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31">
@@ -24687,7 +25357,7 @@
         <v>213</v>
       </c>
       <c r="Z31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
@@ -24698,7 +25368,7 @@
         <v>277</v>
       </c>
       <c r="Z32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33">
@@ -24709,7 +25379,7 @@
         <v>287</v>
       </c>
       <c r="Z33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34">
@@ -24720,7 +25390,7 @@
         <v>533</v>
       </c>
       <c r="Z34" t="s">
-        <v>572</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35">
@@ -24731,7 +25401,7 @@
         <v>262</v>
       </c>
       <c r="Z35" t="s">
-        <v>64</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36">
@@ -24742,7 +25412,7 @@
         <v>332</v>
       </c>
       <c r="Z36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37">
@@ -24753,7 +25423,7 @@
         <v>310</v>
       </c>
       <c r="Z37" t="s">
-        <v>207</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38">
@@ -24764,7 +25434,7 @@
         <v>263</v>
       </c>
       <c r="Z38" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39">
@@ -24775,7 +25445,7 @@
         <v>311</v>
       </c>
       <c r="Z39" t="s">
-        <v>340</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40">
@@ -24783,7 +25453,7 @@
         <v>269</v>
       </c>
       <c r="Z40" t="s">
-        <v>430</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41">
@@ -24791,7 +25461,7 @@
         <v>155</v>
       </c>
       <c r="Z41" t="s">
-        <v>582</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42">
@@ -24799,7 +25469,7 @@
         <v>212</v>
       </c>
       <c r="Z42" t="s">
-        <v>394</v>
+        <v>582</v>
       </c>
     </row>
     <row r="43">
@@ -24807,7 +25477,7 @@
         <v>568</v>
       </c>
       <c r="Z43" t="s">
-        <v>67</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44">
@@ -24815,7 +25485,7 @@
         <v>291</v>
       </c>
       <c r="Z44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45">
@@ -24823,7 +25493,7 @@
         <v>302</v>
       </c>
       <c r="Z45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46">
@@ -24831,7 +25501,7 @@
         <v>303</v>
       </c>
       <c r="Z46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47">
@@ -24839,7 +25509,7 @@
         <v>345</v>
       </c>
       <c r="Z47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48">
@@ -24847,7 +25517,7 @@
         <v>344</v>
       </c>
       <c r="Z48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49">
@@ -24855,7 +25525,7 @@
         <v>208</v>
       </c>
       <c r="Z49" t="s">
-        <v>443</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50">
@@ -24863,7 +25533,7 @@
         <v>304</v>
       </c>
       <c r="Z50" t="s">
-        <v>214</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51">
@@ -24871,7 +25541,7 @@
         <v>341</v>
       </c>
       <c r="Z51" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52">
@@ -24879,7 +25549,7 @@
         <v>369</v>
       </c>
       <c r="Z52" t="s">
-        <v>558</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53">
@@ -24887,7 +25557,7 @@
         <v>305</v>
       </c>
       <c r="Z53" t="s">
-        <v>74</v>
+        <v>558</v>
       </c>
     </row>
     <row r="54">
@@ -24895,7 +25565,7 @@
         <v>357</v>
       </c>
       <c r="Z54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
@@ -24903,7 +25573,7 @@
         <v>333</v>
       </c>
       <c r="Z55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
@@ -24911,7 +25581,7 @@
         <v>270</v>
       </c>
       <c r="Z56" t="s">
-        <v>484</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
@@ -24919,7 +25589,7 @@
         <v>294</v>
       </c>
       <c r="Z57" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58">
@@ -24927,7 +25597,7 @@
         <v>295</v>
       </c>
       <c r="Z58" t="s">
-        <v>77</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59">
@@ -24935,7 +25605,7 @@
         <v>569</v>
       </c>
       <c r="Z59" t="s">
-        <v>348</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60">
@@ -24943,7 +25613,7 @@
         <v>296</v>
       </c>
       <c r="Z60" t="s">
-        <v>460</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61">
@@ -24951,7 +25621,7 @@
         <v>306</v>
       </c>
       <c r="Z61" t="s">
-        <v>78</v>
+        <v>460</v>
       </c>
     </row>
     <row r="62">
@@ -24959,7 +25629,7 @@
         <v>315</v>
       </c>
       <c r="Z62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
@@ -24967,7 +25637,7 @@
         <v>339</v>
       </c>
       <c r="Z63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64">
@@ -24975,7 +25645,7 @@
         <v>312</v>
       </c>
       <c r="Z64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
@@ -24983,7 +25653,7 @@
         <v>313</v>
       </c>
       <c r="Z65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66">
@@ -24991,7 +25661,7 @@
         <v>370</v>
       </c>
       <c r="Z66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67">
@@ -24999,7 +25669,7 @@
         <v>371</v>
       </c>
       <c r="Z67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68">
@@ -25007,7 +25677,7 @@
         <v>347</v>
       </c>
       <c r="Z68" t="s">
-        <v>439</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69">
@@ -25015,7 +25685,7 @@
         <v>316</v>
       </c>
       <c r="Z69" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70">
@@ -25023,7 +25693,7 @@
         <v>271</v>
       </c>
       <c r="Z70" t="s">
-        <v>215</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71">
@@ -25031,7 +25701,7 @@
         <v>554</v>
       </c>
       <c r="Z71" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72">
@@ -25039,7 +25709,7 @@
         <v>317</v>
       </c>
       <c r="Z72" t="s">
-        <v>444</v>
+        <v>390</v>
       </c>
     </row>
     <row r="73">
@@ -25047,7 +25717,7 @@
         <v>411</v>
       </c>
       <c r="Z73" t="s">
-        <v>85</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74">
@@ -25055,7 +25725,7 @@
         <v>307</v>
       </c>
       <c r="Z74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75">
@@ -25063,7 +25733,7 @@
         <v>412</v>
       </c>
       <c r="Z75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76">
@@ -25071,7 +25741,7 @@
         <v>264</v>
       </c>
       <c r="Z76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77">
@@ -25079,7 +25749,7 @@
         <v>534</v>
       </c>
       <c r="Z77" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78">
@@ -25087,7 +25757,7 @@
         <v>346</v>
       </c>
       <c r="Z78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79">
@@ -25095,7 +25765,7 @@
         <v>282</v>
       </c>
       <c r="Z79" t="s">
-        <v>455</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
@@ -25103,7 +25773,7 @@
         <v>288</v>
       </c>
       <c r="Z80" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="81">
@@ -25111,7 +25781,7 @@
         <v>293</v>
       </c>
       <c r="Z81" t="s">
-        <v>89</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82">
@@ -25119,7 +25789,7 @@
         <v>418</v>
       </c>
       <c r="Z82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83">
@@ -25127,7 +25797,7 @@
         <v>334</v>
       </c>
       <c r="Z83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84">
@@ -25135,7 +25805,7 @@
         <v>272</v>
       </c>
       <c r="Z84" t="s">
-        <v>521</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
@@ -25143,7 +25813,7 @@
         <v>283</v>
       </c>
       <c r="Z85" t="s">
-        <v>92</v>
+        <v>521</v>
       </c>
     </row>
     <row r="86">
@@ -25151,7 +25821,7 @@
         <v>289</v>
       </c>
       <c r="Z86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87">
@@ -25159,7 +25829,7 @@
         <v>278</v>
       </c>
       <c r="Z87" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88">
@@ -25167,7 +25837,7 @@
         <v>555</v>
       </c>
       <c r="Z88" t="s">
-        <v>485</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89">
@@ -25175,7 +25845,7 @@
         <v>273</v>
       </c>
       <c r="Z89" t="s">
-        <v>591</v>
+        <v>485</v>
       </c>
     </row>
     <row r="90">
@@ -25183,7 +25853,7 @@
         <v>290</v>
       </c>
       <c r="Z90" t="s">
-        <v>197</v>
+        <v>591</v>
       </c>
     </row>
     <row r="91">
@@ -25191,7 +25861,7 @@
         <v>274</v>
       </c>
       <c r="Z91" t="s">
-        <v>454</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
@@ -25199,7 +25869,7 @@
         <v>275</v>
       </c>
       <c r="Z92" t="s">
-        <v>198</v>
+        <v>454</v>
       </c>
     </row>
     <row r="93">
@@ -25207,7 +25877,7 @@
         <v>308</v>
       </c>
       <c r="Z93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94">
@@ -25215,7 +25885,7 @@
         <v>314</v>
       </c>
       <c r="Z94" t="s">
-        <v>576</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95">
@@ -25223,7 +25893,7 @@
         <v>297</v>
       </c>
       <c r="Z95" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="96">
@@ -25231,7 +25901,7 @@
         <v>342</v>
       </c>
       <c r="Z96" t="s">
-        <v>216</v>
+        <v>577</v>
       </c>
     </row>
     <row r="97">
@@ -25239,7 +25909,7 @@
         <v>279</v>
       </c>
       <c r="Z97" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98">
@@ -25247,206 +25917,236 @@
         <v>280</v>
       </c>
       <c r="Z98" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>431</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>589</v>
+        <v>431</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>438</v>
+        <v>590</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>583</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>95</v>
+        <v>583</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>384</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>96</v>
+        <v>536</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>97</v>
+        <v>384</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>100</v>
+        <v>596</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>103</v>
+        <v>597</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>445</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>109</v>
+        <v>598</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>573</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>112</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>113</v>
+        <v>573</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138">
       <c r="Z138" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -24,7 +24,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19553" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20130" uniqueCount="604">
   <si>
     <t>description</t>
   </si>
@@ -1879,6 +1879,12 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1892,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="570" x14ac:knownFonts="1">
+  <fonts count="586" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5493,8 +5499,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="967">
+  <fills count="994">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10970,8 +11077,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1077">
+  <borders count="1109">
     <border>
       <left/>
       <right/>
@@ -14897,6 +15157,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -21956,7 +22542,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="598">
+  <cellXfs count="614">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -23721,52 +24307,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="939" fontId="553" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="942" borderId="1052" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1052" fillId="942" fontId="554" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="555" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="556" fillId="945" borderId="1056" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1056" fillId="945" fontId="556" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="557" fillId="948" borderId="1060" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1060" fillId="948" fontId="557" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="558" fillId="951" borderId="1064" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1064" fillId="951" fontId="558" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="559" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="559" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="560" fillId="954" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="954" fontId="560" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="561" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="561" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="562" fillId="957" borderId="1068" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1068" fillId="957" fontId="562" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="563" fillId="948" borderId="1072" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1072" fillId="948" fontId="563" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="564" fillId="960" borderId="1076" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1076" fillId="960" fontId="564" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="565" fillId="960" borderId="1076" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1076" fillId="960" fontId="565" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="566" fillId="951" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="951" fontId="566" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="567" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="963" fontId="567" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="568" fillId="951" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="951" fontId="568" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="569" fillId="966" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="966" fontId="569" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="969" borderId="1084" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="972" borderId="1088" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="975" borderId="1092" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="978" borderId="1096" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="981" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="984" borderId="1100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="975" borderId="1104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="987" borderId="1108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="987" borderId="1108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="978" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="990" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="978" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="993" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24817,7 +25451,7 @@
         <v>309</v>
       </c>
       <c r="I10" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="L10" t="s">
         <v>166</v>
@@ -24861,7 +25495,7 @@
         <v>353</v>
       </c>
       <c r="I11" t="s">
-        <v>453</v>
+        <v>603</v>
       </c>
       <c r="L11" t="s">
         <v>145</v>
@@ -24899,7 +25533,7 @@
         <v>276</v>
       </c>
       <c r="I12" t="s">
-        <v>324</v>
+        <v>453</v>
       </c>
       <c r="L12" t="s">
         <v>530</v>
@@ -24937,7 +25571,7 @@
         <v>265</v>
       </c>
       <c r="I13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L13" t="s">
         <v>391</v>
@@ -24972,7 +25606,7 @@
         <v>319</v>
       </c>
       <c r="I14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L14" t="s">
         <v>146</v>
@@ -25007,7 +25641,7 @@
         <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L15" t="s">
         <v>147</v>
@@ -25040,6 +25674,9 @@
       </c>
       <c r="H16" t="s">
         <v>267</v>
+      </c>
+      <c r="I16" t="s">
+        <v>327</v>
       </c>
       <c r="L16" t="s">
         <v>531</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -26,7 +26,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -43,17 +43,18 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20130" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21300" uniqueCount="613">
   <si>
     <t>description</t>
   </si>
@@ -1885,6 +1886,33 @@
   </si>
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1892,7 +1920,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="586" x14ac:knownFonts="1">
+  <fonts count="618" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5600,8 +5628,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="994">
+  <fills count="1048">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11230,8 +11460,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1109">
+  <borders count="1173">
     <border>
       <left/>
       <right/>
@@ -15157,6 +15693,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -22542,7 +23730,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="614">
+  <cellXfs count="646">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24355,52 +25543,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="966" fontId="569" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="570" fillId="969" borderId="1084" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="571" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1084" fillId="969" fontId="570" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="571" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="572" fillId="972" borderId="1088" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1088" fillId="972" fontId="572" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="573" fillId="975" borderId="1092" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1092" fillId="975" fontId="573" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="574" fillId="978" borderId="1096" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1096" fillId="978" fontId="574" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="575" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="575" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="576" fillId="981" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="981" fontId="576" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="577" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="578" fillId="984" borderId="1100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="579" fillId="975" borderId="1104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="580" fillId="987" borderId="1108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="581" fillId="987" borderId="1108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="582" fillId="978" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="583" fillId="990" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="584" fillId="978" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="585" fillId="993" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="577" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1100" fillId="984" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1104" fillId="975" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1108" fillId="987" fontId="580" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1108" fillId="987" fontId="581" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="978" fontId="582" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="990" fontId="583" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="978" fontId="584" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="993" fontId="585" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1116" fillId="996" fontId="586" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="587" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1120" fillId="999" fontId="588" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1124" fillId="1002" fontId="589" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1128" fillId="1005" fontId="590" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="591" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1008" fontId="592" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="593" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1132" fillId="1011" fontId="594" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1136" fillId="1002" fontId="595" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1140" fillId="1014" fontId="596" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1140" fillId="1014" fontId="597" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1005" fontId="598" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="599" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1005" fontId="600" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1020" fontId="601" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="1023" borderId="1148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="1026" borderId="1152" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="1029" borderId="1156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="1032" borderId="1160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="1035" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="1038" borderId="1164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="1029" borderId="1168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="1041" borderId="1172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="1041" borderId="1172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="1032" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="1032" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="1047" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24753,7 +26037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -24845,21 +26129,24 @@
         <v>397</v>
       </c>
       <c r="Z1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA1" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>129</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>415</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -24895,7 +26182,7 @@
         <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>467</v>
+        <v>611</v>
       </c>
       <c r="L2" t="s">
         <v>318</v>
@@ -24940,21 +26227,24 @@
         <v>398</v>
       </c>
       <c r="Z2" t="s">
+        <v>606</v>
+      </c>
+      <c r="AA2" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>117</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>122</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>131</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>432</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>516</v>
       </c>
     </row>
@@ -25026,21 +26316,24 @@
         <v>399</v>
       </c>
       <c r="Z3" t="s">
+        <v>607</v>
+      </c>
+      <c r="AA3" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>118</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>123</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>365</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>130</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -25109,21 +26402,24 @@
         <v>400</v>
       </c>
       <c r="Z4" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA4" t="s">
         <v>588</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>119</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>124</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>130</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>433</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -25183,21 +26479,24 @@
         <v>360</v>
       </c>
       <c r="Z5" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA5" t="s">
         <v>581</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>120</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>600</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>132</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>434</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -25227,7 +26526,7 @@
         <v>586</v>
       </c>
       <c r="K6" t="s">
-        <v>349</v>
+        <v>612</v>
       </c>
       <c r="L6" t="s">
         <v>463</v>
@@ -25254,21 +26553,24 @@
         <v>362</v>
       </c>
       <c r="Z6" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA6" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>446</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>125</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>133</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>435</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -25289,7 +26591,7 @@
         <v>448</v>
       </c>
       <c r="K7" t="s">
-        <v>556</v>
+        <v>349</v>
       </c>
       <c r="L7" t="s">
         <v>173</v>
@@ -25315,22 +26617,22 @@
       <c r="X7" t="s">
         <v>361</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>46</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>447</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>126</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>134</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>436</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>559</v>
       </c>
     </row>
@@ -25350,6 +26652,9 @@
       <c r="I8" t="s">
         <v>330</v>
       </c>
+      <c r="K8" t="s">
+        <v>556</v>
+      </c>
       <c r="L8" t="s">
         <v>144</v>
       </c>
@@ -25371,22 +26676,22 @@
       <c r="X8" t="s">
         <v>363</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>47</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>121</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>127</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>135</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>437</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>560</v>
       </c>
     </row>
@@ -25427,16 +26732,16 @@
       <c r="X9" t="s">
         <v>364</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>206</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>128</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>179</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>561</v>
       </c>
     </row>
@@ -25471,16 +26776,16 @@
       <c r="U10" t="s">
         <v>410</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>259</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>601</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>180</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -25512,13 +26817,13 @@
       <c r="S11" t="s">
         <v>249</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>260</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>261</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -25550,13 +26855,13 @@
       <c r="S12" t="s">
         <v>250</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>48</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>136</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -25585,13 +26890,13 @@
       <c r="S13" t="s">
         <v>593</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>328</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>137</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>475</v>
       </c>
     </row>
@@ -25620,13 +26925,13 @@
       <c r="S14" t="s">
         <v>255</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>49</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>138</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>517</v>
       </c>
     </row>
@@ -25655,13 +26960,13 @@
       <c r="S15" t="s">
         <v>251</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>594</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>139</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>518</v>
       </c>
     </row>
@@ -25690,13 +26995,13 @@
       <c r="S16" t="s">
         <v>252</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>50</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>140</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>522</v>
       </c>
     </row>
@@ -25719,13 +27024,13 @@
       <c r="S17" t="s">
         <v>253</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>42</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>464</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>523</v>
       </c>
     </row>
@@ -25745,10 +27050,10 @@
       <c r="N18" t="s">
         <v>192</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>527</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>476</v>
       </c>
     </row>
@@ -25765,10 +27070,10 @@
       <c r="L19" t="s">
         <v>457</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>51</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>519</v>
       </c>
     </row>
@@ -25785,10 +27090,10 @@
       <c r="L20" t="s">
         <v>169</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>52</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>520</v>
       </c>
     </row>
@@ -25805,10 +27110,10 @@
       <c r="L21" t="s">
         <v>170</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>53</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>524</v>
       </c>
     </row>
@@ -25825,10 +27130,10 @@
       <c r="L22" t="s">
         <v>585</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>54</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -25845,10 +27150,10 @@
       <c r="L23" t="s">
         <v>471</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>483</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>562</v>
       </c>
     </row>
@@ -25865,10 +27170,10 @@
       <c r="L24" t="s">
         <v>148</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>55</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>563</v>
       </c>
     </row>
@@ -25885,16 +27190,16 @@
       <c r="L25" t="s">
         <v>393</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>571</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>604</v>
       </c>
       <c r="F26" t="s">
         <v>450</v>
@@ -25905,16 +27210,16 @@
       <c r="L26" t="s">
         <v>549</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>56</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
         <v>226</v>
@@ -25925,16 +27230,16 @@
       <c r="L27" t="s">
         <v>149</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>57</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
         <v>227</v>
@@ -25945,13 +27250,13 @@
       <c r="L28" t="s">
         <v>441</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
         <v>469</v>
@@ -25962,13 +27267,13 @@
       <c r="L29" t="s">
         <v>150</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>415</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
         <v>470</v>
@@ -25979,13 +27284,13 @@
       <c r="L30" t="s">
         <v>151</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>415</v>
       </c>
       <c r="F31" t="s">
         <v>417</v>
@@ -25993,18 +27298,21 @@
       <c r="H31" t="s">
         <v>213</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>228</v>
+      </c>
       <c r="F32" t="s">
         <v>156</v>
       </c>
       <c r="H32" t="s">
         <v>277</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>61</v>
       </c>
     </row>
@@ -26015,7 +27323,7 @@
       <c r="H33" t="s">
         <v>287</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>62</v>
       </c>
     </row>
@@ -26026,7 +27334,7 @@
       <c r="H34" t="s">
         <v>533</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>63</v>
       </c>
     </row>
@@ -26037,7 +27345,7 @@
       <c r="H35" t="s">
         <v>262</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>572</v>
       </c>
     </row>
@@ -26048,7 +27356,7 @@
       <c r="H36" t="s">
         <v>332</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>64</v>
       </c>
     </row>
@@ -26059,7 +27367,7 @@
       <c r="H37" t="s">
         <v>310</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>65</v>
       </c>
     </row>
@@ -26070,7 +27378,7 @@
       <c r="H38" t="s">
         <v>263</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>207</v>
       </c>
     </row>
@@ -26081,7 +27389,7 @@
       <c r="H39" t="s">
         <v>311</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>66</v>
       </c>
     </row>
@@ -26089,7 +27397,7 @@
       <c r="H40" t="s">
         <v>269</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>340</v>
       </c>
     </row>
@@ -26097,7 +27405,7 @@
       <c r="H41" t="s">
         <v>155</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>430</v>
       </c>
     </row>
@@ -26105,7 +27413,7 @@
       <c r="H42" t="s">
         <v>212</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>582</v>
       </c>
     </row>
@@ -26113,7 +27421,7 @@
       <c r="H43" t="s">
         <v>568</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>394</v>
       </c>
     </row>
@@ -26121,7 +27429,7 @@
       <c r="H44" t="s">
         <v>291</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>67</v>
       </c>
     </row>
@@ -26129,7 +27437,7 @@
       <c r="H45" t="s">
         <v>302</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>68</v>
       </c>
     </row>
@@ -26137,7 +27445,7 @@
       <c r="H46" t="s">
         <v>303</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>69</v>
       </c>
     </row>
@@ -26145,7 +27453,7 @@
       <c r="H47" t="s">
         <v>345</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>70</v>
       </c>
     </row>
@@ -26153,7 +27461,7 @@
       <c r="H48" t="s">
         <v>344</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>71</v>
       </c>
     </row>
@@ -26161,7 +27469,7 @@
       <c r="H49" t="s">
         <v>208</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>72</v>
       </c>
     </row>
@@ -26169,7 +27477,7 @@
       <c r="H50" t="s">
         <v>304</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>443</v>
       </c>
     </row>
@@ -26177,7 +27485,7 @@
       <c r="H51" t="s">
         <v>341</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>214</v>
       </c>
     </row>
@@ -26185,7 +27493,7 @@
       <c r="H52" t="s">
         <v>369</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>73</v>
       </c>
     </row>
@@ -26193,7 +27501,7 @@
       <c r="H53" t="s">
         <v>305</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>558</v>
       </c>
     </row>
@@ -26201,7 +27509,7 @@
       <c r="H54" t="s">
         <v>357</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>74</v>
       </c>
     </row>
@@ -26209,7 +27517,7 @@
       <c r="H55" t="s">
         <v>333</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>75</v>
       </c>
     </row>
@@ -26217,7 +27525,7 @@
       <c r="H56" t="s">
         <v>270</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>76</v>
       </c>
     </row>
@@ -26225,7 +27533,7 @@
       <c r="H57" t="s">
         <v>294</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>484</v>
       </c>
     </row>
@@ -26233,7 +27541,7 @@
       <c r="H58" t="s">
         <v>295</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>466</v>
       </c>
     </row>
@@ -26241,7 +27549,7 @@
       <c r="H59" t="s">
         <v>569</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26249,7 +27557,7 @@
       <c r="H60" t="s">
         <v>296</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>348</v>
       </c>
     </row>
@@ -26257,7 +27565,7 @@
       <c r="H61" t="s">
         <v>306</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>460</v>
       </c>
     </row>
@@ -26265,7 +27573,7 @@
       <c r="H62" t="s">
         <v>315</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>78</v>
       </c>
     </row>
@@ -26273,7 +27581,7 @@
       <c r="H63" t="s">
         <v>339</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>79</v>
       </c>
     </row>
@@ -26281,7 +27589,7 @@
       <c r="H64" t="s">
         <v>312</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>80</v>
       </c>
     </row>
@@ -26289,7 +27597,7 @@
       <c r="H65" t="s">
         <v>313</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>81</v>
       </c>
     </row>
@@ -26297,7 +27605,7 @@
       <c r="H66" t="s">
         <v>370</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>82</v>
       </c>
     </row>
@@ -26305,7 +27613,7 @@
       <c r="H67" t="s">
         <v>371</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>83</v>
       </c>
     </row>
@@ -26313,7 +27621,7 @@
       <c r="H68" t="s">
         <v>347</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>84</v>
       </c>
     </row>
@@ -26321,7 +27629,7 @@
       <c r="H69" t="s">
         <v>316</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>439</v>
       </c>
     </row>
@@ -26329,7 +27637,7 @@
       <c r="H70" t="s">
         <v>271</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>474</v>
       </c>
     </row>
@@ -26337,7 +27645,7 @@
       <c r="H71" t="s">
         <v>554</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>215</v>
       </c>
     </row>
@@ -26345,7 +27653,7 @@
       <c r="H72" t="s">
         <v>317</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>390</v>
       </c>
     </row>
@@ -26353,7 +27661,7 @@
       <c r="H73" t="s">
         <v>411</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>444</v>
       </c>
     </row>
@@ -26361,7 +27669,7 @@
       <c r="H74" t="s">
         <v>307</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>85</v>
       </c>
     </row>
@@ -26369,7 +27677,7 @@
       <c r="H75" t="s">
         <v>412</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>86</v>
       </c>
     </row>
@@ -26377,7 +27685,7 @@
       <c r="H76" t="s">
         <v>264</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>87</v>
       </c>
     </row>
@@ -26385,7 +27693,7 @@
       <c r="H77" t="s">
         <v>534</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>88</v>
       </c>
     </row>
@@ -26393,7 +27701,7 @@
       <c r="H78" t="s">
         <v>346</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>194</v>
       </c>
     </row>
@@ -26401,7 +27709,7 @@
       <c r="H79" t="s">
         <v>282</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>195</v>
       </c>
     </row>
@@ -26409,7 +27717,7 @@
       <c r="H80" t="s">
         <v>288</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>455</v>
       </c>
     </row>
@@ -26417,7 +27725,7 @@
       <c r="H81" t="s">
         <v>293</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>468</v>
       </c>
     </row>
@@ -26425,7 +27733,7 @@
       <c r="H82" t="s">
         <v>418</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>89</v>
       </c>
     </row>
@@ -26433,7 +27741,7 @@
       <c r="H83" t="s">
         <v>334</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>90</v>
       </c>
     </row>
@@ -26441,7 +27749,7 @@
       <c r="H84" t="s">
         <v>272</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>91</v>
       </c>
     </row>
@@ -26449,7 +27757,7 @@
       <c r="H85" t="s">
         <v>283</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>521</v>
       </c>
     </row>
@@ -26457,7 +27765,7 @@
       <c r="H86" t="s">
         <v>289</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>92</v>
       </c>
     </row>
@@ -26465,7 +27773,7 @@
       <c r="H87" t="s">
         <v>278</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>93</v>
       </c>
     </row>
@@ -26473,7 +27781,7 @@
       <c r="H88" t="s">
         <v>555</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>196</v>
       </c>
     </row>
@@ -26481,7 +27789,7 @@
       <c r="H89" t="s">
         <v>273</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>485</v>
       </c>
     </row>
@@ -26489,7 +27797,7 @@
       <c r="H90" t="s">
         <v>290</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>591</v>
       </c>
     </row>
@@ -26497,7 +27805,7 @@
       <c r="H91" t="s">
         <v>274</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>197</v>
       </c>
     </row>
@@ -26505,7 +27813,7 @@
       <c r="H92" t="s">
         <v>275</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>454</v>
       </c>
     </row>
@@ -26513,7 +27821,7 @@
       <c r="H93" t="s">
         <v>308</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>198</v>
       </c>
     </row>
@@ -26521,7 +27829,7 @@
       <c r="H94" t="s">
         <v>314</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>199</v>
       </c>
     </row>
@@ -26529,7 +27837,7 @@
       <c r="H95" t="s">
         <v>297</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>576</v>
       </c>
     </row>
@@ -26537,7 +27845,7 @@
       <c r="H96" t="s">
         <v>342</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>577</v>
       </c>
     </row>
@@ -26545,7 +27853,7 @@
       <c r="H97" t="s">
         <v>279</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>216</v>
       </c>
     </row>
@@ -26553,237 +27861,237 @@
       <c r="H98" t="s">
         <v>280</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -37,24 +37,25 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
     <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21300" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21887" uniqueCount="623">
   <si>
     <t>description</t>
   </si>
@@ -1913,6 +1914,36 @@
   </si>
   <si>
     <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1951,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="618" x14ac:knownFonts="1">
+  <fonts count="634" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5830,8 +5861,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1048">
+  <fills count="1075">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11766,8 +11898,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1173">
+  <borders count="1205">
     <border>
       <left/>
       <right/>
@@ -15693,6 +15978,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -23730,7 +24341,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="646">
+  <cellXfs count="662">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25639,52 +26250,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1020" fontId="601" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="602" fillId="1023" borderId="1148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1148" fillId="1023" fontId="602" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="603" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="604" fillId="1026" borderId="1152" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1152" fillId="1026" fontId="604" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="605" fillId="1029" borderId="1156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1156" fillId="1029" fontId="605" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="606" fillId="1032" borderId="1160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1160" fillId="1032" fontId="606" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="607" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="608" fillId="1035" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1035" fontId="608" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="609" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="610" fillId="1038" borderId="1164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="611" fillId="1029" borderId="1168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="612" fillId="1041" borderId="1172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="613" fillId="1041" borderId="1172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="614" fillId="1032" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="615" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="616" fillId="1032" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="617" fillId="1047" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="609" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1164" fillId="1038" fontId="610" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1168" fillId="1029" fontId="611" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1172" fillId="1041" fontId="612" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1172" fillId="1041" fontId="613" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1032" fontId="614" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1044" fontId="615" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1032" fontId="616" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1047" fontId="617" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="1050" borderId="1180" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1053" borderId="1184" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="1056" borderId="1188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="1059" borderId="1192" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="1062" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="1065" borderId="1196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="1056" borderId="1200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="1068" borderId="1204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="1068" borderId="1204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="1074" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26037,7 +26696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -26129,7 +26788,7 @@
         <v>397</v>
       </c>
       <c r="Z1" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="AA1" t="s">
         <v>30</v>
@@ -26209,7 +26868,7 @@
         <v>254</v>
       </c>
       <c r="T2" t="s">
-        <v>217</v>
+        <v>615</v>
       </c>
       <c r="U2" t="s">
         <v>402</v>
@@ -26227,7 +26886,7 @@
         <v>398</v>
       </c>
       <c r="Z2" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="AA2" t="s">
         <v>43</v>
@@ -26301,7 +26960,7 @@
         <v>241</v>
       </c>
       <c r="T3" t="s">
-        <v>218</v>
+        <v>616</v>
       </c>
       <c r="U3" t="s">
         <v>403</v>
@@ -26316,7 +26975,7 @@
         <v>399</v>
       </c>
       <c r="Z3" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="AA3" t="s">
         <v>44</v>
@@ -26387,7 +27046,7 @@
         <v>242</v>
       </c>
       <c r="T4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="U4" t="s">
         <v>404</v>
@@ -26402,7 +27061,7 @@
         <v>400</v>
       </c>
       <c r="Z4" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="AA4" t="s">
         <v>588</v>
@@ -26467,7 +27126,7 @@
         <v>243</v>
       </c>
       <c r="T5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="U5" t="s">
         <v>405</v>
@@ -26477,9 +27136,6 @@
       </c>
       <c r="X5" t="s">
         <v>360</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>609</v>
       </c>
       <c r="AA5" t="s">
         <v>581</v>
@@ -26544,16 +27200,13 @@
         <v>244</v>
       </c>
       <c r="T6" t="s">
-        <v>392</v>
+        <v>219</v>
       </c>
       <c r="U6" t="s">
         <v>406</v>
       </c>
       <c r="X6" t="s">
         <v>362</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>610</v>
       </c>
       <c r="AA6" t="s">
         <v>45</v>
@@ -26609,7 +27262,7 @@
         <v>245</v>
       </c>
       <c r="T7" t="s">
-        <v>424</v>
+        <v>220</v>
       </c>
       <c r="U7" t="s">
         <v>407</v>
@@ -26670,6 +27323,9 @@
       <c r="S8" t="s">
         <v>246</v>
       </c>
+      <c r="T8" t="s">
+        <v>392</v>
+      </c>
       <c r="U8" t="s">
         <v>408</v>
       </c>
@@ -26726,6 +27382,9 @@
       <c r="S9" t="s">
         <v>247</v>
       </c>
+      <c r="T9" t="s">
+        <v>424</v>
+      </c>
       <c r="U9" t="s">
         <v>409</v>
       </c>
@@ -26847,7 +27506,7 @@
         <v>557</v>
       </c>
       <c r="O12" t="s">
-        <v>543</v>
+        <v>614</v>
       </c>
       <c r="R12" t="s">
         <v>26</v>
@@ -26884,6 +27543,9 @@
       <c r="N13" t="s">
         <v>442</v>
       </c>
+      <c r="O13" t="s">
+        <v>543</v>
+      </c>
       <c r="R13" t="s">
         <v>163</v>
       </c>
@@ -26961,7 +27623,7 @@
         <v>251</v>
       </c>
       <c r="AA15" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
       <c r="AD15" t="s">
         <v>139</v>
@@ -26996,7 +27658,7 @@
         <v>252</v>
       </c>
       <c r="AA16" t="s">
-        <v>50</v>
+        <v>594</v>
       </c>
       <c r="AD16" t="s">
         <v>140</v>
@@ -27025,7 +27687,7 @@
         <v>253</v>
       </c>
       <c r="AA17" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AD17" t="s">
         <v>464</v>
@@ -27051,7 +27713,7 @@
         <v>192</v>
       </c>
       <c r="AA18" t="s">
-        <v>527</v>
+        <v>42</v>
       </c>
       <c r="AF18" t="s">
         <v>476</v>
@@ -27071,7 +27733,7 @@
         <v>457</v>
       </c>
       <c r="AA19" t="s">
-        <v>51</v>
+        <v>527</v>
       </c>
       <c r="AF19" t="s">
         <v>519</v>
@@ -27091,7 +27753,7 @@
         <v>169</v>
       </c>
       <c r="AA20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF20" t="s">
         <v>520</v>
@@ -27111,7 +27773,7 @@
         <v>170</v>
       </c>
       <c r="AA21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF21" t="s">
         <v>524</v>
@@ -27131,7 +27793,7 @@
         <v>585</v>
       </c>
       <c r="AA22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF22" t="s">
         <v>236</v>
@@ -27151,7 +27813,7 @@
         <v>471</v>
       </c>
       <c r="AA23" t="s">
-        <v>483</v>
+        <v>54</v>
       </c>
       <c r="AF23" t="s">
         <v>562</v>
@@ -27171,7 +27833,7 @@
         <v>148</v>
       </c>
       <c r="AA24" t="s">
-        <v>55</v>
+        <v>483</v>
       </c>
       <c r="AF24" t="s">
         <v>563</v>
@@ -27191,7 +27853,7 @@
         <v>393</v>
       </c>
       <c r="AA25" t="s">
-        <v>571</v>
+        <v>55</v>
       </c>
       <c r="AF25" t="s">
         <v>564</v>
@@ -27199,7 +27861,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="F26" t="s">
         <v>450</v>
@@ -27211,7 +27873,7 @@
         <v>549</v>
       </c>
       <c r="AA26" t="s">
-        <v>56</v>
+        <v>571</v>
       </c>
       <c r="AF26" t="s">
         <v>237</v>
@@ -27231,7 +27893,7 @@
         <v>149</v>
       </c>
       <c r="AA27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF27" t="s">
         <v>238</v>
@@ -27251,7 +27913,7 @@
         <v>441</v>
       </c>
       <c r="AA28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -27268,7 +27930,7 @@
         <v>150</v>
       </c>
       <c r="AA29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -27285,7 +27947,7 @@
         <v>151</v>
       </c>
       <c r="AA30" t="s">
-        <v>329</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
@@ -27299,7 +27961,7 @@
         <v>213</v>
       </c>
       <c r="AA31" t="s">
-        <v>60</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32">
@@ -27313,7 +27975,7 @@
         <v>277</v>
       </c>
       <c r="AA32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
@@ -27324,7 +27986,7 @@
         <v>287</v>
       </c>
       <c r="AA33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
@@ -27335,7 +27997,7 @@
         <v>533</v>
       </c>
       <c r="AA34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35">
@@ -27346,7 +28008,7 @@
         <v>262</v>
       </c>
       <c r="AA35" t="s">
-        <v>572</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36">
@@ -27357,7 +28019,7 @@
         <v>332</v>
       </c>
       <c r="AA36" t="s">
-        <v>64</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37">
@@ -27368,7 +28030,7 @@
         <v>310</v>
       </c>
       <c r="AA37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -27379,7 +28041,7 @@
         <v>263</v>
       </c>
       <c r="AA38" t="s">
-        <v>207</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39">
@@ -27390,7 +28052,7 @@
         <v>311</v>
       </c>
       <c r="AA39" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40">
@@ -27398,7 +28060,7 @@
         <v>269</v>
       </c>
       <c r="AA40" t="s">
-        <v>340</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41">
@@ -27406,7 +28068,7 @@
         <v>155</v>
       </c>
       <c r="AA41" t="s">
-        <v>430</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42">
@@ -27414,7 +28076,7 @@
         <v>212</v>
       </c>
       <c r="AA42" t="s">
-        <v>582</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43">
@@ -27422,7 +28084,7 @@
         <v>568</v>
       </c>
       <c r="AA43" t="s">
-        <v>394</v>
+        <v>582</v>
       </c>
     </row>
     <row r="44">
@@ -27430,7 +28092,7 @@
         <v>291</v>
       </c>
       <c r="AA44" t="s">
-        <v>67</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45">
@@ -27438,7 +28100,7 @@
         <v>302</v>
       </c>
       <c r="AA45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
@@ -27446,7 +28108,7 @@
         <v>303</v>
       </c>
       <c r="AA46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47">
@@ -27454,7 +28116,7 @@
         <v>345</v>
       </c>
       <c r="AA47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48">
@@ -27462,7 +28124,7 @@
         <v>344</v>
       </c>
       <c r="AA48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
@@ -27470,7 +28132,7 @@
         <v>208</v>
       </c>
       <c r="AA49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50">
@@ -27478,7 +28140,7 @@
         <v>304</v>
       </c>
       <c r="AA50" t="s">
-        <v>443</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
@@ -27486,7 +28148,7 @@
         <v>341</v>
       </c>
       <c r="AA51" t="s">
-        <v>214</v>
+        <v>621</v>
       </c>
     </row>
     <row r="52">
@@ -27494,7 +28156,7 @@
         <v>369</v>
       </c>
       <c r="AA52" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53">
@@ -27502,7 +28164,7 @@
         <v>305</v>
       </c>
       <c r="AA53" t="s">
-        <v>558</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54">
@@ -27510,7 +28172,7 @@
         <v>357</v>
       </c>
       <c r="AA54" t="s">
-        <v>74</v>
+        <v>558</v>
       </c>
     </row>
     <row r="55">
@@ -27518,7 +28180,7 @@
         <v>333</v>
       </c>
       <c r="AA55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
@@ -27526,7 +28188,7 @@
         <v>270</v>
       </c>
       <c r="AA56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57">
@@ -27534,7 +28196,7 @@
         <v>294</v>
       </c>
       <c r="AA57" t="s">
-        <v>484</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
@@ -27542,7 +28204,7 @@
         <v>295</v>
       </c>
       <c r="AA58" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59">
@@ -27550,7 +28212,7 @@
         <v>569</v>
       </c>
       <c r="AA59" t="s">
-        <v>77</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60">
@@ -27558,7 +28220,7 @@
         <v>296</v>
       </c>
       <c r="AA60" t="s">
-        <v>348</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61">
@@ -27566,7 +28228,7 @@
         <v>306</v>
       </c>
       <c r="AA61" t="s">
-        <v>460</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62">
@@ -27574,7 +28236,7 @@
         <v>315</v>
       </c>
       <c r="AA62" t="s">
-        <v>78</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63">
@@ -27582,7 +28244,7 @@
         <v>339</v>
       </c>
       <c r="AA63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
@@ -27590,7 +28252,7 @@
         <v>312</v>
       </c>
       <c r="AA64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65">
@@ -27598,7 +28260,7 @@
         <v>313</v>
       </c>
       <c r="AA65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
@@ -27606,7 +28268,7 @@
         <v>370</v>
       </c>
       <c r="AA66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67">
@@ -27614,7 +28276,7 @@
         <v>371</v>
       </c>
       <c r="AA67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68">
@@ -27622,7 +28284,7 @@
         <v>347</v>
       </c>
       <c r="AA68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69">
@@ -27630,7 +28292,7 @@
         <v>316</v>
       </c>
       <c r="AA69" t="s">
-        <v>439</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70">
@@ -27638,7 +28300,7 @@
         <v>271</v>
       </c>
       <c r="AA70" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71">
@@ -27646,7 +28308,7 @@
         <v>554</v>
       </c>
       <c r="AA71" t="s">
-        <v>215</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72">
@@ -27654,7 +28316,7 @@
         <v>317</v>
       </c>
       <c r="AA72" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73">
@@ -27662,7 +28324,7 @@
         <v>411</v>
       </c>
       <c r="AA73" t="s">
-        <v>444</v>
+        <v>390</v>
       </c>
     </row>
     <row r="74">
@@ -27670,7 +28332,7 @@
         <v>307</v>
       </c>
       <c r="AA74" t="s">
-        <v>85</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75">
@@ -27678,7 +28340,7 @@
         <v>412</v>
       </c>
       <c r="AA75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
@@ -27686,7 +28348,7 @@
         <v>264</v>
       </c>
       <c r="AA76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77">
@@ -27694,7 +28356,7 @@
         <v>534</v>
       </c>
       <c r="AA77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78">
@@ -27702,7 +28364,7 @@
         <v>346</v>
       </c>
       <c r="AA78" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79">
@@ -27710,7 +28372,7 @@
         <v>282</v>
       </c>
       <c r="AA79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80">
@@ -27718,7 +28380,7 @@
         <v>288</v>
       </c>
       <c r="AA80" t="s">
-        <v>455</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81">
@@ -27726,7 +28388,7 @@
         <v>293</v>
       </c>
       <c r="AA81" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="82">
@@ -27734,7 +28396,7 @@
         <v>418</v>
       </c>
       <c r="AA82" t="s">
-        <v>89</v>
+        <v>468</v>
       </c>
     </row>
     <row r="83">
@@ -27742,7 +28404,7 @@
         <v>334</v>
       </c>
       <c r="AA83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84">
@@ -27750,7 +28412,7 @@
         <v>272</v>
       </c>
       <c r="AA84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85">
@@ -27758,7 +28420,7 @@
         <v>283</v>
       </c>
       <c r="AA85" t="s">
-        <v>521</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86">
@@ -27766,7 +28428,7 @@
         <v>289</v>
       </c>
       <c r="AA86" t="s">
-        <v>92</v>
+        <v>521</v>
       </c>
     </row>
     <row r="87">
@@ -27774,7 +28436,7 @@
         <v>278</v>
       </c>
       <c r="AA87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
@@ -27782,7 +28444,7 @@
         <v>555</v>
       </c>
       <c r="AA88" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
@@ -27790,7 +28452,7 @@
         <v>273</v>
       </c>
       <c r="AA89" t="s">
-        <v>485</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90">
@@ -27798,7 +28460,7 @@
         <v>290</v>
       </c>
       <c r="AA90" t="s">
-        <v>591</v>
+        <v>485</v>
       </c>
     </row>
     <row r="91">
@@ -27806,7 +28468,7 @@
         <v>274</v>
       </c>
       <c r="AA91" t="s">
-        <v>197</v>
+        <v>591</v>
       </c>
     </row>
     <row r="92">
@@ -27814,7 +28476,7 @@
         <v>275</v>
       </c>
       <c r="AA92" t="s">
-        <v>454</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93">
@@ -27822,7 +28484,7 @@
         <v>308</v>
       </c>
       <c r="AA93" t="s">
-        <v>198</v>
+        <v>454</v>
       </c>
     </row>
     <row r="94">
@@ -27830,7 +28492,7 @@
         <v>314</v>
       </c>
       <c r="AA94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95">
@@ -27838,7 +28500,7 @@
         <v>297</v>
       </c>
       <c r="AA95" t="s">
-        <v>576</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96">
@@ -27846,7 +28508,7 @@
         <v>342</v>
       </c>
       <c r="AA96" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="97">
@@ -27854,7 +28516,7 @@
         <v>279</v>
       </c>
       <c r="AA97" t="s">
-        <v>216</v>
+        <v>577</v>
       </c>
     </row>
     <row r="98">
@@ -27862,236 +28524,241 @@
         <v>280</v>
       </c>
       <c r="AA98" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>431</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>589</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>438</v>
+        <v>590</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>595</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>205</v>
+        <v>595</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>532</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>583</v>
+        <v>532</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>535</v>
+        <v>583</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>95</v>
+        <v>535</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>536</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>384</v>
+        <v>536</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>96</v>
+        <v>384</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>596</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>98</v>
+        <v>596</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>597</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>100</v>
+        <v>597</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>598</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>106</v>
+        <v>598</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>445</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>109</v>
+        <v>622</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>573</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>110</v>
+        <v>573</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>599</v>
+        <v>113</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>114</v>
+        <v>599</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nexial-Project\git\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="-21165" windowWidth="25605" windowHeight="21165" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21165" windowWidth="25605" xWindow="6285" yWindow="-21165"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="repeatUntil_take1" sheetId="5" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="repeatUntil_take1" r:id="rId2" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -38,7 +38,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -46,15 +46,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="653">
   <si>
     <t>description</t>
   </si>
@@ -1874,13 +1874,173 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1952,8 +2112,222 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1970,6 +2344,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2131,206 +2777,308 @@
     </border>
   </borders>
   <cellStyleXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="72">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="9" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="9" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="6" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="7" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="10" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="14" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="16" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="5"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="7"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="8"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="10"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="11"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="13"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="14"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="15"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="16"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="17"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="18"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="19"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="20"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="21"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="22"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="23"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="24"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="25"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="26"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="27"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="28"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="29"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="30"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="31"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2364,7 +3112,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2389,10 +3137,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2427,7 +3175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2462,7 +3210,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2556,21 +3304,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2587,7 +3335,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2639,30 +3387,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="8.5" customWidth="1" collapsed="1"/>
-    <col min="14" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="8.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.375" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" width="8.5" collapsed="true"/>
+    <col min="14" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2742,25 +3490,28 @@
         <v>589</v>
       </c>
       <c r="AA1" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>129</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>408</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>366</v>
       </c>
@@ -2840,25 +3591,28 @@
         <v>593</v>
       </c>
       <c r="AA2" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB2" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>117</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>122</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>131</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>425</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>452</v>
       </c>
@@ -2929,25 +3683,28 @@
         <v>594</v>
       </c>
       <c r="AA3" t="s">
+        <v>609</v>
+      </c>
+      <c r="AB3" t="s">
         <v>44</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>118</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>123</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>359</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>130</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>501</v>
       </c>
@@ -3015,25 +3772,28 @@
         <v>595</v>
       </c>
       <c r="AA4" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB4" t="s">
         <v>572</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>119</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>124</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>130</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>426</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>563</v>
       </c>
@@ -3089,25 +3849,28 @@
         <v>354</v>
       </c>
       <c r="AA5" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB5" t="s">
         <v>566</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>120</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>583</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>132</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>427</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3160,25 +3923,28 @@
         <v>356</v>
       </c>
       <c r="AA6" t="s">
+        <v>612</v>
+      </c>
+      <c r="AB6" t="s">
         <v>45</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>437</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>125</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>133</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>428</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -3222,25 +3988,28 @@
         <v>355</v>
       </c>
       <c r="AA7" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB7" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>438</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>126</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>134</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>429</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3284,25 +4053,28 @@
         <v>357</v>
       </c>
       <c r="AA8" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB8" t="s">
         <v>47</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>121</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>127</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>135</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>430</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -3343,19 +4115,22 @@
         <v>358</v>
       </c>
       <c r="AA9" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>128</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>178</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -3387,19 +4162,22 @@
         <v>403</v>
       </c>
       <c r="AA10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB10" t="s">
         <v>256</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>584</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>179</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -3425,19 +4203,22 @@
         <v>162</v>
       </c>
       <c r="S11" t="s">
-        <v>247</v>
+        <v>607</v>
       </c>
       <c r="AA11" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>258</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -3463,19 +4244,22 @@
         <v>26</v>
       </c>
       <c r="S12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA12" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB12" t="s">
         <v>48</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>136</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>332</v>
       </c>
@@ -3501,19 +4285,22 @@
         <v>163</v>
       </c>
       <c r="S13" t="s">
-        <v>576</v>
+        <v>248</v>
       </c>
       <c r="AA13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB13" t="s">
         <v>325</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>137</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>181</v>
       </c>
@@ -3536,19 +4323,22 @@
         <v>164</v>
       </c>
       <c r="S14" t="s">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="AA14" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB14" t="s">
         <v>49</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>138</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>527</v>
       </c>
@@ -3571,19 +4361,22 @@
         <v>515</v>
       </c>
       <c r="S15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AA15" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB15" t="s">
         <v>596</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>139</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>467</v>
       </c>
@@ -3606,19 +4399,22 @@
         <v>516</v>
       </c>
       <c r="S16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA16" t="s">
+        <v>622</v>
+      </c>
+      <c r="AB16" t="s">
         <v>577</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>140</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -3635,19 +4431,22 @@
         <v>190</v>
       </c>
       <c r="S17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA17" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB17" t="s">
         <v>50</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>455</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -3663,19 +4462,25 @@
       <c r="N18" t="s">
         <v>191</v>
       </c>
+      <c r="S18" t="s">
+        <v>251</v>
+      </c>
       <c r="AA18" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB18" t="s">
         <v>42</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>601</v>
       </c>
       <c r="H19" t="s">
         <v>177</v>
@@ -3684,18 +4489,21 @@
         <v>448</v>
       </c>
       <c r="AA19" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB19" t="s">
         <v>517</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>180</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>602</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -3704,18 +4512,21 @@
         <v>168</v>
       </c>
       <c r="AA20" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB20" t="s">
         <v>51</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>394</v>
       </c>
       <c r="F21" t="s">
-        <v>255</v>
+        <v>603</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
@@ -3724,18 +4535,21 @@
         <v>169</v>
       </c>
       <c r="AA21" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB21" t="s">
         <v>52</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>406</v>
       </c>
       <c r="F22" t="s">
-        <v>553</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -3744,18 +4558,21 @@
         <v>569</v>
       </c>
       <c r="AA22" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB22" t="s">
         <v>53</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>407</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -3764,18 +4581,21 @@
         <v>461</v>
       </c>
       <c r="AA23" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB23" t="s">
         <v>54</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -3784,18 +4604,21 @@
         <v>148</v>
       </c>
       <c r="AA24" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB24" t="s">
         <v>473</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>604</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -3804,948 +4627,1041 @@
         <v>386</v>
       </c>
       <c r="AA25" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB25" t="s">
         <v>55</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>589</v>
       </c>
       <c r="F26" t="s">
-        <v>441</v>
+        <v>553</v>
       </c>
       <c r="H26" t="s">
         <v>154</v>
       </c>
       <c r="L26" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="AA26" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB26" t="s">
         <v>557</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>149</v>
+        <v>538</v>
       </c>
       <c r="AA27" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB27" t="s">
         <v>56</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>320</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>434</v>
+        <v>149</v>
       </c>
       <c r="AA28" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>459</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>150</v>
+        <v>434</v>
       </c>
       <c r="AA29" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA30" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
-        <v>408</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>410</v>
+        <v>224</v>
       </c>
       <c r="H31" t="s">
         <v>211</v>
       </c>
+      <c r="L31" t="s">
+        <v>151</v>
+      </c>
       <c r="AA31" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB31" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>408</v>
       </c>
       <c r="F32" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
       </c>
       <c r="AA32" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="33">
+      <c r="A33" t="s">
+        <v>226</v>
+      </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>459</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
       </c>
       <c r="AA33" t="s">
+        <v>639</v>
+      </c>
+      <c r="AB33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="F34" t="s">
-        <v>40</v>
+        <v>460</v>
       </c>
       <c r="H34" t="s">
         <v>523</v>
       </c>
       <c r="AA34" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="F35" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
       </c>
       <c r="AA35" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
       </c>
       <c r="AA36" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB36" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="H37" t="s">
         <v>307</v>
       </c>
       <c r="AA37" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
       </c>
       <c r="AA38" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="F39" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H39" t="s">
         <v>308</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="40">
+      <c r="F40" t="s">
+        <v>158</v>
+      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="41">
+      <c r="F41" t="s">
+        <v>159</v>
+      </c>
       <c r="H41" t="s">
         <v>155</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="42">
+      <c r="F42" t="s">
+        <v>41</v>
+      </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="43">
+      <c r="F43" t="s">
+        <v>152</v>
+      </c>
       <c r="H43" t="s">
         <v>554</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="44">
+      <c r="F44" t="s">
+        <v>605</v>
+      </c>
       <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="H47" t="s">
         <v>342</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="H48" t="s">
         <v>341</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="H50" t="s">
         <v>301</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="H51" t="s">
         <v>338</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="H52" t="s">
         <v>363</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="H53" t="s">
         <v>302</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="H54" t="s">
         <v>351</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="H55" t="s">
         <v>330</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="H59" t="s">
         <v>555</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="H61" t="s">
         <v>303</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="H62" t="s">
         <v>312</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="H63" t="s">
         <v>336</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="H64" t="s">
         <v>309</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="H65" t="s">
         <v>310</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="H66" t="s">
         <v>364</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="H67" t="s">
         <v>365</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="H69" t="s">
         <v>313</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="H71" t="s">
         <v>542</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="H72" t="s">
         <v>314</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="H73" t="s">
         <v>404</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="H74" t="s">
         <v>304</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="H75" t="s">
         <v>405</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="H77" t="s">
         <v>524</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="H78" t="s">
         <v>343</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="AA79" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB79" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="AA80" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="AA81" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB81" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>411</v>
       </c>
-      <c r="AA82" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB82" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>331</v>
       </c>
-      <c r="AA83" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB83" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="AA84" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="AA85" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="AA86" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB86" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="AA87" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB87" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>543</v>
       </c>
-      <c r="AA88" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="AA89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="AA90" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB90" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="AA91" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB91" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="AA92" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB92" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>305</v>
       </c>
-      <c r="AA93" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB93" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>311</v>
       </c>
-      <c r="AA94" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB94" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="AA95" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>339</v>
       </c>
-      <c r="AA96" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB96" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="AA97" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB97" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
+    <row r="114">
+      <c r="AB114" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>116</v>
       </c>
     </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>652</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O891"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:P891"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A9" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="41" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="11" style="8" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="38" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="9" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="15" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" style="14" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="9" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="13.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="34.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="12" width="9.625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="35.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="41.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="8" width="16.375" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="8" width="11.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="24" width="38.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="9" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="14" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="15" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="14" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="9" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -4776,7 +5692,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="140.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.1" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>476</v>
       </c>
@@ -4797,7 +5713,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="10"/>
@@ -4814,7 +5730,7 @@
       <c r="N3" s="13"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>219</v>
       </c>
@@ -4859,7 +5775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>478</v>
       </c>
@@ -4886,7 +5802,7 @@
       <c r="N5" s="13"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="4"/>
       <c r="C6" s="11" t="s">
@@ -4911,7 +5827,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="4"/>
       <c r="C7" s="11" t="s">
@@ -4936,7 +5852,7 @@
       <c r="N7" s="13"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="4"/>
       <c r="C8" s="11" t="s">
@@ -4961,7 +5877,7 @@
       <c r="N8" s="13"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>492</v>
       </c>
@@ -4990,7 +5906,7 @@
       <c r="N9" s="13"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="26"/>
       <c r="C10" s="11" t="s">
@@ -5015,7 +5931,7 @@
       <c r="N10" s="13"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
         <v>496</v>
@@ -5042,7 +5958,7 @@
       <c r="N11" s="13"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
         <v>494</v>
@@ -5069,7 +5985,7 @@
       <c r="N12" s="13"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="26"/>
       <c r="C13" s="11" t="s">
@@ -5094,7 +6010,7 @@
       <c r="N13" s="13"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="11" t="s">
@@ -5117,7 +6033,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="26" t="s">
         <v>495</v>
@@ -5144,7 +6060,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>497</v>
       </c>
@@ -5171,7 +6087,7 @@
       <c r="N16" s="13"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
@@ -5188,7 +6104,7 @@
       <c r="N17" s="13"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="4"/>
       <c r="C18" s="11"/>
@@ -5205,7 +6121,7 @@
       <c r="N18" s="13"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="4"/>
       <c r="C19" s="11"/>
@@ -5222,7 +6138,7 @@
       <c r="N19" s="13"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="4"/>
       <c r="C20" s="11"/>
@@ -5239,7 +6155,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="4"/>
       <c r="C21" s="11"/>
@@ -5256,7 +6172,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
@@ -5273,7 +6189,7 @@
       <c r="N22" s="13"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
@@ -5290,7 +6206,7 @@
       <c r="N23" s="13"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="4"/>
       <c r="C24" s="11"/>
@@ -5307,7 +6223,7 @@
       <c r="N24" s="13"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
@@ -5324,7 +6240,7 @@
       <c r="N25" s="13"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
@@ -5341,7 +6257,7 @@
       <c r="N26" s="13"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="4"/>
       <c r="C27" s="11"/>
@@ -5358,7 +6274,7 @@
       <c r="N27" s="13"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
@@ -5375,7 +6291,7 @@
       <c r="N28" s="13"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="4"/>
       <c r="C29" s="11"/>
@@ -5392,7 +6308,7 @@
       <c r="N29" s="13"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
@@ -5409,7 +6325,7 @@
       <c r="N30" s="13"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="4"/>
       <c r="C31" s="11"/>
@@ -5426,7 +6342,7 @@
       <c r="N31" s="13"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="4"/>
       <c r="C32" s="11"/>
@@ -5443,7 +6359,7 @@
       <c r="N32" s="13"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="4"/>
       <c r="C33" s="11"/>
@@ -5460,7 +6376,7 @@
       <c r="N33" s="13"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="4"/>
       <c r="C34" s="11"/>
@@ -5477,7 +6393,7 @@
       <c r="N34" s="13"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
@@ -5494,7 +6410,7 @@
       <c r="N35" s="13"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="4"/>
       <c r="C36" s="11"/>
@@ -5511,7 +6427,7 @@
       <c r="N36" s="13"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="4"/>
       <c r="C37" s="11"/>
@@ -5528,7 +6444,7 @@
       <c r="N37" s="13"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="4"/>
       <c r="C38" s="11"/>
@@ -5545,7 +6461,7 @@
       <c r="N38" s="13"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="4"/>
       <c r="C39" s="11"/>
@@ -5562,7 +6478,7 @@
       <c r="N39" s="13"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="4"/>
       <c r="C40" s="11"/>
@@ -5579,7 +6495,7 @@
       <c r="N40" s="13"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
@@ -5596,7 +6512,7 @@
       <c r="N41" s="13"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="4"/>
       <c r="C42" s="11"/>
@@ -5613,7 +6529,7 @@
       <c r="N42" s="13"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="4"/>
       <c r="C43" s="11"/>
@@ -5630,7 +6546,7 @@
       <c r="N43" s="13"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="11"/>
@@ -5647,7 +6563,7 @@
       <c r="N44" s="13"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
@@ -5664,7 +6580,7 @@
       <c r="N45" s="13"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="11"/>
@@ -5681,7 +6597,7 @@
       <c r="N46" s="13"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
@@ -5698,7 +6614,7 @@
       <c r="N47" s="13"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="11"/>
@@ -5715,7 +6631,7 @@
       <c r="N48" s="13"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
@@ -5732,7 +6648,7 @@
       <c r="N49" s="13"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="11"/>
@@ -5749,7 +6665,7 @@
       <c r="N50" s="13"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="11"/>
@@ -5766,7 +6682,7 @@
       <c r="N51" s="13"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="11"/>
@@ -5783,7 +6699,7 @@
       <c r="N52" s="13"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="11"/>
@@ -5800,7 +6716,7 @@
       <c r="N53" s="13"/>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="11"/>
@@ -5817,7 +6733,7 @@
       <c r="N54" s="13"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="11"/>
@@ -5834,7 +6750,7 @@
       <c r="N55" s="13"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="11"/>
@@ -5851,7 +6767,7 @@
       <c r="N56" s="13"/>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="11"/>
@@ -5868,7 +6784,7 @@
       <c r="N57" s="13"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
@@ -5885,7 +6801,7 @@
       <c r="N58" s="13"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="11"/>
@@ -5902,7 +6818,7 @@
       <c r="N59" s="13"/>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="11"/>
@@ -5919,7 +6835,7 @@
       <c r="N60" s="13"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="11"/>
@@ -5936,7 +6852,7 @@
       <c r="N61" s="13"/>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
@@ -5953,7 +6869,7 @@
       <c r="N62" s="13"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
@@ -5970,7 +6886,7 @@
       <c r="N63" s="13"/>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
@@ -5987,7 +6903,7 @@
       <c r="N64" s="13"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="11"/>
@@ -6004,7 +6920,7 @@
       <c r="N65" s="13"/>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="11"/>
@@ -6021,7 +6937,7 @@
       <c r="N66" s="13"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="11"/>
@@ -6038,7 +6954,7 @@
       <c r="N67" s="13"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="11"/>
@@ -6055,7 +6971,7 @@
       <c r="N68" s="13"/>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="11"/>
@@ -6072,7 +6988,7 @@
       <c r="N69" s="13"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="11"/>
@@ -6089,7 +7005,7 @@
       <c r="N70" s="13"/>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="11"/>
@@ -6106,7 +7022,7 @@
       <c r="N71" s="13"/>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="11"/>
@@ -6123,7 +7039,7 @@
       <c r="N72" s="13"/>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="11"/>
@@ -6140,7 +7056,7 @@
       <c r="N73" s="13"/>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="11"/>
@@ -6157,7 +7073,7 @@
       <c r="N74" s="13"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="11"/>
@@ -6174,7 +7090,7 @@
       <c r="N75" s="13"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="11"/>
@@ -6191,7 +7107,7 @@
       <c r="N76" s="13"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="11"/>
@@ -6208,7 +7124,7 @@
       <c r="N77" s="13"/>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="11"/>
@@ -6225,7 +7141,7 @@
       <c r="N78" s="13"/>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="11"/>
@@ -6242,7 +7158,7 @@
       <c r="N79" s="13"/>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="11"/>
@@ -6259,7 +7175,7 @@
       <c r="N80" s="13"/>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="11"/>
@@ -6276,7 +7192,7 @@
       <c r="N81" s="13"/>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="11"/>
@@ -6293,7 +7209,7 @@
       <c r="N82" s="13"/>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="11"/>
@@ -6310,7 +7226,7 @@
       <c r="N83" s="13"/>
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="11"/>
@@ -6327,7 +7243,7 @@
       <c r="N84" s="13"/>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="11"/>
@@ -6344,7 +7260,7 @@
       <c r="N85" s="13"/>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="11"/>
@@ -6361,7 +7277,7 @@
       <c r="N86" s="13"/>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="11"/>
@@ -6378,7 +7294,7 @@
       <c r="N87" s="13"/>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="11"/>
@@ -6395,7 +7311,7 @@
       <c r="N88" s="13"/>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="11"/>
@@ -6412,7 +7328,7 @@
       <c r="N89" s="13"/>
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="11"/>
@@ -6429,7 +7345,7 @@
       <c r="N90" s="13"/>
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="11"/>
@@ -6446,7 +7362,7 @@
       <c r="N91" s="13"/>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="11"/>
@@ -6463,7 +7379,7 @@
       <c r="N92" s="13"/>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="11"/>
@@ -6480,7 +7396,7 @@
       <c r="N93" s="13"/>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="11"/>
@@ -6497,7 +7413,7 @@
       <c r="N94" s="13"/>
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="11"/>
@@ -6514,7 +7430,7 @@
       <c r="N95" s="13"/>
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="11"/>
@@ -6531,7 +7447,7 @@
       <c r="N96" s="13"/>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="11"/>
@@ -6548,7 +7464,7 @@
       <c r="N97" s="13"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="11"/>
@@ -6565,7 +7481,7 @@
       <c r="N98" s="13"/>
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="11"/>
@@ -6582,7 +7498,7 @@
       <c r="N99" s="13"/>
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="11"/>
@@ -6599,7 +7515,7 @@
       <c r="N100" s="13"/>
       <c r="O100" s="2"/>
     </row>
-    <row r="101" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="11"/>
@@ -6616,7 +7532,7 @@
       <c r="N101" s="13"/>
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="11"/>
@@ -6633,7 +7549,7 @@
       <c r="N102" s="13"/>
       <c r="O102" s="2"/>
     </row>
-    <row r="103" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="11"/>
@@ -6650,7 +7566,7 @@
       <c r="N103" s="13"/>
       <c r="O103" s="2"/>
     </row>
-    <row r="104" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="11"/>
@@ -6667,7 +7583,7 @@
       <c r="N104" s="13"/>
       <c r="O104" s="2"/>
     </row>
-    <row r="105" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="11"/>
@@ -6684,7 +7600,7 @@
       <c r="N105" s="13"/>
       <c r="O105" s="2"/>
     </row>
-    <row r="106" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="11"/>
@@ -6701,7 +7617,7 @@
       <c r="N106" s="13"/>
       <c r="O106" s="2"/>
     </row>
-    <row r="107" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="11"/>
@@ -6718,7 +7634,7 @@
       <c r="N107" s="13"/>
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="11"/>
@@ -6735,7 +7651,7 @@
       <c r="N108" s="13"/>
       <c r="O108" s="2"/>
     </row>
-    <row r="109" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="11"/>
@@ -6752,7 +7668,7 @@
       <c r="N109" s="13"/>
       <c r="O109" s="2"/>
     </row>
-    <row r="110" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="11"/>
@@ -6769,7 +7685,7 @@
       <c r="N110" s="13"/>
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="11"/>
@@ -6786,7 +7702,7 @@
       <c r="N111" s="13"/>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="11"/>
@@ -6803,7 +7719,7 @@
       <c r="N112" s="13"/>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="11"/>
@@ -6820,7 +7736,7 @@
       <c r="N113" s="13"/>
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="11"/>
@@ -6837,7 +7753,7 @@
       <c r="N114" s="13"/>
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="11"/>
@@ -6854,7 +7770,7 @@
       <c r="N115" s="13"/>
       <c r="O115" s="2"/>
     </row>
-    <row r="116" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="11"/>
@@ -6871,7 +7787,7 @@
       <c r="N116" s="13"/>
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="11"/>
@@ -6888,7 +7804,7 @@
       <c r="N117" s="13"/>
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="11"/>
@@ -6905,7 +7821,7 @@
       <c r="N118" s="13"/>
       <c r="O118" s="2"/>
     </row>
-    <row r="119" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="11"/>
@@ -6922,7 +7838,7 @@
       <c r="N119" s="13"/>
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="11"/>
@@ -6939,7 +7855,7 @@
       <c r="N120" s="13"/>
       <c r="O120" s="2"/>
     </row>
-    <row r="121" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="11"/>
@@ -6956,7 +7872,7 @@
       <c r="N121" s="13"/>
       <c r="O121" s="2"/>
     </row>
-    <row r="122" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="11"/>
@@ -6973,7 +7889,7 @@
       <c r="N122" s="13"/>
       <c r="O122" s="2"/>
     </row>
-    <row r="123" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="11"/>
@@ -6990,7 +7906,7 @@
       <c r="N123" s="13"/>
       <c r="O123" s="2"/>
     </row>
-    <row r="124" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="11"/>
@@ -7007,7 +7923,7 @@
       <c r="N124" s="13"/>
       <c r="O124" s="2"/>
     </row>
-    <row r="125" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="11"/>
@@ -7024,7 +7940,7 @@
       <c r="N125" s="13"/>
       <c r="O125" s="2"/>
     </row>
-    <row r="126" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="11"/>
@@ -7041,7 +7957,7 @@
       <c r="N126" s="13"/>
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="11"/>
@@ -7058,7 +7974,7 @@
       <c r="N127" s="13"/>
       <c r="O127" s="2"/>
     </row>
-    <row r="128" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="11"/>
@@ -7075,7 +7991,7 @@
       <c r="N128" s="13"/>
       <c r="O128" s="2"/>
     </row>
-    <row r="129" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="11"/>
@@ -7092,7 +8008,7 @@
       <c r="N129" s="13"/>
       <c r="O129" s="2"/>
     </row>
-    <row r="130" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="11"/>
@@ -7109,7 +8025,7 @@
       <c r="N130" s="13"/>
       <c r="O130" s="2"/>
     </row>
-    <row r="131" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="11"/>
@@ -7126,7 +8042,7 @@
       <c r="N131" s="13"/>
       <c r="O131" s="2"/>
     </row>
-    <row r="132" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="11"/>
@@ -7143,7 +8059,7 @@
       <c r="N132" s="13"/>
       <c r="O132" s="2"/>
     </row>
-    <row r="133" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="11"/>
@@ -7160,7 +8076,7 @@
       <c r="N133" s="13"/>
       <c r="O133" s="2"/>
     </row>
-    <row r="134" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="11"/>
@@ -7177,7 +8093,7 @@
       <c r="N134" s="13"/>
       <c r="O134" s="2"/>
     </row>
-    <row r="135" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="11"/>
@@ -7194,7 +8110,7 @@
       <c r="N135" s="13"/>
       <c r="O135" s="2"/>
     </row>
-    <row r="136" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="11"/>
@@ -7211,7 +8127,7 @@
       <c r="N136" s="13"/>
       <c r="O136" s="2"/>
     </row>
-    <row r="137" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="11"/>
@@ -7228,7 +8144,7 @@
       <c r="N137" s="13"/>
       <c r="O137" s="2"/>
     </row>
-    <row r="138" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="11"/>
@@ -7245,7 +8161,7 @@
       <c r="N138" s="13"/>
       <c r="O138" s="2"/>
     </row>
-    <row r="139" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="11"/>
@@ -7262,7 +8178,7 @@
       <c r="N139" s="13"/>
       <c r="O139" s="2"/>
     </row>
-    <row r="140" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="11"/>
@@ -7279,7 +8195,7 @@
       <c r="N140" s="13"/>
       <c r="O140" s="2"/>
     </row>
-    <row r="141" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="11"/>
@@ -7296,7 +8212,7 @@
       <c r="N141" s="13"/>
       <c r="O141" s="2"/>
     </row>
-    <row r="142" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="11"/>
@@ -7313,7 +8229,7 @@
       <c r="N142" s="13"/>
       <c r="O142" s="2"/>
     </row>
-    <row r="143" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="11"/>
@@ -7330,7 +8246,7 @@
       <c r="N143" s="13"/>
       <c r="O143" s="2"/>
     </row>
-    <row r="144" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="11"/>
@@ -7347,7 +8263,7 @@
       <c r="N144" s="13"/>
       <c r="O144" s="2"/>
     </row>
-    <row r="145" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="11"/>
@@ -7364,7 +8280,7 @@
       <c r="N145" s="13"/>
       <c r="O145" s="2"/>
     </row>
-    <row r="146" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="11"/>
@@ -7381,7 +8297,7 @@
       <c r="N146" s="13"/>
       <c r="O146" s="2"/>
     </row>
-    <row r="147" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="11"/>
@@ -7398,7 +8314,7 @@
       <c r="N147" s="13"/>
       <c r="O147" s="2"/>
     </row>
-    <row r="148" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="11"/>
@@ -7415,7 +8331,7 @@
       <c r="N148" s="13"/>
       <c r="O148" s="2"/>
     </row>
-    <row r="149" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="11"/>
@@ -7432,7 +8348,7 @@
       <c r="N149" s="13"/>
       <c r="O149" s="2"/>
     </row>
-    <row r="150" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="11"/>
@@ -7449,7 +8365,7 @@
       <c r="N150" s="13"/>
       <c r="O150" s="2"/>
     </row>
-    <row r="151" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="11"/>
@@ -7466,7 +8382,7 @@
       <c r="N151" s="13"/>
       <c r="O151" s="2"/>
     </row>
-    <row r="152" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="11"/>
@@ -7483,7 +8399,7 @@
       <c r="N152" s="13"/>
       <c r="O152" s="2"/>
     </row>
-    <row r="153" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="11"/>
@@ -7500,7 +8416,7 @@
       <c r="N153" s="13"/>
       <c r="O153" s="2"/>
     </row>
-    <row r="154" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="11"/>
@@ -7517,7 +8433,7 @@
       <c r="N154" s="13"/>
       <c r="O154" s="2"/>
     </row>
-    <row r="155" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="11"/>
@@ -7534,7 +8450,7 @@
       <c r="N155" s="13"/>
       <c r="O155" s="2"/>
     </row>
-    <row r="156" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="11"/>
@@ -7551,7 +8467,7 @@
       <c r="N156" s="13"/>
       <c r="O156" s="2"/>
     </row>
-    <row r="157" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="11"/>
@@ -7568,7 +8484,7 @@
       <c r="N157" s="13"/>
       <c r="O157" s="2"/>
     </row>
-    <row r="158" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="11"/>
@@ -7585,7 +8501,7 @@
       <c r="N158" s="13"/>
       <c r="O158" s="2"/>
     </row>
-    <row r="159" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="11"/>
@@ -7602,7 +8518,7 @@
       <c r="N159" s="13"/>
       <c r="O159" s="2"/>
     </row>
-    <row r="160" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="11"/>
@@ -7619,7 +8535,7 @@
       <c r="N160" s="13"/>
       <c r="O160" s="2"/>
     </row>
-    <row r="161" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="11"/>
@@ -7636,7 +8552,7 @@
       <c r="N161" s="13"/>
       <c r="O161" s="2"/>
     </row>
-    <row r="162" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="11"/>
@@ -7653,7 +8569,7 @@
       <c r="N162" s="13"/>
       <c r="O162" s="2"/>
     </row>
-    <row r="163" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="11"/>
@@ -7670,7 +8586,7 @@
       <c r="N163" s="13"/>
       <c r="O163" s="2"/>
     </row>
-    <row r="164" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="11"/>
@@ -7687,7 +8603,7 @@
       <c r="N164" s="13"/>
       <c r="O164" s="2"/>
     </row>
-    <row r="165" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="11"/>
@@ -7704,7 +8620,7 @@
       <c r="N165" s="13"/>
       <c r="O165" s="2"/>
     </row>
-    <row r="166" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="11"/>
@@ -7721,7 +8637,7 @@
       <c r="N166" s="13"/>
       <c r="O166" s="2"/>
     </row>
-    <row r="167" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="11"/>
@@ -7738,7 +8654,7 @@
       <c r="N167" s="13"/>
       <c r="O167" s="2"/>
     </row>
-    <row r="168" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="11"/>
@@ -7755,7 +8671,7 @@
       <c r="N168" s="13"/>
       <c r="O168" s="2"/>
     </row>
-    <row r="169" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="11"/>
@@ -7772,7 +8688,7 @@
       <c r="N169" s="13"/>
       <c r="O169" s="2"/>
     </row>
-    <row r="170" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="11"/>
@@ -7789,7 +8705,7 @@
       <c r="N170" s="13"/>
       <c r="O170" s="2"/>
     </row>
-    <row r="171" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="11"/>
@@ -7806,7 +8722,7 @@
       <c r="N171" s="13"/>
       <c r="O171" s="2"/>
     </row>
-    <row r="172" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="11"/>
@@ -7823,7 +8739,7 @@
       <c r="N172" s="13"/>
       <c r="O172" s="2"/>
     </row>
-    <row r="173" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="11"/>
@@ -7840,7 +8756,7 @@
       <c r="N173" s="13"/>
       <c r="O173" s="2"/>
     </row>
-    <row r="174" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="11"/>
@@ -7857,7 +8773,7 @@
       <c r="N174" s="13"/>
       <c r="O174" s="2"/>
     </row>
-    <row r="175" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="11"/>
@@ -7874,7 +8790,7 @@
       <c r="N175" s="13"/>
       <c r="O175" s="2"/>
     </row>
-    <row r="176" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="11"/>
@@ -7891,7 +8807,7 @@
       <c r="N176" s="13"/>
       <c r="O176" s="2"/>
     </row>
-    <row r="177" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="11"/>
@@ -7908,7 +8824,7 @@
       <c r="N177" s="13"/>
       <c r="O177" s="2"/>
     </row>
-    <row r="178" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="11"/>
@@ -7925,7 +8841,7 @@
       <c r="N178" s="13"/>
       <c r="O178" s="2"/>
     </row>
-    <row r="179" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="11"/>
@@ -7942,7 +8858,7 @@
       <c r="N179" s="13"/>
       <c r="O179" s="2"/>
     </row>
-    <row r="180" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="11"/>
@@ -7959,7 +8875,7 @@
       <c r="N180" s="13"/>
       <c r="O180" s="2"/>
     </row>
-    <row r="181" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="11"/>
@@ -7976,7 +8892,7 @@
       <c r="N181" s="13"/>
       <c r="O181" s="2"/>
     </row>
-    <row r="182" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="11"/>
@@ -7993,7 +8909,7 @@
       <c r="N182" s="13"/>
       <c r="O182" s="2"/>
     </row>
-    <row r="183" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="11"/>
@@ -8010,7 +8926,7 @@
       <c r="N183" s="13"/>
       <c r="O183" s="2"/>
     </row>
-    <row r="184" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="11"/>
@@ -8027,7 +8943,7 @@
       <c r="N184" s="13"/>
       <c r="O184" s="2"/>
     </row>
-    <row r="185" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="11"/>
@@ -8044,7 +8960,7 @@
       <c r="N185" s="13"/>
       <c r="O185" s="2"/>
     </row>
-    <row r="186" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="11"/>
@@ -8061,7 +8977,7 @@
       <c r="N186" s="13"/>
       <c r="O186" s="2"/>
     </row>
-    <row r="187" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="11"/>
@@ -8078,7 +8994,7 @@
       <c r="N187" s="13"/>
       <c r="O187" s="2"/>
     </row>
-    <row r="188" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="11"/>
@@ -8095,7 +9011,7 @@
       <c r="N188" s="13"/>
       <c r="O188" s="2"/>
     </row>
-    <row r="189" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="11"/>
@@ -8112,7 +9028,7 @@
       <c r="N189" s="13"/>
       <c r="O189" s="2"/>
     </row>
-    <row r="190" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="11"/>
@@ -8129,7 +9045,7 @@
       <c r="N190" s="13"/>
       <c r="O190" s="2"/>
     </row>
-    <row r="191" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="11"/>
@@ -8146,7 +9062,7 @@
       <c r="N191" s="13"/>
       <c r="O191" s="2"/>
     </row>
-    <row r="192" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="11"/>
@@ -8163,7 +9079,7 @@
       <c r="N192" s="13"/>
       <c r="O192" s="2"/>
     </row>
-    <row r="193" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="11"/>
@@ -8180,7 +9096,7 @@
       <c r="N193" s="13"/>
       <c r="O193" s="2"/>
     </row>
-    <row r="194" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="11"/>
@@ -8197,7 +9113,7 @@
       <c r="N194" s="13"/>
       <c r="O194" s="2"/>
     </row>
-    <row r="195" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="11"/>
@@ -8214,7 +9130,7 @@
       <c r="N195" s="13"/>
       <c r="O195" s="2"/>
     </row>
-    <row r="196" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="11"/>
@@ -8231,7 +9147,7 @@
       <c r="N196" s="13"/>
       <c r="O196" s="2"/>
     </row>
-    <row r="197" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="11"/>
@@ -8248,7 +9164,7 @@
       <c r="N197" s="13"/>
       <c r="O197" s="2"/>
     </row>
-    <row r="198" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="11"/>
@@ -8265,7 +9181,7 @@
       <c r="N198" s="13"/>
       <c r="O198" s="2"/>
     </row>
-    <row r="199" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="11"/>
@@ -8282,7 +9198,7 @@
       <c r="N199" s="13"/>
       <c r="O199" s="2"/>
     </row>
-    <row r="200" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="11"/>
@@ -8299,7 +9215,7 @@
       <c r="N200" s="13"/>
       <c r="O200" s="2"/>
     </row>
-    <row r="201" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="11"/>
@@ -8316,7 +9232,7 @@
       <c r="N201" s="13"/>
       <c r="O201" s="2"/>
     </row>
-    <row r="202" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="11"/>
@@ -8333,7 +9249,7 @@
       <c r="N202" s="13"/>
       <c r="O202" s="2"/>
     </row>
-    <row r="203" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="11"/>
@@ -8350,7 +9266,7 @@
       <c r="N203" s="13"/>
       <c r="O203" s="2"/>
     </row>
-    <row r="204" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="11"/>
@@ -8367,7 +9283,7 @@
       <c r="N204" s="13"/>
       <c r="O204" s="2"/>
     </row>
-    <row r="205" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="11"/>
@@ -8384,7 +9300,7 @@
       <c r="N205" s="13"/>
       <c r="O205" s="2"/>
     </row>
-    <row r="206" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="11"/>
@@ -8401,7 +9317,7 @@
       <c r="N206" s="13"/>
       <c r="O206" s="2"/>
     </row>
-    <row r="207" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="11"/>
@@ -8418,7 +9334,7 @@
       <c r="N207" s="13"/>
       <c r="O207" s="2"/>
     </row>
-    <row r="208" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="11"/>
@@ -8435,7 +9351,7 @@
       <c r="N208" s="13"/>
       <c r="O208" s="2"/>
     </row>
-    <row r="209" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="11"/>
@@ -8452,7 +9368,7 @@
       <c r="N209" s="13"/>
       <c r="O209" s="2"/>
     </row>
-    <row r="210" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="11"/>
@@ -8469,7 +9385,7 @@
       <c r="N210" s="13"/>
       <c r="O210" s="2"/>
     </row>
-    <row r="211" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="11"/>
@@ -8486,7 +9402,7 @@
       <c r="N211" s="13"/>
       <c r="O211" s="2"/>
     </row>
-    <row r="212" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="11"/>
@@ -8503,7 +9419,7 @@
       <c r="N212" s="13"/>
       <c r="O212" s="2"/>
     </row>
-    <row r="213" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="11"/>
@@ -8520,7 +9436,7 @@
       <c r="N213" s="13"/>
       <c r="O213" s="2"/>
     </row>
-    <row r="214" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="11"/>
@@ -8537,7 +9453,7 @@
       <c r="N214" s="13"/>
       <c r="O214" s="2"/>
     </row>
-    <row r="215" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="11"/>
@@ -8554,7 +9470,7 @@
       <c r="N215" s="13"/>
       <c r="O215" s="2"/>
     </row>
-    <row r="216" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="11"/>
@@ -8571,7 +9487,7 @@
       <c r="N216" s="13"/>
       <c r="O216" s="2"/>
     </row>
-    <row r="217" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="11"/>
@@ -8588,7 +9504,7 @@
       <c r="N217" s="13"/>
       <c r="O217" s="2"/>
     </row>
-    <row r="218" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="11"/>
@@ -8605,7 +9521,7 @@
       <c r="N218" s="13"/>
       <c r="O218" s="2"/>
     </row>
-    <row r="219" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="11"/>
@@ -8622,7 +9538,7 @@
       <c r="N219" s="13"/>
       <c r="O219" s="2"/>
     </row>
-    <row r="220" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="11"/>
@@ -8639,7 +9555,7 @@
       <c r="N220" s="13"/>
       <c r="O220" s="2"/>
     </row>
-    <row r="221" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="11"/>
@@ -8656,7 +9572,7 @@
       <c r="N221" s="13"/>
       <c r="O221" s="2"/>
     </row>
-    <row r="222" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="11"/>
@@ -8673,7 +9589,7 @@
       <c r="N222" s="13"/>
       <c r="O222" s="2"/>
     </row>
-    <row r="223" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="11"/>
@@ -8690,7 +9606,7 @@
       <c r="N223" s="13"/>
       <c r="O223" s="2"/>
     </row>
-    <row r="224" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="11"/>
@@ -8707,7 +9623,7 @@
       <c r="N224" s="13"/>
       <c r="O224" s="2"/>
     </row>
-    <row r="225" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="11"/>
@@ -8724,7 +9640,7 @@
       <c r="N225" s="13"/>
       <c r="O225" s="2"/>
     </row>
-    <row r="226" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="11"/>
@@ -8741,7 +9657,7 @@
       <c r="N226" s="13"/>
       <c r="O226" s="2"/>
     </row>
-    <row r="227" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="11"/>
@@ -8758,7 +9674,7 @@
       <c r="N227" s="13"/>
       <c r="O227" s="2"/>
     </row>
-    <row r="228" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="11"/>
@@ -8775,7 +9691,7 @@
       <c r="N228" s="13"/>
       <c r="O228" s="2"/>
     </row>
-    <row r="229" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="11"/>
@@ -8792,7 +9708,7 @@
       <c r="N229" s="13"/>
       <c r="O229" s="2"/>
     </row>
-    <row r="230" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="11"/>
@@ -8809,7 +9725,7 @@
       <c r="N230" s="13"/>
       <c r="O230" s="2"/>
     </row>
-    <row r="231" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="11"/>
@@ -8826,7 +9742,7 @@
       <c r="N231" s="13"/>
       <c r="O231" s="2"/>
     </row>
-    <row r="232" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="11"/>
@@ -8843,7 +9759,7 @@
       <c r="N232" s="13"/>
       <c r="O232" s="2"/>
     </row>
-    <row r="233" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="11"/>
@@ -8860,7 +9776,7 @@
       <c r="N233" s="13"/>
       <c r="O233" s="2"/>
     </row>
-    <row r="234" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="11"/>
@@ -8877,7 +9793,7 @@
       <c r="N234" s="13"/>
       <c r="O234" s="2"/>
     </row>
-    <row r="235" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="11"/>
@@ -8894,7 +9810,7 @@
       <c r="N235" s="13"/>
       <c r="O235" s="2"/>
     </row>
-    <row r="236" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="11"/>
@@ -8911,7 +9827,7 @@
       <c r="N236" s="13"/>
       <c r="O236" s="2"/>
     </row>
-    <row r="237" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="11"/>
@@ -8928,7 +9844,7 @@
       <c r="N237" s="13"/>
       <c r="O237" s="2"/>
     </row>
-    <row r="238" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="11"/>
@@ -8945,7 +9861,7 @@
       <c r="N238" s="13"/>
       <c r="O238" s="2"/>
     </row>
-    <row r="239" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="11"/>
@@ -8962,7 +9878,7 @@
       <c r="N239" s="13"/>
       <c r="O239" s="2"/>
     </row>
-    <row r="240" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="11"/>
@@ -8979,7 +9895,7 @@
       <c r="N240" s="13"/>
       <c r="O240" s="2"/>
     </row>
-    <row r="241" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="11"/>
@@ -8996,7 +9912,7 @@
       <c r="N241" s="13"/>
       <c r="O241" s="2"/>
     </row>
-    <row r="242" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="11"/>
@@ -9013,7 +9929,7 @@
       <c r="N242" s="13"/>
       <c r="O242" s="2"/>
     </row>
-    <row r="243" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="11"/>
@@ -9030,7 +9946,7 @@
       <c r="N243" s="13"/>
       <c r="O243" s="2"/>
     </row>
-    <row r="244" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="11"/>
@@ -9047,7 +9963,7 @@
       <c r="N244" s="13"/>
       <c r="O244" s="2"/>
     </row>
-    <row r="245" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="11"/>
@@ -9064,7 +9980,7 @@
       <c r="N245" s="13"/>
       <c r="O245" s="2"/>
     </row>
-    <row r="246" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="11"/>
@@ -9081,7 +9997,7 @@
       <c r="N246" s="13"/>
       <c r="O246" s="2"/>
     </row>
-    <row r="247" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="11"/>
@@ -9098,7 +10014,7 @@
       <c r="N247" s="13"/>
       <c r="O247" s="2"/>
     </row>
-    <row r="248" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="11"/>
@@ -9115,7 +10031,7 @@
       <c r="N248" s="13"/>
       <c r="O248" s="2"/>
     </row>
-    <row r="249" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="11"/>
@@ -9132,7 +10048,7 @@
       <c r="N249" s="13"/>
       <c r="O249" s="2"/>
     </row>
-    <row r="250" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="11"/>
@@ -9149,7 +10065,7 @@
       <c r="N250" s="13"/>
       <c r="O250" s="2"/>
     </row>
-    <row r="251" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="11"/>
@@ -9166,7 +10082,7 @@
       <c r="N251" s="13"/>
       <c r="O251" s="2"/>
     </row>
-    <row r="252" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="11"/>
@@ -9183,7 +10099,7 @@
       <c r="N252" s="13"/>
       <c r="O252" s="2"/>
     </row>
-    <row r="253" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="11"/>
@@ -9200,7 +10116,7 @@
       <c r="N253" s="13"/>
       <c r="O253" s="2"/>
     </row>
-    <row r="254" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="11"/>
@@ -9217,7 +10133,7 @@
       <c r="N254" s="13"/>
       <c r="O254" s="2"/>
     </row>
-    <row r="255" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="11"/>
@@ -9234,7 +10150,7 @@
       <c r="N255" s="13"/>
       <c r="O255" s="2"/>
     </row>
-    <row r="256" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="11"/>
@@ -9251,7 +10167,7 @@
       <c r="N256" s="13"/>
       <c r="O256" s="2"/>
     </row>
-    <row r="257" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="11"/>
@@ -9268,7 +10184,7 @@
       <c r="N257" s="13"/>
       <c r="O257" s="2"/>
     </row>
-    <row r="258" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="11"/>
@@ -9285,7 +10201,7 @@
       <c r="N258" s="13"/>
       <c r="O258" s="2"/>
     </row>
-    <row r="259" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="11"/>
@@ -9302,7 +10218,7 @@
       <c r="N259" s="13"/>
       <c r="O259" s="2"/>
     </row>
-    <row r="260" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="11"/>
@@ -9319,7 +10235,7 @@
       <c r="N260" s="13"/>
       <c r="O260" s="2"/>
     </row>
-    <row r="261" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="11"/>
@@ -9336,7 +10252,7 @@
       <c r="N261" s="13"/>
       <c r="O261" s="2"/>
     </row>
-    <row r="262" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="11"/>
@@ -9353,7 +10269,7 @@
       <c r="N262" s="13"/>
       <c r="O262" s="2"/>
     </row>
-    <row r="263" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="11"/>
@@ -9370,7 +10286,7 @@
       <c r="N263" s="13"/>
       <c r="O263" s="2"/>
     </row>
-    <row r="264" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="11"/>
@@ -9387,7 +10303,7 @@
       <c r="N264" s="13"/>
       <c r="O264" s="2"/>
     </row>
-    <row r="265" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="11"/>
@@ -9404,7 +10320,7 @@
       <c r="N265" s="13"/>
       <c r="O265" s="2"/>
     </row>
-    <row r="266" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="11"/>
@@ -9421,7 +10337,7 @@
       <c r="N266" s="13"/>
       <c r="O266" s="2"/>
     </row>
-    <row r="267" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="11"/>
@@ -9438,7 +10354,7 @@
       <c r="N267" s="13"/>
       <c r="O267" s="2"/>
     </row>
-    <row r="268" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="11"/>
@@ -9455,7 +10371,7 @@
       <c r="N268" s="13"/>
       <c r="O268" s="2"/>
     </row>
-    <row r="269" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="11"/>
@@ -9472,7 +10388,7 @@
       <c r="N269" s="13"/>
       <c r="O269" s="2"/>
     </row>
-    <row r="270" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="11"/>
@@ -9489,7 +10405,7 @@
       <c r="N270" s="13"/>
       <c r="O270" s="2"/>
     </row>
-    <row r="271" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="11"/>
@@ -9506,7 +10422,7 @@
       <c r="N271" s="13"/>
       <c r="O271" s="2"/>
     </row>
-    <row r="272" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="11"/>
@@ -9523,7 +10439,7 @@
       <c r="N272" s="13"/>
       <c r="O272" s="2"/>
     </row>
-    <row r="273" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="11"/>
@@ -9540,7 +10456,7 @@
       <c r="N273" s="13"/>
       <c r="O273" s="2"/>
     </row>
-    <row r="274" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="11"/>
@@ -9557,7 +10473,7 @@
       <c r="N274" s="13"/>
       <c r="O274" s="2"/>
     </row>
-    <row r="275" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="11"/>
@@ -9574,7 +10490,7 @@
       <c r="N275" s="13"/>
       <c r="O275" s="2"/>
     </row>
-    <row r="276" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="11"/>
@@ -9591,7 +10507,7 @@
       <c r="N276" s="13"/>
       <c r="O276" s="2"/>
     </row>
-    <row r="277" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="11"/>
@@ -9608,7 +10524,7 @@
       <c r="N277" s="13"/>
       <c r="O277" s="2"/>
     </row>
-    <row r="278" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="11"/>
@@ -9625,7 +10541,7 @@
       <c r="N278" s="13"/>
       <c r="O278" s="2"/>
     </row>
-    <row r="279" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="11"/>
@@ -9642,7 +10558,7 @@
       <c r="N279" s="13"/>
       <c r="O279" s="2"/>
     </row>
-    <row r="280" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="11"/>
@@ -9659,7 +10575,7 @@
       <c r="N280" s="13"/>
       <c r="O280" s="2"/>
     </row>
-    <row r="281" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="11"/>
@@ -9676,7 +10592,7 @@
       <c r="N281" s="13"/>
       <c r="O281" s="2"/>
     </row>
-    <row r="282" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="11"/>
@@ -9693,7 +10609,7 @@
       <c r="N282" s="13"/>
       <c r="O282" s="2"/>
     </row>
-    <row r="283" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="11"/>
@@ -9710,7 +10626,7 @@
       <c r="N283" s="13"/>
       <c r="O283" s="2"/>
     </row>
-    <row r="284" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="11"/>
@@ -9727,7 +10643,7 @@
       <c r="N284" s="13"/>
       <c r="O284" s="2"/>
     </row>
-    <row r="285" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="11"/>
@@ -9744,7 +10660,7 @@
       <c r="N285" s="13"/>
       <c r="O285" s="2"/>
     </row>
-    <row r="286" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="11"/>
@@ -9761,7 +10677,7 @@
       <c r="N286" s="13"/>
       <c r="O286" s="2"/>
     </row>
-    <row r="287" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="11"/>
@@ -9778,7 +10694,7 @@
       <c r="N287" s="13"/>
       <c r="O287" s="2"/>
     </row>
-    <row r="288" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="11"/>
@@ -9795,7 +10711,7 @@
       <c r="N288" s="13"/>
       <c r="O288" s="2"/>
     </row>
-    <row r="289" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="11"/>
@@ -9812,7 +10728,7 @@
       <c r="N289" s="13"/>
       <c r="O289" s="2"/>
     </row>
-    <row r="290" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="11"/>
@@ -9829,7 +10745,7 @@
       <c r="N290" s="13"/>
       <c r="O290" s="2"/>
     </row>
-    <row r="291" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="11"/>
@@ -9846,7 +10762,7 @@
       <c r="N291" s="13"/>
       <c r="O291" s="2"/>
     </row>
-    <row r="292" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="11"/>
@@ -9863,7 +10779,7 @@
       <c r="N292" s="13"/>
       <c r="O292" s="2"/>
     </row>
-    <row r="293" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="11"/>
@@ -9880,7 +10796,7 @@
       <c r="N293" s="13"/>
       <c r="O293" s="2"/>
     </row>
-    <row r="294" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="11"/>
@@ -9897,7 +10813,7 @@
       <c r="N294" s="13"/>
       <c r="O294" s="2"/>
     </row>
-    <row r="295" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="11"/>
@@ -9914,7 +10830,7 @@
       <c r="N295" s="13"/>
       <c r="O295" s="2"/>
     </row>
-    <row r="296" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="11"/>
@@ -9931,7 +10847,7 @@
       <c r="N296" s="13"/>
       <c r="O296" s="2"/>
     </row>
-    <row r="297" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="11"/>
@@ -9948,7 +10864,7 @@
       <c r="N297" s="13"/>
       <c r="O297" s="2"/>
     </row>
-    <row r="298" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="11"/>
@@ -9965,7 +10881,7 @@
       <c r="N298" s="13"/>
       <c r="O298" s="2"/>
     </row>
-    <row r="299" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="11"/>
@@ -9982,7 +10898,7 @@
       <c r="N299" s="13"/>
       <c r="O299" s="2"/>
     </row>
-    <row r="300" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="11"/>
@@ -9999,7 +10915,7 @@
       <c r="N300" s="13"/>
       <c r="O300" s="2"/>
     </row>
-    <row r="301" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="11"/>
@@ -10016,7 +10932,7 @@
       <c r="N301" s="13"/>
       <c r="O301" s="2"/>
     </row>
-    <row r="302" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="11"/>
@@ -10033,7 +10949,7 @@
       <c r="N302" s="13"/>
       <c r="O302" s="2"/>
     </row>
-    <row r="303" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="11"/>
@@ -10050,7 +10966,7 @@
       <c r="N303" s="13"/>
       <c r="O303" s="2"/>
     </row>
-    <row r="304" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="11"/>
@@ -10067,7 +10983,7 @@
       <c r="N304" s="13"/>
       <c r="O304" s="2"/>
     </row>
-    <row r="305" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="11"/>
@@ -10084,7 +11000,7 @@
       <c r="N305" s="13"/>
       <c r="O305" s="2"/>
     </row>
-    <row r="306" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="11"/>
@@ -10101,7 +11017,7 @@
       <c r="N306" s="13"/>
       <c r="O306" s="2"/>
     </row>
-    <row r="307" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="11"/>
@@ -10118,7 +11034,7 @@
       <c r="N307" s="13"/>
       <c r="O307" s="2"/>
     </row>
-    <row r="308" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="11"/>
@@ -10135,7 +11051,7 @@
       <c r="N308" s="13"/>
       <c r="O308" s="2"/>
     </row>
-    <row r="309" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="11"/>
@@ -10152,7 +11068,7 @@
       <c r="N309" s="13"/>
       <c r="O309" s="2"/>
     </row>
-    <row r="310" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="11"/>
@@ -10169,7 +11085,7 @@
       <c r="N310" s="13"/>
       <c r="O310" s="2"/>
     </row>
-    <row r="311" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="11"/>
@@ -10186,7 +11102,7 @@
       <c r="N311" s="13"/>
       <c r="O311" s="2"/>
     </row>
-    <row r="312" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="11"/>
@@ -10203,7 +11119,7 @@
       <c r="N312" s="13"/>
       <c r="O312" s="2"/>
     </row>
-    <row r="313" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="11"/>
@@ -10220,7 +11136,7 @@
       <c r="N313" s="13"/>
       <c r="O313" s="2"/>
     </row>
-    <row r="314" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="11"/>
@@ -10237,7 +11153,7 @@
       <c r="N314" s="13"/>
       <c r="O314" s="2"/>
     </row>
-    <row r="315" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="11"/>
@@ -10254,7 +11170,7 @@
       <c r="N315" s="13"/>
       <c r="O315" s="2"/>
     </row>
-    <row r="316" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="11"/>
@@ -10271,7 +11187,7 @@
       <c r="N316" s="13"/>
       <c r="O316" s="2"/>
     </row>
-    <row r="317" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="11"/>
@@ -10288,7 +11204,7 @@
       <c r="N317" s="13"/>
       <c r="O317" s="2"/>
     </row>
-    <row r="318" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="11"/>
@@ -10305,7 +11221,7 @@
       <c r="N318" s="13"/>
       <c r="O318" s="2"/>
     </row>
-    <row r="319" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="11"/>
@@ -10322,7 +11238,7 @@
       <c r="N319" s="13"/>
       <c r="O319" s="2"/>
     </row>
-    <row r="320" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="11"/>
@@ -10339,7 +11255,7 @@
       <c r="N320" s="13"/>
       <c r="O320" s="2"/>
     </row>
-    <row r="321" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="11"/>
@@ -10356,7 +11272,7 @@
       <c r="N321" s="13"/>
       <c r="O321" s="2"/>
     </row>
-    <row r="322" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="11"/>
@@ -10373,7 +11289,7 @@
       <c r="N322" s="13"/>
       <c r="O322" s="2"/>
     </row>
-    <row r="323" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="11"/>
@@ -10390,7 +11306,7 @@
       <c r="N323" s="13"/>
       <c r="O323" s="2"/>
     </row>
-    <row r="324" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="11"/>
@@ -10407,7 +11323,7 @@
       <c r="N324" s="13"/>
       <c r="O324" s="2"/>
     </row>
-    <row r="325" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="11"/>
@@ -10424,7 +11340,7 @@
       <c r="N325" s="13"/>
       <c r="O325" s="2"/>
     </row>
-    <row r="326" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="11"/>
@@ -10441,7 +11357,7 @@
       <c r="N326" s="13"/>
       <c r="O326" s="2"/>
     </row>
-    <row r="327" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="11"/>
@@ -10458,7 +11374,7 @@
       <c r="N327" s="13"/>
       <c r="O327" s="2"/>
     </row>
-    <row r="328" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="11"/>
@@ -10475,7 +11391,7 @@
       <c r="N328" s="13"/>
       <c r="O328" s="2"/>
     </row>
-    <row r="329" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="11"/>
@@ -10492,7 +11408,7 @@
       <c r="N329" s="13"/>
       <c r="O329" s="2"/>
     </row>
-    <row r="330" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="11"/>
@@ -10509,7 +11425,7 @@
       <c r="N330" s="13"/>
       <c r="O330" s="2"/>
     </row>
-    <row r="331" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="11"/>
@@ -10526,7 +11442,7 @@
       <c r="N331" s="13"/>
       <c r="O331" s="2"/>
     </row>
-    <row r="332" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="11"/>
@@ -10543,7 +11459,7 @@
       <c r="N332" s="13"/>
       <c r="O332" s="2"/>
     </row>
-    <row r="333" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="11"/>
@@ -10560,7 +11476,7 @@
       <c r="N333" s="13"/>
       <c r="O333" s="2"/>
     </row>
-    <row r="334" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="11"/>
@@ -10577,7 +11493,7 @@
       <c r="N334" s="13"/>
       <c r="O334" s="2"/>
     </row>
-    <row r="335" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="11"/>
@@ -10594,7 +11510,7 @@
       <c r="N335" s="13"/>
       <c r="O335" s="2"/>
     </row>
-    <row r="336" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="11"/>
@@ -10611,7 +11527,7 @@
       <c r="N336" s="13"/>
       <c r="O336" s="2"/>
     </row>
-    <row r="337" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="11"/>
@@ -10628,7 +11544,7 @@
       <c r="N337" s="13"/>
       <c r="O337" s="2"/>
     </row>
-    <row r="338" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="11"/>
@@ -10645,7 +11561,7 @@
       <c r="N338" s="13"/>
       <c r="O338" s="2"/>
     </row>
-    <row r="339" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="11"/>
@@ -10662,7 +11578,7 @@
       <c r="N339" s="13"/>
       <c r="O339" s="2"/>
     </row>
-    <row r="340" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="11"/>
@@ -10679,7 +11595,7 @@
       <c r="N340" s="13"/>
       <c r="O340" s="2"/>
     </row>
-    <row r="341" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="11"/>
@@ -10696,7 +11612,7 @@
       <c r="N341" s="13"/>
       <c r="O341" s="2"/>
     </row>
-    <row r="342" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="11"/>
@@ -10713,7 +11629,7 @@
       <c r="N342" s="13"/>
       <c r="O342" s="2"/>
     </row>
-    <row r="343" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="11"/>
@@ -10730,7 +11646,7 @@
       <c r="N343" s="13"/>
       <c r="O343" s="2"/>
     </row>
-    <row r="344" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="11"/>
@@ -10747,7 +11663,7 @@
       <c r="N344" s="13"/>
       <c r="O344" s="2"/>
     </row>
-    <row r="345" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="11"/>
@@ -10764,7 +11680,7 @@
       <c r="N345" s="13"/>
       <c r="O345" s="2"/>
     </row>
-    <row r="346" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="11"/>
@@ -10781,7 +11697,7 @@
       <c r="N346" s="13"/>
       <c r="O346" s="2"/>
     </row>
-    <row r="347" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="11"/>
@@ -10798,7 +11714,7 @@
       <c r="N347" s="13"/>
       <c r="O347" s="2"/>
     </row>
-    <row r="348" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="11"/>
@@ -10815,7 +11731,7 @@
       <c r="N348" s="13"/>
       <c r="O348" s="2"/>
     </row>
-    <row r="349" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="11"/>
@@ -10832,7 +11748,7 @@
       <c r="N349" s="13"/>
       <c r="O349" s="2"/>
     </row>
-    <row r="350" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="11"/>
@@ -10849,7 +11765,7 @@
       <c r="N350" s="13"/>
       <c r="O350" s="2"/>
     </row>
-    <row r="351" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="11"/>
@@ -10866,7 +11782,7 @@
       <c r="N351" s="13"/>
       <c r="O351" s="2"/>
     </row>
-    <row r="352" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="11"/>
@@ -10883,7 +11799,7 @@
       <c r="N352" s="13"/>
       <c r="O352" s="2"/>
     </row>
-    <row r="353" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="11"/>
@@ -10900,7 +11816,7 @@
       <c r="N353" s="13"/>
       <c r="O353" s="2"/>
     </row>
-    <row r="354" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="11"/>
@@ -10917,7 +11833,7 @@
       <c r="N354" s="13"/>
       <c r="O354" s="2"/>
     </row>
-    <row r="355" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="11"/>
@@ -10934,7 +11850,7 @@
       <c r="N355" s="13"/>
       <c r="O355" s="2"/>
     </row>
-    <row r="356" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="11"/>
@@ -10951,7 +11867,7 @@
       <c r="N356" s="13"/>
       <c r="O356" s="2"/>
     </row>
-    <row r="357" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="11"/>
@@ -10968,7 +11884,7 @@
       <c r="N357" s="13"/>
       <c r="O357" s="2"/>
     </row>
-    <row r="358" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="11"/>
@@ -10985,7 +11901,7 @@
       <c r="N358" s="13"/>
       <c r="O358" s="2"/>
     </row>
-    <row r="359" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="11"/>
@@ -11002,7 +11918,7 @@
       <c r="N359" s="13"/>
       <c r="O359" s="2"/>
     </row>
-    <row r="360" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="11"/>
@@ -11019,7 +11935,7 @@
       <c r="N360" s="13"/>
       <c r="O360" s="2"/>
     </row>
-    <row r="361" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="11"/>
@@ -11036,7 +11952,7 @@
       <c r="N361" s="13"/>
       <c r="O361" s="2"/>
     </row>
-    <row r="362" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="11"/>
@@ -11053,7 +11969,7 @@
       <c r="N362" s="13"/>
       <c r="O362" s="2"/>
     </row>
-    <row r="363" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="11"/>
@@ -11070,7 +11986,7 @@
       <c r="N363" s="13"/>
       <c r="O363" s="2"/>
     </row>
-    <row r="364" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="11"/>
@@ -11087,7 +12003,7 @@
       <c r="N364" s="13"/>
       <c r="O364" s="2"/>
     </row>
-    <row r="365" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="11"/>
@@ -11104,7 +12020,7 @@
       <c r="N365" s="13"/>
       <c r="O365" s="2"/>
     </row>
-    <row r="366" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="11"/>
@@ -11121,7 +12037,7 @@
       <c r="N366" s="13"/>
       <c r="O366" s="2"/>
     </row>
-    <row r="367" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="11"/>
@@ -11138,7 +12054,7 @@
       <c r="N367" s="13"/>
       <c r="O367" s="2"/>
     </row>
-    <row r="368" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="11"/>
@@ -11155,7 +12071,7 @@
       <c r="N368" s="13"/>
       <c r="O368" s="2"/>
     </row>
-    <row r="369" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="11"/>
@@ -11172,7 +12088,7 @@
       <c r="N369" s="13"/>
       <c r="O369" s="2"/>
     </row>
-    <row r="370" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="11"/>
@@ -11189,7 +12105,7 @@
       <c r="N370" s="13"/>
       <c r="O370" s="2"/>
     </row>
-    <row r="371" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="11"/>
@@ -11206,7 +12122,7 @@
       <c r="N371" s="13"/>
       <c r="O371" s="2"/>
     </row>
-    <row r="372" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="11"/>
@@ -11223,7 +12139,7 @@
       <c r="N372" s="13"/>
       <c r="O372" s="2"/>
     </row>
-    <row r="373" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="11"/>
@@ -11240,7 +12156,7 @@
       <c r="N373" s="13"/>
       <c r="O373" s="2"/>
     </row>
-    <row r="374" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="11"/>
@@ -11257,7 +12173,7 @@
       <c r="N374" s="13"/>
       <c r="O374" s="2"/>
     </row>
-    <row r="375" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="11"/>
@@ -11274,7 +12190,7 @@
       <c r="N375" s="13"/>
       <c r="O375" s="2"/>
     </row>
-    <row r="376" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="11"/>
@@ -11291,7 +12207,7 @@
       <c r="N376" s="13"/>
       <c r="O376" s="2"/>
     </row>
-    <row r="377" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="11"/>
@@ -11308,7 +12224,7 @@
       <c r="N377" s="13"/>
       <c r="O377" s="2"/>
     </row>
-    <row r="378" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="11"/>
@@ -11325,7 +12241,7 @@
       <c r="N378" s="13"/>
       <c r="O378" s="2"/>
     </row>
-    <row r="379" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="11"/>
@@ -11342,7 +12258,7 @@
       <c r="N379" s="13"/>
       <c r="O379" s="2"/>
     </row>
-    <row r="380" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="11"/>
@@ -11359,7 +12275,7 @@
       <c r="N380" s="13"/>
       <c r="O380" s="2"/>
     </row>
-    <row r="381" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="11"/>
@@ -11376,7 +12292,7 @@
       <c r="N381" s="13"/>
       <c r="O381" s="2"/>
     </row>
-    <row r="382" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="11"/>
@@ -11393,7 +12309,7 @@
       <c r="N382" s="13"/>
       <c r="O382" s="2"/>
     </row>
-    <row r="383" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="11"/>
@@ -11410,7 +12326,7 @@
       <c r="N383" s="13"/>
       <c r="O383" s="2"/>
     </row>
-    <row r="384" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="11"/>
@@ -11427,7 +12343,7 @@
       <c r="N384" s="13"/>
       <c r="O384" s="2"/>
     </row>
-    <row r="385" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="11"/>
@@ -11444,7 +12360,7 @@
       <c r="N385" s="13"/>
       <c r="O385" s="2"/>
     </row>
-    <row r="386" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="11"/>
@@ -11461,7 +12377,7 @@
       <c r="N386" s="13"/>
       <c r="O386" s="2"/>
     </row>
-    <row r="387" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="11"/>
@@ -11478,7 +12394,7 @@
       <c r="N387" s="13"/>
       <c r="O387" s="2"/>
     </row>
-    <row r="388" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="11"/>
@@ -11495,7 +12411,7 @@
       <c r="N388" s="13"/>
       <c r="O388" s="2"/>
     </row>
-    <row r="389" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="11"/>
@@ -11512,7 +12428,7 @@
       <c r="N389" s="13"/>
       <c r="O389" s="2"/>
     </row>
-    <row r="390" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="11"/>
@@ -11529,7 +12445,7 @@
       <c r="N390" s="13"/>
       <c r="O390" s="2"/>
     </row>
-    <row r="391" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="11"/>
@@ -11546,7 +12462,7 @@
       <c r="N391" s="13"/>
       <c r="O391" s="2"/>
     </row>
-    <row r="392" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="11"/>
@@ -11563,7 +12479,7 @@
       <c r="N392" s="13"/>
       <c r="O392" s="2"/>
     </row>
-    <row r="393" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="11"/>
@@ -11580,7 +12496,7 @@
       <c r="N393" s="13"/>
       <c r="O393" s="2"/>
     </row>
-    <row r="394" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="11"/>
@@ -11597,7 +12513,7 @@
       <c r="N394" s="13"/>
       <c r="O394" s="2"/>
     </row>
-    <row r="395" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="11"/>
@@ -11614,7 +12530,7 @@
       <c r="N395" s="13"/>
       <c r="O395" s="2"/>
     </row>
-    <row r="396" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="11"/>
@@ -11631,7 +12547,7 @@
       <c r="N396" s="13"/>
       <c r="O396" s="2"/>
     </row>
-    <row r="397" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="11"/>
@@ -11648,7 +12564,7 @@
       <c r="N397" s="13"/>
       <c r="O397" s="2"/>
     </row>
-    <row r="398" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="11"/>
@@ -11665,7 +12581,7 @@
       <c r="N398" s="13"/>
       <c r="O398" s="2"/>
     </row>
-    <row r="399" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="11"/>
@@ -11682,7 +12598,7 @@
       <c r="N399" s="13"/>
       <c r="O399" s="2"/>
     </row>
-    <row r="400" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="11"/>
@@ -11699,7 +12615,7 @@
       <c r="N400" s="13"/>
       <c r="O400" s="2"/>
     </row>
-    <row r="401" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="11"/>
@@ -11716,7 +12632,7 @@
       <c r="N401" s="13"/>
       <c r="O401" s="2"/>
     </row>
-    <row r="402" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="11"/>
@@ -11733,7 +12649,7 @@
       <c r="N402" s="13"/>
       <c r="O402" s="2"/>
     </row>
-    <row r="403" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="11"/>
@@ -11750,7 +12666,7 @@
       <c r="N403" s="13"/>
       <c r="O403" s="2"/>
     </row>
-    <row r="404" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="11"/>
@@ -11767,7 +12683,7 @@
       <c r="N404" s="13"/>
       <c r="O404" s="2"/>
     </row>
-    <row r="405" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="11"/>
@@ -11784,7 +12700,7 @@
       <c r="N405" s="13"/>
       <c r="O405" s="2"/>
     </row>
-    <row r="406" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="11"/>
@@ -11801,7 +12717,7 @@
       <c r="N406" s="13"/>
       <c r="O406" s="2"/>
     </row>
-    <row r="407" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="11"/>
@@ -11818,7 +12734,7 @@
       <c r="N407" s="13"/>
       <c r="O407" s="2"/>
     </row>
-    <row r="408" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="11"/>
@@ -11835,7 +12751,7 @@
       <c r="N408" s="13"/>
       <c r="O408" s="2"/>
     </row>
-    <row r="409" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="11"/>
@@ -11852,7 +12768,7 @@
       <c r="N409" s="13"/>
       <c r="O409" s="2"/>
     </row>
-    <row r="410" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="11"/>
@@ -11869,7 +12785,7 @@
       <c r="N410" s="13"/>
       <c r="O410" s="2"/>
     </row>
-    <row r="411" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="11"/>
@@ -11886,7 +12802,7 @@
       <c r="N411" s="13"/>
       <c r="O411" s="2"/>
     </row>
-    <row r="412" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="11"/>
@@ -11903,7 +12819,7 @@
       <c r="N412" s="13"/>
       <c r="O412" s="2"/>
     </row>
-    <row r="413" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="11"/>
@@ -11920,7 +12836,7 @@
       <c r="N413" s="13"/>
       <c r="O413" s="2"/>
     </row>
-    <row r="414" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="11"/>
@@ -11937,7 +12853,7 @@
       <c r="N414" s="13"/>
       <c r="O414" s="2"/>
     </row>
-    <row r="415" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="11"/>
@@ -11954,7 +12870,7 @@
       <c r="N415" s="13"/>
       <c r="O415" s="2"/>
     </row>
-    <row r="416" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="11"/>
@@ -11971,7 +12887,7 @@
       <c r="N416" s="13"/>
       <c r="O416" s="2"/>
     </row>
-    <row r="417" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="11"/>
@@ -11988,7 +12904,7 @@
       <c r="N417" s="13"/>
       <c r="O417" s="2"/>
     </row>
-    <row r="418" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="11"/>
@@ -12005,7 +12921,7 @@
       <c r="N418" s="13"/>
       <c r="O418" s="2"/>
     </row>
-    <row r="419" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="11"/>
@@ -12022,7 +12938,7 @@
       <c r="N419" s="13"/>
       <c r="O419" s="2"/>
     </row>
-    <row r="420" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="11"/>
@@ -12039,7 +12955,7 @@
       <c r="N420" s="13"/>
       <c r="O420" s="2"/>
     </row>
-    <row r="421" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="11"/>
@@ -12056,7 +12972,7 @@
       <c r="N421" s="13"/>
       <c r="O421" s="2"/>
     </row>
-    <row r="422" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="11"/>
@@ -12073,7 +12989,7 @@
       <c r="N422" s="13"/>
       <c r="O422" s="2"/>
     </row>
-    <row r="423" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="11"/>
@@ -12090,7 +13006,7 @@
       <c r="N423" s="13"/>
       <c r="O423" s="2"/>
     </row>
-    <row r="424" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="11"/>
@@ -12107,7 +13023,7 @@
       <c r="N424" s="13"/>
       <c r="O424" s="2"/>
     </row>
-    <row r="425" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="11"/>
@@ -12124,7 +13040,7 @@
       <c r="N425" s="13"/>
       <c r="O425" s="2"/>
     </row>
-    <row r="426" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="11"/>
@@ -12141,7 +13057,7 @@
       <c r="N426" s="13"/>
       <c r="O426" s="2"/>
     </row>
-    <row r="427" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="11"/>
@@ -12158,7 +13074,7 @@
       <c r="N427" s="13"/>
       <c r="O427" s="2"/>
     </row>
-    <row r="428" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="11"/>
@@ -12175,7 +13091,7 @@
       <c r="N428" s="13"/>
       <c r="O428" s="2"/>
     </row>
-    <row r="429" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="11"/>
@@ -12192,7 +13108,7 @@
       <c r="N429" s="13"/>
       <c r="O429" s="2"/>
     </row>
-    <row r="430" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="11"/>
@@ -12209,7 +13125,7 @@
       <c r="N430" s="13"/>
       <c r="O430" s="2"/>
     </row>
-    <row r="431" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="11"/>
@@ -12226,7 +13142,7 @@
       <c r="N431" s="13"/>
       <c r="O431" s="2"/>
     </row>
-    <row r="432" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="11"/>
@@ -12243,7 +13159,7 @@
       <c r="N432" s="13"/>
       <c r="O432" s="2"/>
     </row>
-    <row r="433" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="11"/>
@@ -12260,7 +13176,7 @@
       <c r="N433" s="13"/>
       <c r="O433" s="2"/>
     </row>
-    <row r="434" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="11"/>
@@ -12277,7 +13193,7 @@
       <c r="N434" s="13"/>
       <c r="O434" s="2"/>
     </row>
-    <row r="435" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="11"/>
@@ -12294,7 +13210,7 @@
       <c r="N435" s="13"/>
       <c r="O435" s="2"/>
     </row>
-    <row r="436" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="11"/>
@@ -12311,7 +13227,7 @@
       <c r="N436" s="13"/>
       <c r="O436" s="2"/>
     </row>
-    <row r="437" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="11"/>
@@ -12328,7 +13244,7 @@
       <c r="N437" s="13"/>
       <c r="O437" s="2"/>
     </row>
-    <row r="438" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="11"/>
@@ -12345,7 +13261,7 @@
       <c r="N438" s="13"/>
       <c r="O438" s="2"/>
     </row>
-    <row r="439" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="11"/>
@@ -12362,7 +13278,7 @@
       <c r="N439" s="13"/>
       <c r="O439" s="2"/>
     </row>
-    <row r="440" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="11"/>
@@ -12379,7 +13295,7 @@
       <c r="N440" s="13"/>
       <c r="O440" s="2"/>
     </row>
-    <row r="441" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="11"/>
@@ -12396,7 +13312,7 @@
       <c r="N441" s="13"/>
       <c r="O441" s="2"/>
     </row>
-    <row r="442" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="11"/>
@@ -12413,7 +13329,7 @@
       <c r="N442" s="13"/>
       <c r="O442" s="2"/>
     </row>
-    <row r="443" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="11"/>
@@ -12430,7 +13346,7 @@
       <c r="N443" s="13"/>
       <c r="O443" s="2"/>
     </row>
-    <row r="444" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="11"/>
@@ -12447,7 +13363,7 @@
       <c r="N444" s="13"/>
       <c r="O444" s="2"/>
     </row>
-    <row r="445" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="11"/>
@@ -12464,7 +13380,7 @@
       <c r="N445" s="13"/>
       <c r="O445" s="2"/>
     </row>
-    <row r="446" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="11"/>
@@ -12481,7 +13397,7 @@
       <c r="N446" s="13"/>
       <c r="O446" s="2"/>
     </row>
-    <row r="447" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="11"/>
@@ -12498,7 +13414,7 @@
       <c r="N447" s="13"/>
       <c r="O447" s="2"/>
     </row>
-    <row r="448" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="11"/>
@@ -12515,7 +13431,7 @@
       <c r="N448" s="13"/>
       <c r="O448" s="2"/>
     </row>
-    <row r="449" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="11"/>
@@ -12532,7 +13448,7 @@
       <c r="N449" s="13"/>
       <c r="O449" s="2"/>
     </row>
-    <row r="450" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="11"/>
@@ -12549,7 +13465,7 @@
       <c r="N450" s="13"/>
       <c r="O450" s="2"/>
     </row>
-    <row r="451" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="11"/>
@@ -12566,7 +13482,7 @@
       <c r="N451" s="13"/>
       <c r="O451" s="2"/>
     </row>
-    <row r="452" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="11"/>
@@ -12583,7 +13499,7 @@
       <c r="N452" s="13"/>
       <c r="O452" s="2"/>
     </row>
-    <row r="453" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="11"/>
@@ -12600,7 +13516,7 @@
       <c r="N453" s="13"/>
       <c r="O453" s="2"/>
     </row>
-    <row r="454" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="11"/>
@@ -12617,7 +13533,7 @@
       <c r="N454" s="13"/>
       <c r="O454" s="2"/>
     </row>
-    <row r="455" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="11"/>
@@ -12634,7 +13550,7 @@
       <c r="N455" s="13"/>
       <c r="O455" s="2"/>
     </row>
-    <row r="456" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="11"/>
@@ -12651,7 +13567,7 @@
       <c r="N456" s="13"/>
       <c r="O456" s="2"/>
     </row>
-    <row r="457" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="11"/>
@@ -12668,7 +13584,7 @@
       <c r="N457" s="13"/>
       <c r="O457" s="2"/>
     </row>
-    <row r="458" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="11"/>
@@ -12685,7 +13601,7 @@
       <c r="N458" s="13"/>
       <c r="O458" s="2"/>
     </row>
-    <row r="459" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="11"/>
@@ -12702,7 +13618,7 @@
       <c r="N459" s="13"/>
       <c r="O459" s="2"/>
     </row>
-    <row r="460" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="11"/>
@@ -12719,7 +13635,7 @@
       <c r="N460" s="13"/>
       <c r="O460" s="2"/>
     </row>
-    <row r="461" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="11"/>
@@ -12736,7 +13652,7 @@
       <c r="N461" s="13"/>
       <c r="O461" s="2"/>
     </row>
-    <row r="462" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="11"/>
@@ -12753,7 +13669,7 @@
       <c r="N462" s="13"/>
       <c r="O462" s="2"/>
     </row>
-    <row r="463" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="11"/>
@@ -12770,7 +13686,7 @@
       <c r="N463" s="13"/>
       <c r="O463" s="2"/>
     </row>
-    <row r="464" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="11"/>
@@ -12787,7 +13703,7 @@
       <c r="N464" s="13"/>
       <c r="O464" s="2"/>
     </row>
-    <row r="465" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="11"/>
@@ -12804,7 +13720,7 @@
       <c r="N465" s="13"/>
       <c r="O465" s="2"/>
     </row>
-    <row r="466" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="11"/>
@@ -12821,7 +13737,7 @@
       <c r="N466" s="13"/>
       <c r="O466" s="2"/>
     </row>
-    <row r="467" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="11"/>
@@ -12838,7 +13754,7 @@
       <c r="N467" s="13"/>
       <c r="O467" s="2"/>
     </row>
-    <row r="468" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="11"/>
@@ -12855,7 +13771,7 @@
       <c r="N468" s="13"/>
       <c r="O468" s="2"/>
     </row>
-    <row r="469" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="11"/>
@@ -12872,7 +13788,7 @@
       <c r="N469" s="13"/>
       <c r="O469" s="2"/>
     </row>
-    <row r="470" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="11"/>
@@ -12889,7 +13805,7 @@
       <c r="N470" s="13"/>
       <c r="O470" s="2"/>
     </row>
-    <row r="471" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="11"/>
@@ -12906,7 +13822,7 @@
       <c r="N471" s="13"/>
       <c r="O471" s="2"/>
     </row>
-    <row r="472" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="11"/>
@@ -12923,7 +13839,7 @@
       <c r="N472" s="13"/>
       <c r="O472" s="2"/>
     </row>
-    <row r="473" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="11"/>
@@ -12940,7 +13856,7 @@
       <c r="N473" s="13"/>
       <c r="O473" s="2"/>
     </row>
-    <row r="474" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="11"/>
@@ -12957,7 +13873,7 @@
       <c r="N474" s="13"/>
       <c r="O474" s="2"/>
     </row>
-    <row r="475" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="11"/>
@@ -12974,7 +13890,7 @@
       <c r="N475" s="13"/>
       <c r="O475" s="2"/>
     </row>
-    <row r="476" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="11"/>
@@ -12991,7 +13907,7 @@
       <c r="N476" s="13"/>
       <c r="O476" s="2"/>
     </row>
-    <row r="477" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="11"/>
@@ -13008,7 +13924,7 @@
       <c r="N477" s="13"/>
       <c r="O477" s="2"/>
     </row>
-    <row r="478" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="11"/>
@@ -13025,7 +13941,7 @@
       <c r="N478" s="13"/>
       <c r="O478" s="2"/>
     </row>
-    <row r="479" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="11"/>
@@ -13042,7 +13958,7 @@
       <c r="N479" s="13"/>
       <c r="O479" s="2"/>
     </row>
-    <row r="480" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="11"/>
@@ -13059,7 +13975,7 @@
       <c r="N480" s="13"/>
       <c r="O480" s="2"/>
     </row>
-    <row r="481" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="11"/>
@@ -13076,7 +13992,7 @@
       <c r="N481" s="13"/>
       <c r="O481" s="2"/>
     </row>
-    <row r="482" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="11"/>
@@ -13093,7 +14009,7 @@
       <c r="N482" s="13"/>
       <c r="O482" s="2"/>
     </row>
-    <row r="483" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="11"/>
@@ -13110,7 +14026,7 @@
       <c r="N483" s="13"/>
       <c r="O483" s="2"/>
     </row>
-    <row r="484" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="11"/>
@@ -13127,7 +14043,7 @@
       <c r="N484" s="13"/>
       <c r="O484" s="2"/>
     </row>
-    <row r="485" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="11"/>
@@ -13144,7 +14060,7 @@
       <c r="N485" s="13"/>
       <c r="O485" s="2"/>
     </row>
-    <row r="486" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="11"/>
@@ -13161,7 +14077,7 @@
       <c r="N486" s="13"/>
       <c r="O486" s="2"/>
     </row>
-    <row r="487" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="11"/>
@@ -13178,7 +14094,7 @@
       <c r="N487" s="13"/>
       <c r="O487" s="2"/>
     </row>
-    <row r="488" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="11"/>
@@ -13195,7 +14111,7 @@
       <c r="N488" s="13"/>
       <c r="O488" s="2"/>
     </row>
-    <row r="489" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="11"/>
@@ -13212,7 +14128,7 @@
       <c r="N489" s="13"/>
       <c r="O489" s="2"/>
     </row>
-    <row r="490" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="11"/>
@@ -13229,7 +14145,7 @@
       <c r="N490" s="13"/>
       <c r="O490" s="2"/>
     </row>
-    <row r="491" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="11"/>
@@ -13246,7 +14162,7 @@
       <c r="N491" s="13"/>
       <c r="O491" s="2"/>
     </row>
-    <row r="492" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="11"/>
@@ -13263,7 +14179,7 @@
       <c r="N492" s="13"/>
       <c r="O492" s="2"/>
     </row>
-    <row r="493" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="11"/>
@@ -13280,7 +14196,7 @@
       <c r="N493" s="13"/>
       <c r="O493" s="2"/>
     </row>
-    <row r="494" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="11"/>
@@ -13297,7 +14213,7 @@
       <c r="N494" s="13"/>
       <c r="O494" s="2"/>
     </row>
-    <row r="495" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="11"/>
@@ -13314,7 +14230,7 @@
       <c r="N495" s="13"/>
       <c r="O495" s="2"/>
     </row>
-    <row r="496" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="11"/>
@@ -13331,7 +14247,7 @@
       <c r="N496" s="13"/>
       <c r="O496" s="2"/>
     </row>
-    <row r="497" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="11"/>
@@ -13348,7 +14264,7 @@
       <c r="N497" s="13"/>
       <c r="O497" s="2"/>
     </row>
-    <row r="498" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="11"/>
@@ -13365,7 +14281,7 @@
       <c r="N498" s="13"/>
       <c r="O498" s="2"/>
     </row>
-    <row r="499" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="11"/>
@@ -13382,7 +14298,7 @@
       <c r="N499" s="13"/>
       <c r="O499" s="2"/>
     </row>
-    <row r="500" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="11"/>
@@ -13399,7 +14315,7 @@
       <c r="N500" s="13"/>
       <c r="O500" s="2"/>
     </row>
-    <row r="501" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="11"/>
@@ -13416,7 +14332,7 @@
       <c r="N501" s="13"/>
       <c r="O501" s="2"/>
     </row>
-    <row r="502" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="11"/>
@@ -13433,7 +14349,7 @@
       <c r="N502" s="13"/>
       <c r="O502" s="2"/>
     </row>
-    <row r="503" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="11"/>
@@ -13450,7 +14366,7 @@
       <c r="N503" s="13"/>
       <c r="O503" s="2"/>
     </row>
-    <row r="504" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="11"/>
@@ -13467,7 +14383,7 @@
       <c r="N504" s="13"/>
       <c r="O504" s="2"/>
     </row>
-    <row r="505" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="11"/>
@@ -13484,7 +14400,7 @@
       <c r="N505" s="13"/>
       <c r="O505" s="2"/>
     </row>
-    <row r="506" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="11"/>
@@ -13501,7 +14417,7 @@
       <c r="N506" s="13"/>
       <c r="O506" s="2"/>
     </row>
-    <row r="507" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="11"/>
@@ -13518,7 +14434,7 @@
       <c r="N507" s="13"/>
       <c r="O507" s="2"/>
     </row>
-    <row r="508" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="11"/>
@@ -13535,7 +14451,7 @@
       <c r="N508" s="13"/>
       <c r="O508" s="2"/>
     </row>
-    <row r="509" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="11"/>
@@ -13552,7 +14468,7 @@
       <c r="N509" s="13"/>
       <c r="O509" s="2"/>
     </row>
-    <row r="510" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="11"/>
@@ -13569,7 +14485,7 @@
       <c r="N510" s="13"/>
       <c r="O510" s="2"/>
     </row>
-    <row r="511" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="11"/>
@@ -13586,7 +14502,7 @@
       <c r="N511" s="13"/>
       <c r="O511" s="2"/>
     </row>
-    <row r="512" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="11"/>
@@ -13603,7 +14519,7 @@
       <c r="N512" s="13"/>
       <c r="O512" s="2"/>
     </row>
-    <row r="513" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="11"/>
@@ -13620,7 +14536,7 @@
       <c r="N513" s="13"/>
       <c r="O513" s="2"/>
     </row>
-    <row r="514" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="11"/>
@@ -13637,7 +14553,7 @@
       <c r="N514" s="13"/>
       <c r="O514" s="2"/>
     </row>
-    <row r="515" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="11"/>
@@ -13654,7 +14570,7 @@
       <c r="N515" s="13"/>
       <c r="O515" s="2"/>
     </row>
-    <row r="516" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="11"/>
@@ -13671,7 +14587,7 @@
       <c r="N516" s="13"/>
       <c r="O516" s="2"/>
     </row>
-    <row r="517" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="11"/>
@@ -13688,7 +14604,7 @@
       <c r="N517" s="13"/>
       <c r="O517" s="2"/>
     </row>
-    <row r="518" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="11"/>
@@ -13705,7 +14621,7 @@
       <c r="N518" s="13"/>
       <c r="O518" s="2"/>
     </row>
-    <row r="519" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="11"/>
@@ -13722,7 +14638,7 @@
       <c r="N519" s="13"/>
       <c r="O519" s="2"/>
     </row>
-    <row r="520" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="11"/>
@@ -13739,7 +14655,7 @@
       <c r="N520" s="13"/>
       <c r="O520" s="2"/>
     </row>
-    <row r="521" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="11"/>
@@ -13756,7 +14672,7 @@
       <c r="N521" s="13"/>
       <c r="O521" s="2"/>
     </row>
-    <row r="522" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="11"/>
@@ -13773,7 +14689,7 @@
       <c r="N522" s="13"/>
       <c r="O522" s="2"/>
     </row>
-    <row r="523" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="11"/>
@@ -13790,7 +14706,7 @@
       <c r="N523" s="13"/>
       <c r="O523" s="2"/>
     </row>
-    <row r="524" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="11"/>
@@ -13807,7 +14723,7 @@
       <c r="N524" s="13"/>
       <c r="O524" s="2"/>
     </row>
-    <row r="525" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="11"/>
@@ -13824,7 +14740,7 @@
       <c r="N525" s="13"/>
       <c r="O525" s="2"/>
     </row>
-    <row r="526" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="11"/>
@@ -13841,7 +14757,7 @@
       <c r="N526" s="13"/>
       <c r="O526" s="2"/>
     </row>
-    <row r="527" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="11"/>
@@ -13858,7 +14774,7 @@
       <c r="N527" s="13"/>
       <c r="O527" s="2"/>
     </row>
-    <row r="528" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="11"/>
@@ -13875,7 +14791,7 @@
       <c r="N528" s="13"/>
       <c r="O528" s="2"/>
     </row>
-    <row r="529" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="11"/>
@@ -13892,7 +14808,7 @@
       <c r="N529" s="13"/>
       <c r="O529" s="2"/>
     </row>
-    <row r="530" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="11"/>
@@ -13909,7 +14825,7 @@
       <c r="N530" s="13"/>
       <c r="O530" s="2"/>
     </row>
-    <row r="531" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="11"/>
@@ -13926,7 +14842,7 @@
       <c r="N531" s="13"/>
       <c r="O531" s="2"/>
     </row>
-    <row r="532" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="11"/>
@@ -13943,7 +14859,7 @@
       <c r="N532" s="13"/>
       <c r="O532" s="2"/>
     </row>
-    <row r="533" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="11"/>
@@ -13960,7 +14876,7 @@
       <c r="N533" s="13"/>
       <c r="O533" s="2"/>
     </row>
-    <row r="534" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="11"/>
@@ -13977,7 +14893,7 @@
       <c r="N534" s="13"/>
       <c r="O534" s="2"/>
     </row>
-    <row r="535" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="11"/>
@@ -13994,7 +14910,7 @@
       <c r="N535" s="13"/>
       <c r="O535" s="2"/>
     </row>
-    <row r="536" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="11"/>
@@ -14011,7 +14927,7 @@
       <c r="N536" s="13"/>
       <c r="O536" s="2"/>
     </row>
-    <row r="537" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="11"/>
@@ -14028,7 +14944,7 @@
       <c r="N537" s="13"/>
       <c r="O537" s="2"/>
     </row>
-    <row r="538" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="11"/>
@@ -14045,7 +14961,7 @@
       <c r="N538" s="13"/>
       <c r="O538" s="2"/>
     </row>
-    <row r="539" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="11"/>
@@ -14062,360 +14978,360 @@
       <c r="N539" s="13"/>
       <c r="O539" s="2"/>
     </row>
-    <row r="540" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="540" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="541" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="542" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="543" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="544" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="545" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="546" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="547" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="548" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="549" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="550" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="551" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="552" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="553" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="554" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="555" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="556" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="557" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="558" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="559" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="560" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="561" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="562" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="563" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="564" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="565" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="566" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="567" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="568" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="569" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="570" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="571" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="572" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="573" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="574" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="575" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="576" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="577" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="578" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="579" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="580" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="581" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="582" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="583" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="584" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="585" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="586" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="587" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="588" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="589" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="590" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="591" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="592" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="593" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="594" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="595" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="596" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="597" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="598" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="599" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="600" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="601" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="602" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="603" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="604" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="605" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="606" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="607" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="608" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="609" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="610" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="611" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="612" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="613" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="614" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="615" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="616" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="617" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="618" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="619" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="620" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="621" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="622" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="623" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="624" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="625" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="626" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="627" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="628" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="629" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="630" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="631" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="632" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="633" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="634" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="635" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="636" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="637" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="638" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="639" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="640" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="641" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="642" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="643" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="644" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="645" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="646" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="647" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="648" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="649" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="650" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="651" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="652" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="653" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="654" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="655" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="656" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="657" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="658" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="659" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="660" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="661" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="662" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="663" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="664" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="665" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="666" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="667" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="668" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="669" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="670" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="671" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="672" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="673" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="674" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="675" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="676" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="677" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="678" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="679" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="680" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="681" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="682" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="683" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="684" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="685" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="686" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="687" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="688" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="689" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="690" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="691" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="692" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="693" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="694" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="695" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="696" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="697" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="698" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="699" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="700" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="701" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="702" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="703" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="704" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="705" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="706" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="707" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="708" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="709" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="710" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="711" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="712" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="713" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="714" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="715" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="716" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="717" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="718" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="719" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="720" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="721" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="722" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="723" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="724" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="725" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="726" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="727" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="728" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="729" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="730" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="731" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="732" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="733" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="734" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="735" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="736" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="737" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="738" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="739" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="740" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="741" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="742" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="743" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="744" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="745" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="746" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="747" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="748" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="749" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="750" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="751" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="752" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="753" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="754" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="755" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="756" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="757" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="758" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="759" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="760" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="761" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="762" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="763" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="764" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="765" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="766" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="767" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="768" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="769" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="770" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="771" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="772" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="773" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="774" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="775" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="776" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="777" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="778" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="779" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="780" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="781" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="782" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="783" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="784" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="785" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="786" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="787" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="788" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="789" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="790" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="791" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="792" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="793" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="794" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="795" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="796" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="797" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="798" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="799" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="800" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="801" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="802" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="803" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="804" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="805" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="806" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="807" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="808" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="809" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="810" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="811" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="812" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="813" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="814" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="815" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="816" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="817" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="818" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="819" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="820" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="821" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="822" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="823" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="824" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="825" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="826" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="827" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="828" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="829" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="830" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="831" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="832" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="833" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="834" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="835" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="836" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="837" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="838" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="839" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="840" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="841" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="842" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="843" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="844" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="845" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="846" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="847" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="848" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="849" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="850" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="851" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="852" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="853" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="854" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="855" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="856" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="857" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="858" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="859" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="860" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="861" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="862" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="863" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="864" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="865" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="866" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="867" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="868" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="869" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="870" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="871" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="872" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="873" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="874" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="875" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="876" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="877" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="878" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="879" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="880" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="881" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="882" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="883" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="884" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="885" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="886" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="887" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="888" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="889" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="890" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="18.95" r="891" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -14423,25 +15339,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C591">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C591" type="list">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D589">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D589" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -20,13 +20,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -46,15 +46,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="655">
   <si>
     <t>description</t>
   </si>
@@ -2033,6 +2033,12 @@
   </si>
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -2040,7 +2046,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2326,8 +2332,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="52">
+  <fills count="76">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2344,6 +2457,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2810,7 +3059,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2994,55 +3243,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3395,7 +3695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A12" sqref="A12"/>
@@ -3490,24 +3790,21 @@
         <v>589</v>
       </c>
       <c r="AA1" t="s">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="AB1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD1" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="AE1" t="s">
-        <v>129</v>
+        <v>408</v>
       </c>
       <c r="AF1" t="s">
-        <v>408</v>
-      </c>
-      <c r="AG1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3540,7 +3837,7 @@
         <v>442</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>654</v>
       </c>
       <c r="K2" t="s">
         <v>587</v>
@@ -3591,24 +3888,21 @@
         <v>593</v>
       </c>
       <c r="AA2" t="s">
-        <v>608</v>
+        <v>43</v>
       </c>
       <c r="AB2" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="AC2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AE2" t="s">
-        <v>131</v>
+        <v>425</v>
       </c>
       <c r="AF2" t="s">
-        <v>425</v>
-      </c>
-      <c r="AG2" t="s">
         <v>506</v>
       </c>
     </row>
@@ -3638,7 +3932,7 @@
         <v>174</v>
       </c>
       <c r="J3" t="s">
-        <v>468</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
         <v>347</v>
@@ -3683,24 +3977,21 @@
         <v>594</v>
       </c>
       <c r="AA3" t="s">
-        <v>609</v>
+        <v>44</v>
       </c>
       <c r="AB3" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="AC3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AD3" t="s">
-        <v>123</v>
+        <v>359</v>
       </c>
       <c r="AE3" t="s">
-        <v>359</v>
+        <v>130</v>
       </c>
       <c r="AF3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3727,7 +4018,7 @@
         <v>443</v>
       </c>
       <c r="J4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K4" t="s">
         <v>348</v>
@@ -3772,24 +4063,21 @@
         <v>595</v>
       </c>
       <c r="AA4" t="s">
-        <v>610</v>
+        <v>572</v>
       </c>
       <c r="AB4" t="s">
-        <v>572</v>
+        <v>119</v>
       </c>
       <c r="AC4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AD4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AE4" t="s">
-        <v>130</v>
+        <v>426</v>
       </c>
       <c r="AF4" t="s">
-        <v>426</v>
-      </c>
-      <c r="AG4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3816,7 +4104,7 @@
         <v>447</v>
       </c>
       <c r="J5" t="s">
-        <v>541</v>
+        <v>469</v>
       </c>
       <c r="K5" t="s">
         <v>349</v>
@@ -3849,24 +4137,21 @@
         <v>354</v>
       </c>
       <c r="AA5" t="s">
-        <v>611</v>
+        <v>566</v>
       </c>
       <c r="AB5" t="s">
-        <v>566</v>
+        <v>120</v>
       </c>
       <c r="AC5" t="s">
-        <v>120</v>
+        <v>583</v>
       </c>
       <c r="AD5" t="s">
-        <v>583</v>
+        <v>132</v>
       </c>
       <c r="AE5" t="s">
-        <v>132</v>
+        <v>427</v>
       </c>
       <c r="AF5" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3893,7 +4178,7 @@
         <v>440</v>
       </c>
       <c r="J6" t="s">
-        <v>570</v>
+        <v>541</v>
       </c>
       <c r="K6" t="s">
         <v>588</v>
@@ -3923,24 +4208,21 @@
         <v>356</v>
       </c>
       <c r="AA6" t="s">
-        <v>612</v>
+        <v>45</v>
       </c>
       <c r="AB6" t="s">
-        <v>45</v>
+        <v>437</v>
       </c>
       <c r="AC6" t="s">
-        <v>437</v>
+        <v>125</v>
       </c>
       <c r="AD6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AE6" t="s">
-        <v>133</v>
+        <v>428</v>
       </c>
       <c r="AF6" t="s">
-        <v>428</v>
-      </c>
-      <c r="AG6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3960,6 +4242,9 @@
       <c r="I7" t="s">
         <v>439</v>
       </c>
+      <c r="J7" t="s">
+        <v>570</v>
+      </c>
       <c r="K7" t="s">
         <v>346</v>
       </c>
@@ -3988,24 +4273,21 @@
         <v>355</v>
       </c>
       <c r="AA7" t="s">
-        <v>613</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="s">
-        <v>46</v>
+        <v>438</v>
       </c>
       <c r="AC7" t="s">
-        <v>438</v>
+        <v>126</v>
       </c>
       <c r="AD7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AE7" t="s">
-        <v>134</v>
+        <v>429</v>
       </c>
       <c r="AF7" t="s">
-        <v>429</v>
-      </c>
-      <c r="AG7" t="s">
         <v>547</v>
       </c>
     </row>
@@ -4053,24 +4335,21 @@
         <v>357</v>
       </c>
       <c r="AA8" t="s">
-        <v>614</v>
+        <v>47</v>
       </c>
       <c r="AB8" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="AC8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AD8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="AE8" t="s">
-        <v>135</v>
+        <v>430</v>
       </c>
       <c r="AF8" t="s">
-        <v>430</v>
-      </c>
-      <c r="AG8" t="s">
         <v>548</v>
       </c>
     </row>
@@ -4115,18 +4394,15 @@
         <v>358</v>
       </c>
       <c r="AA9" t="s">
-        <v>615</v>
-      </c>
-      <c r="AB9" t="s">
         <v>205</v>
       </c>
+      <c r="AC9" t="s">
+        <v>128</v>
+      </c>
       <c r="AD9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE9" t="s">
         <v>178</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>549</v>
       </c>
     </row>
@@ -4162,18 +4438,15 @@
         <v>403</v>
       </c>
       <c r="AA10" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB10" t="s">
         <v>256</v>
       </c>
+      <c r="AC10" t="s">
+        <v>584</v>
+      </c>
       <c r="AD10" t="s">
-        <v>584</v>
-      </c>
-      <c r="AE10" t="s">
         <v>179</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4182,7 +4455,7 @@
         <v>209</v>
       </c>
       <c r="F11" t="s">
-        <v>565</v>
+        <v>653</v>
       </c>
       <c r="H11" t="s">
         <v>350</v>
@@ -4206,15 +4479,12 @@
         <v>607</v>
       </c>
       <c r="AA11" t="s">
-        <v>617</v>
-      </c>
-      <c r="AB11" t="s">
         <v>257</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>258</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4223,7 +4493,7 @@
         <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>319</v>
+        <v>565</v>
       </c>
       <c r="H12" t="s">
         <v>273</v>
@@ -4247,15 +4517,12 @@
         <v>247</v>
       </c>
       <c r="AA12" t="s">
-        <v>618</v>
-      </c>
-      <c r="AB12" t="s">
         <v>48</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>136</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4264,7 +4531,7 @@
         <v>332</v>
       </c>
       <c r="F13" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="H13" t="s">
         <v>262</v>
@@ -4288,15 +4555,12 @@
         <v>248</v>
       </c>
       <c r="AA13" t="s">
-        <v>619</v>
-      </c>
-      <c r="AB13" t="s">
         <v>325</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>137</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>465</v>
       </c>
     </row>
@@ -4305,7 +4569,7 @@
         <v>181</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>340</v>
       </c>
       <c r="H14" t="s">
         <v>316</v>
@@ -4326,15 +4590,12 @@
         <v>576</v>
       </c>
       <c r="AA14" t="s">
-        <v>620</v>
-      </c>
-      <c r="AB14" t="s">
         <v>49</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>138</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>507</v>
       </c>
     </row>
@@ -4343,7 +4604,7 @@
         <v>527</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
         <v>263</v>
@@ -4364,15 +4625,12 @@
         <v>253</v>
       </c>
       <c r="AA15" t="s">
-        <v>621</v>
-      </c>
-      <c r="AB15" t="s">
         <v>596</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>139</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>508</v>
       </c>
     </row>
@@ -4381,7 +4639,7 @@
         <v>467</v>
       </c>
       <c r="F16" t="s">
-        <v>379</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
         <v>264</v>
@@ -4402,15 +4660,12 @@
         <v>249</v>
       </c>
       <c r="AA16" t="s">
-        <v>622</v>
-      </c>
-      <c r="AB16" t="s">
         <v>577</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>140</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>512</v>
       </c>
     </row>
@@ -4419,7 +4674,7 @@
         <v>192</v>
       </c>
       <c r="F17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H17" t="s">
         <v>317</v>
@@ -4434,15 +4689,12 @@
         <v>250</v>
       </c>
       <c r="AA17" t="s">
-        <v>623</v>
-      </c>
-      <c r="AB17" t="s">
         <v>50</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>455</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>513</v>
       </c>
     </row>
@@ -4451,7 +4703,7 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="H18" t="s">
         <v>176</v>
@@ -4466,12 +4718,9 @@
         <v>251</v>
       </c>
       <c r="AA18" t="s">
-        <v>624</v>
-      </c>
-      <c r="AB18" t="s">
         <v>42</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>466</v>
       </c>
     </row>
@@ -4480,7 +4729,7 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>601</v>
+        <v>409</v>
       </c>
       <c r="H19" t="s">
         <v>177</v>
@@ -4489,12 +4738,9 @@
         <v>448</v>
       </c>
       <c r="AA19" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB19" t="s">
         <v>517</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>509</v>
       </c>
     </row>
@@ -4503,7 +4749,7 @@
         <v>180</v>
       </c>
       <c r="F20" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -4512,12 +4758,9 @@
         <v>168</v>
       </c>
       <c r="AA20" t="s">
-        <v>626</v>
-      </c>
-      <c r="AB20" t="s">
         <v>51</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>510</v>
       </c>
     </row>
@@ -4526,7 +4769,7 @@
         <v>394</v>
       </c>
       <c r="F21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
@@ -4535,12 +4778,9 @@
         <v>169</v>
       </c>
       <c r="AA21" t="s">
-        <v>627</v>
-      </c>
-      <c r="AB21" t="s">
         <v>52</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>514</v>
       </c>
     </row>
@@ -4549,7 +4789,7 @@
         <v>406</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>603</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -4558,12 +4798,9 @@
         <v>569</v>
       </c>
       <c r="AA22" t="s">
-        <v>628</v>
-      </c>
-      <c r="AB22" t="s">
         <v>53</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4572,7 +4809,7 @@
         <v>407</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -4581,12 +4818,9 @@
         <v>461</v>
       </c>
       <c r="AA23" t="s">
-        <v>629</v>
-      </c>
-      <c r="AB23" t="s">
         <v>54</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>550</v>
       </c>
     </row>
@@ -4595,7 +4829,7 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -4604,12 +4838,9 @@
         <v>148</v>
       </c>
       <c r="AA24" t="s">
-        <v>630</v>
-      </c>
-      <c r="AB24" t="s">
         <v>473</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>551</v>
       </c>
     </row>
@@ -4618,7 +4849,7 @@
         <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>604</v>
+        <v>255</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -4627,12 +4858,9 @@
         <v>386</v>
       </c>
       <c r="AA25" t="s">
-        <v>631</v>
-      </c>
-      <c r="AB25" t="s">
         <v>55</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>552</v>
       </c>
     </row>
@@ -4641,7 +4869,7 @@
         <v>589</v>
       </c>
       <c r="F26" t="s">
-        <v>553</v>
+        <v>604</v>
       </c>
       <c r="H26" t="s">
         <v>154</v>
@@ -4650,21 +4878,18 @@
         <v>606</v>
       </c>
       <c r="AA26" t="s">
-        <v>632</v>
-      </c>
-      <c r="AB26" t="s">
         <v>557</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>553</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
@@ -4673,21 +4898,18 @@
         <v>538</v>
       </c>
       <c r="AA27" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB27" t="s">
         <v>56</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>320</v>
+        <v>37</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
@@ -4696,18 +4918,15 @@
         <v>149</v>
       </c>
       <c r="AA28" t="s">
-        <v>634</v>
-      </c>
-      <c r="AB28" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>320</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
@@ -4716,18 +4935,15 @@
         <v>434</v>
       </c>
       <c r="AA29" t="s">
-        <v>635</v>
-      </c>
-      <c r="AB29" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>441</v>
+        <v>38</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
@@ -4736,18 +4952,15 @@
         <v>150</v>
       </c>
       <c r="AA30" t="s">
-        <v>636</v>
-      </c>
-      <c r="AB30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>408</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>441</v>
       </c>
       <c r="H31" t="s">
         <v>211</v>
@@ -4756,187 +4969,163 @@
         <v>151</v>
       </c>
       <c r="AA31" t="s">
-        <v>637</v>
-      </c>
-      <c r="AB31" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>408</v>
+        <v>226</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
       </c>
       <c r="AA32" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>226</v>
-      </c>
       <c r="F33" t="s">
-        <v>459</v>
+        <v>225</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
       </c>
       <c r="AA33" t="s">
-        <v>639</v>
-      </c>
-      <c r="AB33" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H34" t="s">
         <v>523</v>
       </c>
       <c r="AA34" t="s">
-        <v>640</v>
-      </c>
-      <c r="AB34" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
       </c>
       <c r="AA35" t="s">
-        <v>641</v>
-      </c>
-      <c r="AB35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>156</v>
+        <v>410</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
       </c>
       <c r="AA36" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB36" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="H37" t="s">
         <v>307</v>
       </c>
       <c r="AA37" t="s">
-        <v>643</v>
-      </c>
-      <c r="AB37" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
       </c>
       <c r="AA38" t="s">
-        <v>644</v>
-      </c>
-      <c r="AB38" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s">
         <v>308</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H41" t="s">
         <v>155</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="H43" t="s">
         <v>554</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>605</v>
+        <v>152</v>
       </c>
       <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>605</v>
+      </c>
       <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4944,7 +5133,7 @@
       <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4952,7 +5141,7 @@
       <c r="H47" t="s">
         <v>342</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4960,7 +5149,7 @@
       <c r="H48" t="s">
         <v>341</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4968,7 +5157,7 @@
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4976,7 +5165,7 @@
       <c r="H50" t="s">
         <v>301</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4984,7 +5173,7 @@
       <c r="H51" t="s">
         <v>338</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>597</v>
       </c>
     </row>
@@ -4992,7 +5181,7 @@
       <c r="H52" t="s">
         <v>363</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5000,7 +5189,7 @@
       <c r="H53" t="s">
         <v>302</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5008,7 +5197,7 @@
       <c r="H54" t="s">
         <v>351</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>546</v>
       </c>
     </row>
@@ -5016,7 +5205,7 @@
       <c r="H55" t="s">
         <v>330</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5024,7 +5213,7 @@
       <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5032,7 +5221,7 @@
       <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5040,7 +5229,7 @@
       <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5048,7 +5237,7 @@
       <c r="H59" t="s">
         <v>555</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>457</v>
       </c>
     </row>
@@ -5056,7 +5245,7 @@
       <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5064,7 +5253,7 @@
       <c r="H61" t="s">
         <v>303</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5072,7 +5261,7 @@
       <c r="H62" t="s">
         <v>312</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5080,7 +5269,7 @@
       <c r="H63" t="s">
         <v>336</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5088,7 +5277,7 @@
       <c r="H64" t="s">
         <v>309</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5096,7 +5285,7 @@
       <c r="H65" t="s">
         <v>310</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5104,7 +5293,7 @@
       <c r="H66" t="s">
         <v>364</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5112,7 +5301,7 @@
       <c r="H67" t="s">
         <v>365</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5120,7 +5309,7 @@
       <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5128,7 +5317,7 @@
       <c r="H69" t="s">
         <v>313</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5136,7 +5325,7 @@
       <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5144,7 +5333,7 @@
       <c r="H71" t="s">
         <v>542</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5152,7 +5341,7 @@
       <c r="H72" t="s">
         <v>314</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5160,7 +5349,7 @@
       <c r="H73" t="s">
         <v>404</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>383</v>
       </c>
     </row>
@@ -5168,7 +5357,7 @@
       <c r="H74" t="s">
         <v>304</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5176,7 +5365,7 @@
       <c r="H75" t="s">
         <v>405</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5184,7 +5373,7 @@
       <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5192,7 +5381,7 @@
       <c r="H77" t="s">
         <v>524</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5200,7 +5389,7 @@
       <c r="H78" t="s">
         <v>343</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5208,7 +5397,7 @@
       <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>645</v>
       </c>
     </row>
@@ -5216,7 +5405,7 @@
       <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5224,7 +5413,7 @@
       <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5232,7 +5421,7 @@
       <c r="H82" t="s">
         <v>411</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5240,7 +5429,7 @@
       <c r="H83" t="s">
         <v>331</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5248,7 +5437,7 @@
       <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5256,7 +5445,7 @@
       <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5264,7 +5453,7 @@
       <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5272,7 +5461,7 @@
       <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>511</v>
       </c>
     </row>
@@ -5280,7 +5469,7 @@
       <c r="H88" t="s">
         <v>543</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5288,7 +5477,7 @@
       <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5296,7 +5485,7 @@
       <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5304,7 +5493,7 @@
       <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>475</v>
       </c>
     </row>
@@ -5312,7 +5501,7 @@
       <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>575</v>
       </c>
     </row>
@@ -5320,7 +5509,7 @@
       <c r="H93" t="s">
         <v>305</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5328,7 +5517,7 @@
       <c r="H94" t="s">
         <v>311</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5336,7 +5525,7 @@
       <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5344,7 +5533,7 @@
       <c r="H96" t="s">
         <v>339</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5352,7 +5541,7 @@
       <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>561</v>
       </c>
     </row>
@@ -5360,272 +5549,272 @@
       <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>652</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_repeatUntil.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="655">
   <si>
     <t>description</t>
   </si>
@@ -2046,7 +2046,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="61" x14ac:knownFonts="1">
+  <fonts count="95" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2439,8 +2439,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="76">
+  <fills count="124">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2457,6 +2671,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -3059,7 +3545,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="123">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3294,55 +3780,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="50" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="75" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="63" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="64" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="67" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" app